--- a/QuantLibXL/Data2/XLS/CNH_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/CNH_Market.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="-15" windowWidth="30510" windowHeight="7845" tabRatio="879"/>
+    <workbookView xWindow="18870" yWindow="-15" windowWidth="18915" windowHeight="10350" tabRatio="879"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="56" r:id="rId1"/>
     <sheet name="CNH Hibor" sheetId="6" r:id="rId2"/>
     <sheet name="Deposits" sheetId="15" r:id="rId3"/>
-    <sheet name="FRA" sheetId="16" r:id="rId4"/>
+    <sheet name="FRAs" sheetId="16" r:id="rId4"/>
     <sheet name="OIS" sheetId="22" r:id="rId5"/>
     <sheet name="Swap3M" sheetId="25" r:id="rId6"/>
   </sheets>
@@ -19,7 +19,7 @@
     <definedName name="Contributor" localSheetId="2">Deposits!#REF!</definedName>
     <definedName name="Contributor" localSheetId="4">OIS!$O$2</definedName>
     <definedName name="Contributor">Swap3M!$O$2</definedName>
-    <definedName name="ContributorFRA">FRA!$N$4</definedName>
+    <definedName name="ContributorFRA">FRAs!$N$4</definedName>
     <definedName name="Contributors">'General Settings'!$C$12:$C$20</definedName>
     <definedName name="ContributorTable" localSheetId="2">Deposits!#REF!</definedName>
     <definedName name="ContributorTable">'General Settings'!$C$12:$D$20</definedName>
@@ -33,7 +33,7 @@
     <definedName name="FileName" localSheetId="1">'CNH Hibor'!#REF!</definedName>
     <definedName name="FileOverwrite">'General Settings'!$I$8</definedName>
     <definedName name="FixingType">'General Settings'!$I$21</definedName>
-    <definedName name="Instruments" localSheetId="3">FRA!$M$7:$M$33</definedName>
+    <definedName name="Instruments" localSheetId="3">FRAs!$M$7:$M$33</definedName>
     <definedName name="Instruments" localSheetId="4">OIS!$N$5:$N$58</definedName>
     <definedName name="Instruments" localSheetId="5">Swap3M!$N$5:$N$43</definedName>
     <definedName name="InterpolationType">'General Settings'!$D$9</definedName>
@@ -46,15 +46,15 @@
     <definedName name="Permanent">'General Settings'!$I$4</definedName>
     <definedName name="PriceTickValue">'General Settings'!$I$18</definedName>
     <definedName name="Quote" localSheetId="2">Deposits!$P$4:$P$21</definedName>
-    <definedName name="Quote" localSheetId="3">FRA!$W$7:$W$33</definedName>
+    <definedName name="Quote" localSheetId="3">FRAs!$W$7:$W$33</definedName>
     <definedName name="Quote" localSheetId="4">OIS!$X$5:$X$58</definedName>
     <definedName name="Quote" localSheetId="5">Swap3M!$X$5:$X$43</definedName>
     <definedName name="QuoteLive" localSheetId="2">Deposits!$L$4:$L$21</definedName>
-    <definedName name="QuoteLive" localSheetId="3">FRA!$S$7:$S$33</definedName>
+    <definedName name="QuoteLive" localSheetId="3">FRAs!$S$7:$S$33</definedName>
     <definedName name="QuoteLive" localSheetId="4">OIS!$T$5:$T$58</definedName>
     <definedName name="QuoteLive" localSheetId="5">Swap3M!$T$5:$T$43</definedName>
     <definedName name="QuoteStatic" localSheetId="2">Deposits!$N$4:$N$21</definedName>
-    <definedName name="QuoteStatic" localSheetId="3">FRA!$U$7:$U$33</definedName>
+    <definedName name="QuoteStatic" localSheetId="3">FRAs!$U$7:$U$33</definedName>
     <definedName name="QuoteStatic" localSheetId="4">OIS!$V$5:$V$58</definedName>
     <definedName name="QuoteStatic" localSheetId="5">Swap3M!$V$5:$V$43</definedName>
     <definedName name="QuoteSuffix">'General Settings'!$I$16</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="185">
   <si>
     <t>Currency</t>
   </si>
@@ -344,9 +344,6 @@
     <t>OND</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
     <t>x9F</t>
   </si>
   <si>
@@ -365,18 +362,6 @@
     <t>x4F</t>
   </si>
   <si>
-    <t>TOM3</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>TOM1</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
     <t>OIS</t>
   </si>
   <si>
@@ -575,9 +560,6 @@
     <t>MoneyMarketDayCounter</t>
   </si>
   <si>
-    <t>Actual/360</t>
-  </si>
-  <si>
     <t>PYNY</t>
   </si>
   <si>
@@ -645,6 +627,9 @@
   </si>
   <si>
     <t>3H</t>
+  </si>
+  <si>
+    <t>Stale</t>
   </si>
 </sst>
 </file>
@@ -664,7 +649,7 @@
     <numFmt numFmtId="173" formatCode="ddd\,\ dd\-mmm\-yyyy\ h:mm:ss"/>
     <numFmt numFmtId="174" formatCode="ddd\,\ dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,12 +787,6 @@
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1191,7 +1170,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1708,9 +1687,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="5"/>
@@ -1821,34 +1797,34 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 17:17:00</v>
+        <v>Updated at 14:20:39</v>
         <stp/>
-        <stp>{83FD5201-8D65-4E1C-8C17-2AA945F77714}</stp>
-        <tr r="N6" s="16"/>
+        <stp>{63EA48A9-C453-4E6B-BED5-C52215DF6BF1}</stp>
+        <tr r="K3" s="15"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:16:59</v>
+        <v>Updated at 14:20:39</v>
         <stp/>
-        <stp>{CB9D5169-91BD-40FC-8E8A-FB1313C68C3C}</stp>
+        <stp>{DF8B1C8E-DEBD-4344-AFBF-BB4B03CCBED3}</stp>
+        <tr r="O4" s="22"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:20:39</v>
+        <stp/>
+        <stp>{E8A75B92-D27B-4921-B725-8A9E5BD02336}</stp>
+        <tr r="O4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:20:39</v>
+        <stp/>
+        <stp>{8EA3E7AD-568F-412A-9EF9-B44F19C29DE0}</stp>
         <tr r="O5" s="6"/>
       </tp>
       <tp t="s">
-        <v>Updated at 17:19:39</v>
+        <v>Updated at 14:20:39</v>
         <stp/>
-        <stp>{B3916677-A191-4744-9ABB-577630A1A77B}</stp>
-        <tr r="O4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:16:59</v>
-        <stp/>
-        <stp>{84D66024-CF38-4B38-AA1E-F62FF36FF235}</stp>
-        <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 17:17:00</v>
-        <stp/>
-        <stp>{01CC7B88-658C-4B78-A51E-8AD14A753099}</stp>
-        <tr r="K3" s="15"/>
+        <stp>{10A281A3-E0D3-4063-8D11-BA98CC11D42B}</stp>
+        <tr r="N6" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2163,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="170" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B1" s="170" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
@@ -2172,7 +2148,7 @@
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="247" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C2" s="248"/>
       <c r="D2" s="248"/>
@@ -2200,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="223" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E4" s="145"/>
       <c r="G4" s="5"/>
@@ -2231,10 +2207,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="144"/>
       <c r="C6" s="156" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D6" s="157" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E6" s="145"/>
       <c r="G6" s="5"/>
@@ -2249,11 +2225,11 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="144"/>
       <c r="C7" s="156" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D7" s="155">
-        <f>_xll.ohTrigger(Deposits!Q2,FRA!X5,Swap3M!Y3,OIS!Y3)</f>
-        <v>19</v>
+        <f>_xll.ohTrigger(Deposits!Q2,FRAs!X5,Swap3M!Y3,OIS!Y3)</f>
+        <v>24</v>
       </c>
       <c r="E7" s="145"/>
       <c r="G7" s="5"/>
@@ -2266,11 +2242,11 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="144"/>
       <c r="C8" s="156" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D8" s="155">
         <f>_xll.ohTrigger('CNH Hibor'!Q6:Q13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="145"/>
       <c r="G8" s="5"/>
@@ -2285,20 +2261,17 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="144"/>
       <c r="C9" s="154" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D9" s="153" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E9" s="145"/>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="164" t="str">
-        <f>Currency&amp;"ON"</f>
-        <v>CNHON</v>
-      </c>
+      <c r="I9" s="164"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2308,36 +2281,36 @@
       <c r="E10" s="145"/>
       <c r="G10" s="163"/>
       <c r="H10" s="167" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I10" s="219">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41809</v>
+        <v>41810</v>
       </c>
       <c r="J10" s="162"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="144"/>
       <c r="C11" s="152" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D11" s="151" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E11" s="145"/>
       <c r="G11" s="163"/>
       <c r="H11" s="167" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I11" s="219" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J11" s="162"/>
     </row>
     <row r="12" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="144"/>
       <c r="C12" s="149" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D12" s="148" t="str">
         <f>""</f>
@@ -2352,10 +2325,10 @@
     <row r="13" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="144"/>
       <c r="C13" s="149" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="148" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E13" s="145"/>
       <c r="G13" s="172"/>
@@ -2366,10 +2339,10 @@
     <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="144"/>
       <c r="C14" s="149" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14" s="148" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E14" s="145"/>
       <c r="G14" s="211" t="s">
@@ -2382,10 +2355,10 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="144"/>
       <c r="C15" s="149" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D15" s="148" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E15" s="145"/>
       <c r="G15" s="5"/>
@@ -2396,10 +2369,10 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="144"/>
       <c r="C16" s="149" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D16" s="148" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E16" s="145"/>
       <c r="G16" s="5"/>
@@ -2414,10 +2387,10 @@
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="144"/>
       <c r="C17" s="149" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D17" s="148" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E17" s="145"/>
       <c r="G17" s="5"/>
@@ -2432,10 +2405,10 @@
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="144"/>
       <c r="C18" s="149" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D18" s="148" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E18" s="145"/>
       <c r="G18" s="5"/>
@@ -2450,37 +2423,35 @@
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="144"/>
       <c r="C19" s="149" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D19" s="148" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E19" s="145"/>
       <c r="G19" s="5"/>
       <c r="H19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>180</v>
+      <c r="I19" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="144"/>
       <c r="C20" s="147" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D20" s="146" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E20" s="145"/>
       <c r="G20" s="5"/>
       <c r="H20" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="I20" s="250" t="s">
-        <v>166</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I20" s="8"/>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -2500,7 +2471,7 @@
     <row r="22" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="144"/>
       <c r="C22" s="142" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D22" s="173">
         <v>41795.654097222221</v>
@@ -2514,7 +2485,7 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="144"/>
       <c r="C23" s="142" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D23" s="174" t="b">
         <v>1</v>
@@ -2550,14 +2521,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D10">
       <formula1>"BackwardFlat,ForwardFlat,Linear,LogLinear,CubicNaturalSpline,LogCubicNaturalSpline,MonotonicCubicNaturalSpline,MonotonicLogCubicNaturalSpline,FritschButlandCubic,FritschButlandLogCubic,KrugerCubic,KrugerLogCubic"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I20">
-      <formula1>"Actual/Actual (ISDA),Actual/360,30/360 (Bond Basis),30E/360 (Eurobond Basis),Actual/365 (Fixed),Actual/Actual (ISMA),Actual/Actual (AFB),1/1,30/360 (Italian),Simple"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>"EUR,USD,GBP,JPY,CHF,AUD,CNY,CNH"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11">
       <formula1>"TARGET,UnitedKingdom::Exchange,UnitedKingdom::Metals,UnitedKingdom::Settlement,UnitedStates::GovernmentBond,UnitedStates::NERC,UnitedStates::NYSE,UnitedStates::Settlement,Switzerland,Japan,Italy::Exchange,NullCalendar,Australia,China,HongKong::HKEx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I19">
+      <formula1>"Libor,ibor,Hibor"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2592,8 +2563,8 @@
     <col min="14" max="14" width="7" style="209" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="209" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" style="209" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="7" style="209" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8" style="209" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7" style="209" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8" style="209" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.140625" style="209" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" style="209" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6" style="209" bestFit="1" customWidth="1"/>
@@ -2706,62 +2677,62 @@
         <v>23</v>
       </c>
       <c r="D5" s="216" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E5" s="216" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="216" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G5" s="216" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="216" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="216" t="s">
+        <v>171</v>
+      </c>
+      <c r="K5" s="216" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="216" t="s">
         <v>175</v>
-      </c>
-      <c r="H5" s="216" t="s">
-        <v>183</v>
-      </c>
-      <c r="I5" s="216" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="216" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" s="216" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="216" t="s">
-        <v>181</v>
       </c>
       <c r="M5" s="216"/>
       <c r="N5" s="217"/>
       <c r="O5" s="194" t="str">
         <f>_xll.RData(O6:O13,P5:Q5,"RTFEED:IDN",,,P6)</f>
-        <v>Updated at 17:16:59</v>
+        <v>Updated at 14:20:39</v>
       </c>
       <c r="P5" s="195" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q5" s="195" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R5" s="195" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="S5" s="195" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="T5" s="226"/>
       <c r="U5" s="194" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="V5" s="195" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W5" s="195" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="X5" s="196" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Y5" s="215"/>
       <c r="Z5" s="192"/>
@@ -2769,7 +2740,7 @@
     <row r="6" spans="2:26" s="184" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="189"/>
       <c r="C6" s="224" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D6" s="228">
         <v>0</v>
@@ -2778,14 +2749,14 @@
         <f t="shared" ref="E6:E13" si="0">Calendar</f>
         <v>HongKong::HKEx</v>
       </c>
-      <c r="F6" s="229" t="s">
-        <v>179</v>
+      <c r="F6" s="228" t="s">
+        <v>173</v>
       </c>
       <c r="G6" s="228" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="235" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I6" s="230" t="str">
         <f t="shared" ref="I6:I13" si="1">PROPER(Currency)&amp;FamilyName&amp;C6</f>
@@ -2794,11 +2765,11 @@
       <c r="J6" s="214"/>
       <c r="K6" s="234" t="str">
         <f>_xll.qlOvernightIndex(I6,FamilyName,D6,"CNY",Calendar,H6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHiborON#0001</v>
+        <v>CnhHiborON#0004</v>
       </c>
       <c r="L6" s="214" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C6&amp;"LastFixing_Quote",K6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHiborONLastFixing_Quote#0001</v>
+        <v>CnhHiborONLastFixing_Quote#0004</v>
       </c>
       <c r="M6" s="214" t="str">
         <f>_xll.ohRangeRetrieveError($K6)</f>
@@ -2809,28 +2780,28 @@
         <f t="shared" ref="O6:O13" si="2">"HI"&amp;Currency&amp;C6&amp;"DF"&amp;"="</f>
         <v>HICNHONDF=</v>
       </c>
-      <c r="P6" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q6" s="202">
-        <v>2.0270000000000001</v>
+      <c r="P6" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R6" s="202" t="b">
         <f t="shared" ref="R6:R13" si="3">IF(AND(ISNUMBER($Q6),$Q6&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" s="218" t="e">
         <f>IF(Q6,_xll.qlIndexAddFixings(I6,P6,Q6/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T6" s="226"/>
       <c r="U6" s="232" t="e">
         <f>_xll.qlIndexFixing($I6,$P6,TRUE,$R6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="200">
+      <c r="V6" s="200" t="e">
         <f>IF($S6,_xll.qlIndexFixing($I6,$P6,FALSE,$R6),"-")</f>
-        <v>2.027E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W6" s="200" t="e">
         <f t="shared" ref="W6" si="4">U6-V6</f>
@@ -2849,7 +2820,7 @@
     <row r="7" spans="2:26" s="184" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="189"/>
       <c r="C7" s="197" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D7" s="229">
         <v>2</v>
@@ -2859,13 +2830,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F7" s="229" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G7" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I7" s="231" t="str">
         <f t="shared" si="1"/>
@@ -2873,12 +2844,12 @@
       </c>
       <c r="J7" s="198"/>
       <c r="K7" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I7,FamilyName,D7,"CNY",Calendar,H7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1W#0001</v>
+        <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,"CNY",E7,F7,G7,H7,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1W#0005</v>
       </c>
       <c r="L7" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1WLastFixing_Quote#0001</v>
+        <v>CnhHibor1WLastFixing_Quote#0005</v>
       </c>
       <c r="M7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K7)</f>
@@ -2889,28 +2860,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1WDF=</v>
       </c>
-      <c r="P7" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q7" s="202">
-        <v>3.0844999999999998</v>
+      <c r="P7" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R7" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="218" t="e">
         <f>IF(Q7,_xll.qlIndexAddFixings(I7,P7,Q7/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T7" s="226"/>
       <c r="U7" s="232" t="e">
         <f>_xll.qlIndexFixing($I7,$P7,TRUE,$R7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V7" s="200">
+      <c r="V7" s="200" t="e">
         <f>IF($S7,_xll.qlIndexFixing($I7,$P7,FALSE,$R7),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W7" s="200" t="e">
         <f t="shared" ref="W7:W13" si="5">U7-V7</f>
@@ -2939,13 +2910,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F8" s="229" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="G8" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I8" s="231" t="str">
         <f t="shared" si="1"/>
@@ -2953,12 +2924,12 @@
       </c>
       <c r="J8" s="198"/>
       <c r="K8" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I8,FamilyName,D8,"CNY",Calendar,H8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2W#0001</v>
+        <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,"CNY",E8,F8,G8,H8,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor2W#0005</v>
       </c>
       <c r="L8" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2WLastFixing_Quote#0001</v>
+        <v>CnhHibor2WLastFixing_Quote#0005</v>
       </c>
       <c r="M8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K8)</f>
@@ -2969,28 +2940,28 @@
         <f t="shared" si="2"/>
         <v>HICNH2WDF=</v>
       </c>
-      <c r="P8" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q8" s="202">
-        <v>3.2810000000000001</v>
+      <c r="P8" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R8" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S8" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="218" t="e">
         <f>IF(Q8,_xll.qlIndexAddFixings(I8,P8,Q8/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T8" s="226"/>
       <c r="U8" s="232" t="e">
         <f>_xll.qlIndexFixing($I8,$P8,TRUE,$R8)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V8" s="200">
+      <c r="V8" s="200" t="e">
         <f>IF($S8,_xll.qlIndexFixing($I8,$P8,FALSE,$R8),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W8" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3019,13 +2990,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F9" s="229" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G9" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I9" s="231" t="str">
         <f t="shared" si="1"/>
@@ -3033,12 +3004,12 @@
       </c>
       <c r="J9" s="198"/>
       <c r="K9" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I9,FamilyName,D9,"CNY",Calendar,H9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1M#0001</v>
+        <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,"CNY",E9,F9,G9,H9,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1M#0005</v>
       </c>
       <c r="L9" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1MLastFixing_Quote#0001</v>
+        <v>CnhHibor1MLastFixing_Quote#0005</v>
       </c>
       <c r="M9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K9)</f>
@@ -3049,28 +3020,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1MDF=</v>
       </c>
-      <c r="P9" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q9" s="202">
-        <v>2.98</v>
+      <c r="P9" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R9" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="218" t="e">
         <f>IF(Q9,_xll.qlIndexAddFixings(I9,P9,Q9/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T9" s="226"/>
       <c r="U9" s="232" t="e">
         <f>_xll.qlIndexFixing($I9,$P9,TRUE,$R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="200">
+      <c r="V9" s="200" t="e">
         <f>IF($S9,_xll.qlIndexFixing($I9,$P9,FALSE,$R9),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W9" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3099,13 +3070,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F10" s="229" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G10" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I10" s="231" t="str">
         <f t="shared" si="1"/>
@@ -3113,12 +3084,12 @@
       </c>
       <c r="J10" s="198"/>
       <c r="K10" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I10,FamilyName,D10,"CNY",Calendar,H10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2M#0001</v>
+        <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,"CNY",E10,F10,G10,H10,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor2M#0005</v>
       </c>
       <c r="L10" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2MLastFixing_Quote#0001</v>
+        <v>CnhHibor2MLastFixing_Quote#0005</v>
       </c>
       <c r="M10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K10)</f>
@@ -3129,28 +3100,28 @@
         <f t="shared" si="2"/>
         <v>HICNH2MDF=</v>
       </c>
-      <c r="P10" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q10" s="202">
-        <v>2.8879999999999999</v>
+      <c r="P10" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R10" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" s="218" t="e">
         <f>IF(Q10,_xll.qlIndexAddFixings(I10,P10,Q10/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T10" s="226"/>
       <c r="U10" s="232" t="e">
         <f>_xll.qlIndexFixing($I10,$P10,TRUE,$R10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V10" s="200">
+      <c r="V10" s="200" t="e">
         <f>IF($S10,_xll.qlIndexFixing($I10,$P10,FALSE,$R10),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W10" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3179,13 +3150,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F11" s="229" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G11" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I11" s="231" t="str">
         <f t="shared" si="1"/>
@@ -3196,12 +3167,12 @@
         <v>CNH3M#0001</v>
       </c>
       <c r="K11" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I11,FamilyName,D11,"CNY",Calendar,H11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3M#0001</v>
+        <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,"CNY",E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor3M#0018</v>
       </c>
       <c r="L11" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3MLastFixing_Quote#0001</v>
+        <v>CnhHibor3MLastFixing_Quote#0006</v>
       </c>
       <c r="M11" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K11)</f>
@@ -3212,28 +3183,28 @@
         <f t="shared" si="2"/>
         <v>HICNH3MDF=</v>
       </c>
-      <c r="P11" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q11" s="202">
-        <v>2.879</v>
+      <c r="P11" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R11" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S11" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" s="218" t="e">
         <f>IF(Q11,_xll.qlIndexAddFixings(I11,P11,Q11/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T11" s="226"/>
       <c r="U11" s="232" t="e">
         <f>_xll.qlIndexFixing($I11,$P11,TRUE,$R11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V11" s="200">
+      <c r="V11" s="200" t="e">
         <f>IF($S11,_xll.qlIndexFixing($I11,$P11,FALSE,$R11),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W11" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3262,13 +3233,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F12" s="229" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G12" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I12" s="231" t="str">
         <f t="shared" si="1"/>
@@ -3276,12 +3247,12 @@
       </c>
       <c r="J12" s="198"/>
       <c r="K12" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I12,FamilyName,D12,"CNY",Calendar,H12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6M#0001</v>
+        <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,"CNY",E12,F12,G12,H12,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor6M#0005</v>
       </c>
       <c r="L12" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6MLastFixing_Quote#0001</v>
+        <v>CnhHibor6MLastFixing_Quote#0005</v>
       </c>
       <c r="M12" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K12)</f>
@@ -3292,28 +3263,28 @@
         <f t="shared" si="2"/>
         <v>HICNH6MDF=</v>
       </c>
-      <c r="P12" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q12" s="202">
-        <v>2.8875000000000002</v>
+      <c r="P12" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R12" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S12" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" s="218" t="e">
         <f>IF(Q12,_xll.qlIndexAddFixings(I12,P12,Q12/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T12" s="227"/>
       <c r="U12" s="232" t="e">
         <f>_xll.qlIndexFixing($I12,$P12,TRUE,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="200">
+      <c r="V12" s="200" t="e">
         <f>IF($S12,_xll.qlIndexFixing($I12,$P12,FALSE,$R12),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W12" s="200" t="e">
         <f t="shared" ref="W12" si="7">U12-V12</f>
@@ -3342,13 +3313,13 @@
         <v>HongKong::HKEx</v>
       </c>
       <c r="F13" s="229" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G13" s="229" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="236" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="I13" s="231" t="str">
         <f t="shared" si="1"/>
@@ -3356,12 +3327,12 @@
       </c>
       <c r="J13" s="198"/>
       <c r="K13" s="233" t="str">
-        <f>_xll.qlOvernightIndex(I13,FamilyName,D13,"CNY",Calendar,H13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1Y#0001</v>
+        <f>_xll.qlIborIndex(I13,FamilyName,C13,D13,"CNY",E13,F13,G13,H13,,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>CnhHibor1Y#0005</v>
       </c>
       <c r="L13" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1YLastFixing_Quote#0001</v>
+        <v>CnhHibor1YLastFixing_Quote#0005</v>
       </c>
       <c r="M13" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K13)</f>
@@ -3372,28 +3343,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1YDF=</v>
       </c>
-      <c r="P13" s="201">
-        <v>41809</v>
-      </c>
-      <c r="Q13" s="202">
-        <v>3.0165000000000002</v>
+      <c r="P13" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="202" t="s">
+        <v>184</v>
       </c>
       <c r="R13" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="218" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" s="218" t="e">
         <f>IF(Q13,_xll.qlIndexAddFixings(I13,P13,Q13/100,TRUE),NA())</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T13" s="226"/>
       <c r="U13" s="237" t="e">
         <f>_xll.qlIndexFixing($I12,$P12,TRUE,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="200">
+      <c r="V13" s="200" t="e">
         <f>IF($S12,_xll.qlIndexFixing($I12,$P12,FALSE,$R12),"-")</f>
-        <v>3.0844999999999997E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W13" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3466,6 +3437,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="K11" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3517,7 +3491,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="239">
         <f>_xll.ohTrigger(Q4:Q21)</f>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="R2" s="240"/>
       <c r="S2" s="11"/>
@@ -3542,21 +3516,21 @@
       <c r="J3" s="107"/>
       <c r="K3" s="85" t="str">
         <f>_xll.RData(K4:K21,L3,"RTFEED:IDN",,,L4)</f>
-        <v>Updated at 17:17:00</v>
+        <v>Updated at 14:20:39</v>
       </c>
       <c r="L3" s="109" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M3" s="89"/>
       <c r="N3" s="108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="O3" s="89"/>
       <c r="P3" s="107" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="106" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R3" s="82"/>
       <c r="S3" s="11"/>
@@ -3581,14 +3555,14 @@
       <c r="G4" s="35"/>
       <c r="I4" s="50"/>
       <c r="J4" s="105" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K4" s="104" t="str">
         <f t="shared" ref="K4:K21" si="1">"HI"&amp;Currency&amp;J4&amp;"DF"&amp;"="</f>
         <v>HICNHONDF=</v>
       </c>
-      <c r="L4" s="103">
-        <v>2.0270000000000001</v>
+      <c r="L4" s="103" t="s">
+        <v>184</v>
       </c>
       <c r="M4" s="89"/>
       <c r="N4" s="241">
@@ -3596,12 +3570,12 @@
       </c>
       <c r="O4" s="89"/>
       <c r="P4" s="132">
-        <f t="array" ref="P4:P21">QuoteLive</f>
+        <f t="array" ref="P4:P21">QuoteStatic</f>
         <v>2.0270000000000001</v>
       </c>
-      <c r="Q4" s="100">
+      <c r="Q4" s="100" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E4,P4/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R4" s="82"/>
       <c r="S4" s="11"/>
@@ -3626,18 +3600,18 @@
       <c r="G5" s="35"/>
       <c r="I5" s="50"/>
       <c r="J5" s="93" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K5" s="92" t="str">
         <f t="shared" si="1"/>
         <v>HICNHTNDF=</v>
       </c>
       <c r="L5" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M5" s="89"/>
       <c r="N5" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O5" s="89"/>
       <c r="P5" s="131" t="str">
@@ -3670,18 +3644,18 @@
       <c r="G6" s="35"/>
       <c r="I6" s="50"/>
       <c r="J6" s="93" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K6" s="92" t="str">
         <f t="shared" si="1"/>
         <v>HICNHSNDF=</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M6" s="89"/>
       <c r="N6" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O6" s="89"/>
       <c r="P6" s="131" t="str">
@@ -3714,14 +3688,14 @@
       <c r="G7" s="35"/>
       <c r="I7" s="50"/>
       <c r="J7" s="93" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K7" s="92" t="str">
         <f t="shared" si="1"/>
         <v>HICNH1WDF=</v>
       </c>
-      <c r="L7" s="91">
-        <v>3.0844999999999998</v>
+      <c r="L7" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M7" s="89"/>
       <c r="N7" s="242">
@@ -3731,9 +3705,9 @@
       <c r="P7" s="131">
         <v>3.0844999999999998</v>
       </c>
-      <c r="Q7" s="87">
+      <c r="Q7" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E7,P7/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R7" s="82"/>
       <c r="S7" s="11"/>
@@ -3764,8 +3738,8 @@
         <f t="shared" si="1"/>
         <v>HICNH2WDF=</v>
       </c>
-      <c r="L8" s="91">
-        <v>3.2810000000000001</v>
+      <c r="L8" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M8" s="89"/>
       <c r="N8" s="242">
@@ -3775,9 +3749,9 @@
       <c r="P8" s="131">
         <v>3.2810000000000001</v>
       </c>
-      <c r="Q8" s="87">
+      <c r="Q8" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E8,P8/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R8" s="82"/>
       <c r="S8" s="11"/>
@@ -3809,11 +3783,11 @@
         <v>HICNH3WDF=</v>
       </c>
       <c r="L9" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M9" s="89"/>
       <c r="N9" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O9" s="89"/>
       <c r="P9" s="131" t="str">
@@ -3852,8 +3826,8 @@
         <f t="shared" si="1"/>
         <v>HICNH1MDF=</v>
       </c>
-      <c r="L10" s="91">
-        <v>2.98</v>
+      <c r="L10" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M10" s="89"/>
       <c r="N10" s="242">
@@ -3863,9 +3837,9 @@
       <c r="P10" s="131">
         <v>2.98</v>
       </c>
-      <c r="Q10" s="87">
+      <c r="Q10" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E10,P10/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R10" s="82"/>
       <c r="S10" s="11"/>
@@ -3896,8 +3870,8 @@
         <f t="shared" si="1"/>
         <v>HICNH2MDF=</v>
       </c>
-      <c r="L11" s="91">
-        <v>2.8879999999999999</v>
+      <c r="L11" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="242">
@@ -3907,9 +3881,9 @@
       <c r="P11" s="131">
         <v>2.8879999999999999</v>
       </c>
-      <c r="Q11" s="87">
+      <c r="Q11" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E11,P11/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R11" s="82"/>
       <c r="S11" s="11"/>
@@ -3940,8 +3914,8 @@
         <f t="shared" si="1"/>
         <v>HICNH3MDF=</v>
       </c>
-      <c r="L12" s="91">
-        <v>2.879</v>
+      <c r="L12" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="242">
@@ -3951,9 +3925,9 @@
       <c r="P12" s="131">
         <v>2.879</v>
       </c>
-      <c r="Q12" s="87">
+      <c r="Q12" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E12,P12/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R12" s="82"/>
       <c r="S12" s="11"/>
@@ -3985,11 +3959,11 @@
         <v>HICNH4MDF=</v>
       </c>
       <c r="L13" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M13" s="89"/>
       <c r="N13" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O13" s="89"/>
       <c r="P13" s="131" t="str">
@@ -4029,11 +4003,11 @@
         <v>HICNH5MDF=</v>
       </c>
       <c r="L14" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M14" s="89"/>
       <c r="N14" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O14" s="89"/>
       <c r="P14" s="131" t="str">
@@ -4072,8 +4046,8 @@
         <f t="shared" si="1"/>
         <v>HICNH6MDF=</v>
       </c>
-      <c r="L15" s="91">
-        <v>2.8875000000000002</v>
+      <c r="L15" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M15" s="89"/>
       <c r="N15" s="242">
@@ -4083,9 +4057,9 @@
       <c r="P15" s="131">
         <v>2.8875000000000002</v>
       </c>
-      <c r="Q15" s="87">
+      <c r="Q15" s="87" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E15,P15/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R15" s="82"/>
       <c r="S15" s="11"/>
@@ -4117,11 +4091,11 @@
         <v>HICNH7MDF=</v>
       </c>
       <c r="L16" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O16" s="89"/>
       <c r="P16" s="131" t="str">
@@ -4161,11 +4135,11 @@
         <v>HICNH8MDF=</v>
       </c>
       <c r="L17" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O17" s="89"/>
       <c r="P17" s="131" t="str">
@@ -4205,11 +4179,11 @@
         <v>HICNH9MDF=</v>
       </c>
       <c r="L18" s="91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M18" s="89"/>
       <c r="N18" s="242" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O18" s="89"/>
       <c r="P18" s="131" t="str">
@@ -4249,11 +4223,11 @@
         <v>HICNH10MDF=</v>
       </c>
       <c r="L19" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M19" s="89"/>
       <c r="N19" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O19" s="89"/>
       <c r="P19" s="131" t="str">
@@ -4293,11 +4267,11 @@
         <v>HICNH11MDF=</v>
       </c>
       <c r="L20" s="91" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="242" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="131" t="str">
@@ -4336,8 +4310,8 @@
         <f t="shared" si="1"/>
         <v>HICNH1YDF=</v>
       </c>
-      <c r="L21" s="91">
-        <v>3.0165000000000002</v>
+      <c r="L21" s="91" t="s">
+        <v>184</v>
       </c>
       <c r="M21" s="89"/>
       <c r="N21" s="242">
@@ -4347,9 +4321,9 @@
       <c r="P21" s="130">
         <v>3.0165000000000002</v>
       </c>
-      <c r="Q21" s="95">
+      <c r="Q21" s="95" t="e">
         <f>_xll.qlSimpleQuoteSetValue(E21,P21/100,Trigger)</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="R21" s="82"/>
       <c r="S21" s="11"/>
@@ -4449,7 +4423,7 @@
   <dimension ref="A1:AH34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4477,57 +4451,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="17"/>
       <c r="Z1" s="11"/>
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:34" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="62" t="str">
-        <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
-        <v>CNH_010_FRA.xml</v>
-      </c>
-      <c r="E2" s="61" t="str">
-        <f>IF(Serialize,_xll.ohObjectSave(E3:E33,SerializationPath&amp;D2,FileOverwrite,Serialize),"---")</f>
-        <v>---</v>
-      </c>
-      <c r="F2" s="60" t="str">
-        <f>_xll.ohRangeRetrieveError(E2)</f>
-        <v/>
-      </c>
-      <c r="G2" s="17"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="54" t="str">
-        <f t="shared" ref="D3:D33" si="0">Currency&amp;$B3&amp;$C3&amp;QuoteSuffix</f>
-        <v>CNHT1F1_Quote</v>
-      </c>
-      <c r="E3" s="53" t="str">
-        <f>_xll.qlSimpleQuote(D3,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHT1F1_Quote#0001</v>
-      </c>
-      <c r="F3" s="52" t="str">
-        <f>_xll.ohRangeRetrieveError(E3)</f>
-        <v/>
-      </c>
-      <c r="G3" s="17"/>
       <c r="I3" s="129"/>
       <c r="J3" s="77"/>
       <c r="K3" s="77"/>
@@ -4549,33 +4480,13 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>CNHTOM1F1_Quote</v>
-      </c>
-      <c r="E4" s="48" t="str">
-        <f>_xll.qlSimpleQuote(D4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHTOM1F1_Quote#0001</v>
-      </c>
-      <c r="F4" s="47" t="str">
-        <f>_xll.ohRangeRetrieveError(E4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="17"/>
       <c r="I4" s="111"/>
       <c r="J4" s="65"/>
       <c r="K4" s="11"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
       <c r="N4" s="66" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O4" s="65"/>
       <c r="P4" s="65"/>
@@ -4592,25 +4503,12 @@
       <c r="AA4" s="126"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="50"/>
-      <c r="B5" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>CNHT3F1_Quote</v>
-      </c>
-      <c r="E5" s="53" t="str">
-        <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHT3F1_Quote#0001</v>
-      </c>
-      <c r="F5" s="52" t="str">
-        <f>_xll.ohRangeRetrieveError(E5)</f>
-        <v/>
-      </c>
+      <c r="A5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="17"/>
       <c r="I5" s="50"/>
       <c r="J5" s="89"/>
@@ -4629,7 +4527,7 @@
       <c r="W5" s="65"/>
       <c r="X5" s="110">
         <f>_xll.ohTrigger(X7:X33)</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Y5" s="82"/>
       <c r="Z5" s="11"/>
@@ -4637,21 +4535,17 @@
     </row>
     <row r="6" spans="1:34" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="50"/>
-      <c r="B6" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="49" t="str">
-        <f t="shared" si="0"/>
-        <v>CNHTOM3F1_Quote</v>
-      </c>
-      <c r="E6" s="48" t="str">
-        <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHTOM3F1_Quote#0001</v>
-      </c>
-      <c r="F6" s="47" t="str">
+      <c r="B6" s="64"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="62" t="str">
+        <f>Currency&amp;"_010_"&amp;"FRA.xml"</f>
+        <v>CNH_010_FRA.xml</v>
+      </c>
+      <c r="E6" s="61" t="str">
+        <f>IF(Serialize,_xll.ohObjectSave(E7:E33,SerializationPath&amp;D6,FileOverwrite,Serialize),"---")</f>
+        <v>---</v>
+      </c>
+      <c r="F6" s="60" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
         <v/>
       </c>
@@ -4663,33 +4557,33 @@
       <c r="M6" s="72"/>
       <c r="N6" s="85" t="str">
         <f>_xll.RData(N7:N33,O6:R6,"RTFEED:IDN",ReutersRtMode,,O7)</f>
-        <v>Updated at 17:17:00</v>
+        <v>Updated at 14:20:39</v>
       </c>
       <c r="O6" s="127" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P6" s="127" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="127" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R6" s="127" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="S6" s="106" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="T6" s="89"/>
       <c r="U6" s="108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="V6" s="89"/>
       <c r="W6" s="168" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="X6" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Y6" s="82"/>
       <c r="Z6" s="11"/>
@@ -4702,15 +4596,15 @@
         <v>1</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B7&amp;$C7&amp;QuoteSuffix</f>
         <v>CNH1x4F_Quote</v>
       </c>
       <c r="E7" s="53" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1x4F_Quote#0001</v>
+        <v>CNH1x4F_Quote#0004</v>
       </c>
       <c r="F7" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -4723,34 +4617,34 @@
         <v>4</v>
       </c>
       <c r="K7" s="121">
-        <f t="shared" ref="K7:K12" si="1">B7</f>
+        <f>B7</f>
         <v>1</v>
       </c>
       <c r="L7" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M7" s="119" t="str">
-        <f t="shared" ref="M7:M33" si="2">Currency&amp;$K7&amp;$L7&amp;$J7&amp;"F"</f>
+        <f t="shared" ref="M7:M33" si="0">Currency&amp;$K7&amp;$L7&amp;$J7&amp;"F"</f>
         <v>CNH1X4F</v>
       </c>
       <c r="N7" s="244" t="str">
         <f t="array" ref="N7:N33">Instruments&amp;"="&amp;VLOOKUP(ContributorFRA,ContributorTable,2,FALSE)</f>
         <v>CNH1X4F=TRHK</v>
       </c>
-      <c r="O7" s="120">
-        <v>0</v>
-      </c>
-      <c r="P7" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="119">
-        <v>0</v>
-      </c>
-      <c r="R7" s="119">
-        <v>0</v>
-      </c>
-      <c r="S7" s="91" t="e">
-        <f>_xll.qlMidSafe($O7,$P7)</f>
+      <c r="O7" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="122" t="e">
+        <f>_xll.qlMidSafe(O7,P7)</f>
         <v>#NUM!</v>
       </c>
       <c r="T7" s="89"/>
@@ -4759,7 +4653,7 @@
       </c>
       <c r="V7" s="89"/>
       <c r="W7" s="132" t="e">
-        <f t="array" ref="W7:W33">QuoteLive</f>
+        <f t="array" ref="W7:W33">QuoteStatic</f>
         <v>#NUM!</v>
       </c>
       <c r="X7" s="100" t="e">
@@ -4776,15 +4670,15 @@
         <v>2</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B8&amp;$C8&amp;QuoteSuffix</f>
         <v>CNH2x5F_Quote</v>
       </c>
       <c r="E8" s="57" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2x5F_Quote#0001</v>
+        <v>CNH2x5F_Quote#0004</v>
       </c>
       <c r="F8" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -4793,37 +4687,37 @@
       <c r="G8" s="17"/>
       <c r="I8" s="50"/>
       <c r="J8" s="93">
-        <f t="shared" ref="J8:J12" si="3">K8+3</f>
+        <f t="shared" ref="J8:J12" si="1">K8+3</f>
         <v>5</v>
       </c>
       <c r="K8" s="121">
-        <f t="shared" si="1"/>
+        <f>B8</f>
         <v>2</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M8" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH2X5F</v>
       </c>
       <c r="N8" s="244" t="str">
         <v>CNH2X5F=TRHK</v>
       </c>
-      <c r="O8" s="120">
-        <v>0</v>
-      </c>
-      <c r="P8" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="119">
-        <v>0</v>
-      </c>
-      <c r="R8" s="119">
-        <v>0</v>
-      </c>
-      <c r="S8" s="91" t="e">
-        <f>_xll.qlMidSafe($O8,$P8)</f>
+      <c r="O8" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" s="118" t="e">
+        <f>_xll.qlMidSafe(O8,P8)</f>
         <v>#NUM!</v>
       </c>
       <c r="T8" s="89"/>
@@ -4848,15 +4742,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B9&amp;$C9&amp;QuoteSuffix</f>
         <v>CNH3x6F_Quote</v>
       </c>
       <c r="E9" s="57" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3x6F_Quote#0001</v>
+        <v>CNH3x6F_Quote#0004</v>
       </c>
       <c r="F9" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -4865,38 +4759,38 @@
       <c r="G9" s="17"/>
       <c r="I9" s="50"/>
       <c r="J9" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K9" s="121">
-        <f t="shared" si="1"/>
+        <f>B9</f>
         <v>3</v>
       </c>
       <c r="L9" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M9" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH3X6F</v>
       </c>
       <c r="N9" s="244" t="str">
         <v>CNH3X6F=TRHK</v>
       </c>
-      <c r="O9" s="120">
-        <v>2.33</v>
-      </c>
-      <c r="P9" s="120">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="Q9" s="119">
-        <v>0</v>
-      </c>
-      <c r="R9" s="119">
-        <v>0</v>
-      </c>
-      <c r="S9" s="91">
-        <f>_xll.qlMidSafe($O9,$P9)</f>
-        <v>2.38</v>
+      <c r="O9" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9" s="118" t="e">
+        <f>_xll.qlMidSafe(O9,P9)</f>
+        <v>#NUM!</v>
       </c>
       <c r="T9" s="89"/>
       <c r="U9" s="118">
@@ -4921,15 +4815,15 @@
         <v>4</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B10&amp;$C10&amp;QuoteSuffix</f>
         <v>CNH4x7F_Quote</v>
       </c>
       <c r="E10" s="57" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4x7F_Quote#0001</v>
+        <v>CNH4x7F_Quote#0004</v>
       </c>
       <c r="F10" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -4938,37 +4832,37 @@
       <c r="G10" s="17"/>
       <c r="I10" s="50"/>
       <c r="J10" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K10" s="121">
-        <f t="shared" si="1"/>
+        <f>B10</f>
         <v>4</v>
       </c>
       <c r="L10" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M10" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH4X7F</v>
       </c>
       <c r="N10" s="244" t="str">
         <v>CNH4X7F=TRHK</v>
       </c>
       <c r="O10" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P10" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R10" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S10" s="91" t="e">
-        <f>_xll.qlMidSafe($O10,$P10)</f>
+        <v>184</v>
+      </c>
+      <c r="S10" s="118" t="e">
+        <f>_xll.qlMidSafe(O10,P10)</f>
         <v>#NUM!</v>
       </c>
       <c r="T10" s="89"/>
@@ -4994,15 +4888,15 @@
         <v>5</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B11&amp;$C11&amp;QuoteSuffix</f>
         <v>CNH5x8F_Quote</v>
       </c>
       <c r="E11" s="57" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5x8F_Quote#0001</v>
+        <v>CNH5x8F_Quote#0004</v>
       </c>
       <c r="F11" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -5011,37 +4905,37 @@
       <c r="G11" s="17"/>
       <c r="I11" s="50"/>
       <c r="J11" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K11" s="121">
-        <f t="shared" si="1"/>
+        <f>B11</f>
         <v>5</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M11" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH5X8F</v>
       </c>
       <c r="N11" s="244" t="str">
         <v>CNH5X8F=TRHK</v>
       </c>
       <c r="O11" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P11" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R11" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S11" s="91" t="e">
-        <f>_xll.qlMidSafe($O11,$P11)</f>
+        <v>184</v>
+      </c>
+      <c r="S11" s="118" t="e">
+        <f>_xll.qlMidSafe(O11,P11)</f>
         <v>#NUM!</v>
       </c>
       <c r="T11" s="89"/>
@@ -5066,15 +4960,15 @@
         <v>6</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B12&amp;$C12&amp;QuoteSuffix</f>
         <v>CNH6x9F_Quote</v>
       </c>
       <c r="E12" s="48" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6x9F_Quote#0001</v>
+        <v>CNH6x9F_Quote#0004</v>
       </c>
       <c r="F12" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -5083,38 +4977,38 @@
       <c r="G12" s="17"/>
       <c r="I12" s="50"/>
       <c r="J12" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K12" s="117">
-        <f t="shared" si="1"/>
+        <f>B12</f>
         <v>6</v>
       </c>
       <c r="L12" s="117" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M12" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH6X9F</v>
       </c>
       <c r="N12" s="245" t="str">
         <v>CNH6X9F=TRHK</v>
       </c>
-      <c r="O12" s="116">
-        <v>2.4</v>
-      </c>
-      <c r="P12" s="116">
-        <v>2.5</v>
-      </c>
-      <c r="Q12" s="115">
-        <v>0</v>
-      </c>
-      <c r="R12" s="115">
-        <v>0</v>
-      </c>
-      <c r="S12" s="98">
-        <f>_xll.qlMidSafe($O12,$P12)</f>
-        <v>2.4500000000000002</v>
+      <c r="O12" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="P12" s="116" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="R12" s="115" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="114" t="e">
+        <f>_xll.qlMidSafe(O12,P12)</f>
+        <v>#NUM!</v>
       </c>
       <c r="T12" s="89"/>
       <c r="U12" s="114">
@@ -5139,16 +5033,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="55" t="str">
-        <f t="shared" ref="C13:C21" si="4">"x"&amp;B13+6&amp;"F"</f>
+        <f t="shared" ref="C13:C21" si="2">"x"&amp;B13+6&amp;"F"</f>
         <v>x7F</v>
       </c>
       <c r="D13" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B13&amp;$C13&amp;QuoteSuffix</f>
         <v>CNH1x7F_Quote</v>
       </c>
       <c r="E13" s="53" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1x7F_Quote#0001</v>
+        <v>CNH1x7F_Quote#0004</v>
       </c>
       <c r="F13" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -5165,29 +5059,29 @@
         <v>1</v>
       </c>
       <c r="L13" s="125" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M13" s="123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH1X7F</v>
       </c>
       <c r="N13" s="246" t="str">
         <v>CNH1X7F=TRHK</v>
       </c>
-      <c r="O13" s="124">
-        <v>0</v>
-      </c>
-      <c r="P13" s="124">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="123">
-        <v>0</v>
-      </c>
-      <c r="R13" s="123">
-        <v>0</v>
-      </c>
-      <c r="S13" s="103" t="e">
-        <f>_xll.qlMidSafe($O13,$P13)</f>
+      <c r="O13" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="124" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="123" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="122" t="e">
+        <f>_xll.qlMidSafe(O13,P13)</f>
         <v>#NUM!</v>
       </c>
       <c r="T13" s="89"/>
@@ -5212,16 +5106,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x8F</v>
       </c>
       <c r="D14" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B14&amp;$C14&amp;QuoteSuffix</f>
         <v>CNH2x8F_Quote</v>
       </c>
       <c r="E14" s="57" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2x8F_Quote#0001</v>
+        <v>CNH2x8F_Quote#0004</v>
       </c>
       <c r="F14" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -5230,37 +5124,37 @@
       <c r="G14" s="17"/>
       <c r="I14" s="50"/>
       <c r="J14" s="93">
-        <f t="shared" ref="J14:J21" si="5">K14+6</f>
+        <f t="shared" ref="J14:J21" si="3">K14+6</f>
         <v>8</v>
       </c>
       <c r="K14" s="121">
-        <f t="shared" ref="K14:K33" si="6">B14</f>
+        <f>B14</f>
         <v>2</v>
       </c>
       <c r="L14" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M14" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH2X8F</v>
       </c>
       <c r="N14" s="244" t="str">
         <v>CNH2X8F=TRHK</v>
       </c>
-      <c r="O14" s="120">
-        <v>0</v>
-      </c>
-      <c r="P14" s="120">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="119">
-        <v>0</v>
-      </c>
-      <c r="R14" s="119">
-        <v>0</v>
-      </c>
-      <c r="S14" s="91" t="e">
-        <f>_xll.qlMidSafe($O14,$P14)</f>
+      <c r="O14" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="118" t="e">
+        <f>_xll.qlMidSafe(O14,P14)</f>
         <v>#NUM!</v>
       </c>
       <c r="T14" s="89"/>
@@ -5285,16 +5179,16 @@
         <v>3</v>
       </c>
       <c r="C15" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x9F</v>
       </c>
       <c r="D15" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B15&amp;$C15&amp;QuoteSuffix</f>
         <v>CNH3x9F_Quote</v>
       </c>
       <c r="E15" s="57" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3x9F_Quote#0001</v>
+        <v>CNH3x9F_Quote#0004</v>
       </c>
       <c r="F15" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -5303,38 +5197,38 @@
       <c r="G15" s="17"/>
       <c r="I15" s="50"/>
       <c r="J15" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="K15" s="121">
-        <f t="shared" si="6"/>
+        <f>B15</f>
         <v>3</v>
       </c>
       <c r="L15" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M15" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH3X9F</v>
       </c>
       <c r="N15" s="244" t="str">
         <v>CNH3X9F=TRHK</v>
       </c>
-      <c r="O15" s="120">
-        <v>2.7</v>
-      </c>
-      <c r="P15" s="120">
-        <v>2.9</v>
-      </c>
-      <c r="Q15" s="119">
-        <v>0</v>
-      </c>
-      <c r="R15" s="119">
-        <v>0</v>
-      </c>
-      <c r="S15" s="91">
-        <f>_xll.qlMidSafe($O15,$P15)</f>
-        <v>2.8</v>
+      <c r="O15" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P15" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R15" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="118" t="e">
+        <f>_xll.qlMidSafe(O15,P15)</f>
+        <v>#NUM!</v>
       </c>
       <c r="T15" s="89"/>
       <c r="U15" s="118">
@@ -5358,16 +5252,16 @@
         <v>4</v>
       </c>
       <c r="C16" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x10F</v>
       </c>
       <c r="D16" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B16&amp;$C16&amp;QuoteSuffix</f>
         <v>CNH4x10F_Quote</v>
       </c>
       <c r="E16" s="57" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4x10F_Quote#0001</v>
+        <v>CNH4x10F_Quote#0004</v>
       </c>
       <c r="F16" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -5376,37 +5270,37 @@
       <c r="G16" s="17"/>
       <c r="I16" s="50"/>
       <c r="J16" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K16" s="121">
-        <f t="shared" si="6"/>
+        <f>B16</f>
         <v>4</v>
       </c>
       <c r="L16" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M16" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH4X10F</v>
       </c>
       <c r="N16" s="244" t="str">
         <v>CNH4X10F=TRHK</v>
       </c>
       <c r="O16" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P16" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R16" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S16" s="91" t="e">
-        <f>_xll.qlMidSafe($O16,$P16)</f>
+        <v>184</v>
+      </c>
+      <c r="S16" s="118" t="e">
+        <f>_xll.qlMidSafe(O16,P16)</f>
         <v>#NUM!</v>
       </c>
       <c r="T16" s="89"/>
@@ -5431,16 +5325,16 @@
         <v>5</v>
       </c>
       <c r="C17" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x11F</v>
       </c>
       <c r="D17" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B17&amp;$C17&amp;QuoteSuffix</f>
         <v>CNH5x11F_Quote</v>
       </c>
       <c r="E17" s="57" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5x11F_Quote#0001</v>
+        <v>CNH5x11F_Quote#0004</v>
       </c>
       <c r="F17" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -5449,37 +5343,37 @@
       <c r="G17" s="17"/>
       <c r="I17" s="50"/>
       <c r="J17" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K17" s="121">
-        <f t="shared" si="6"/>
+        <f>B17</f>
         <v>5</v>
       </c>
       <c r="L17" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M17" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH5X11F</v>
       </c>
       <c r="N17" s="244" t="str">
         <v>CNH5X11F=TRHK</v>
       </c>
       <c r="O17" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P17" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R17" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S17" s="91" t="e">
-        <f>_xll.qlMidSafe($O17,$P17)</f>
+        <v>184</v>
+      </c>
+      <c r="S17" s="118" t="e">
+        <f>_xll.qlMidSafe(O17,P17)</f>
         <v>#NUM!</v>
       </c>
       <c r="T17" s="89"/>
@@ -5504,16 +5398,16 @@
         <v>6</v>
       </c>
       <c r="C18" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x12F</v>
       </c>
       <c r="D18" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B18&amp;$C18&amp;QuoteSuffix</f>
         <v>CNH6x12F_Quote</v>
       </c>
       <c r="E18" s="57" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6x12F_Quote#0001</v>
+        <v>CNH6x12F_Quote#0004</v>
       </c>
       <c r="F18" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -5522,38 +5416,38 @@
       <c r="G18" s="17"/>
       <c r="I18" s="50"/>
       <c r="J18" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K18" s="121">
-        <f t="shared" si="6"/>
+        <f>B18</f>
         <v>6</v>
       </c>
       <c r="L18" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M18" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH6X12F</v>
       </c>
       <c r="N18" s="244" t="str">
         <v>CNH6X12F=TRHK</v>
       </c>
-      <c r="O18" s="120">
-        <v>2.8</v>
-      </c>
-      <c r="P18" s="120">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="119">
-        <v>0</v>
-      </c>
-      <c r="R18" s="119">
-        <v>0</v>
-      </c>
-      <c r="S18" s="91">
-        <f>_xll.qlMidSafe($O18,$P18)</f>
-        <v>2.9</v>
+      <c r="O18" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="P18" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q18" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="R18" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="118" t="e">
+        <f>_xll.qlMidSafe(O18,P18)</f>
+        <v>#NUM!</v>
       </c>
       <c r="T18" s="89"/>
       <c r="U18" s="118">
@@ -5577,16 +5471,16 @@
         <v>9</v>
       </c>
       <c r="C19" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x15F</v>
       </c>
       <c r="D19" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B19&amp;$C19&amp;QuoteSuffix</f>
         <v>CNH9x15F_Quote</v>
       </c>
       <c r="E19" s="57" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9x15F_Quote#0001</v>
+        <v>CNH9x15F_Quote#0004</v>
       </c>
       <c r="F19" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -5595,37 +5489,37 @@
       <c r="G19" s="17"/>
       <c r="I19" s="50"/>
       <c r="J19" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K19" s="121">
-        <f t="shared" si="6"/>
+        <f>B19</f>
         <v>9</v>
       </c>
       <c r="L19" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M19" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH9X15F</v>
       </c>
       <c r="N19" s="244" t="str">
         <v>CNH9X15F=TRHK</v>
       </c>
       <c r="O19" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P19" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R19" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S19" s="91" t="e">
-        <f>_xll.qlMidSafe($O19,$P19)</f>
+        <v>184</v>
+      </c>
+      <c r="S19" s="118" t="e">
+        <f>_xll.qlMidSafe(O19,P19)</f>
         <v>#NUM!</v>
       </c>
       <c r="T19" s="89"/>
@@ -5650,16 +5544,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x18F</v>
       </c>
       <c r="D20" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B20&amp;$C20&amp;QuoteSuffix</f>
         <v>CNH12x18F_Quote</v>
       </c>
       <c r="E20" s="57" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH12x18F_Quote#0001</v>
+        <v>CNH12x18F_Quote#0004</v>
       </c>
       <c r="F20" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -5668,37 +5562,37 @@
       <c r="G20" s="17"/>
       <c r="I20" s="50"/>
       <c r="J20" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K20" s="121">
-        <f t="shared" si="6"/>
+        <f>B20</f>
         <v>12</v>
       </c>
       <c r="L20" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M20" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH12X18F</v>
       </c>
       <c r="N20" s="244" t="str">
         <v>CNH12X18F=TRHK</v>
       </c>
       <c r="O20" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P20" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R20" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S20" s="91" t="e">
-        <f>_xll.qlMidSafe($O20,$P20)</f>
+        <v>184</v>
+      </c>
+      <c r="S20" s="118" t="e">
+        <f>_xll.qlMidSafe(O20,P20)</f>
         <v>#NUM!</v>
       </c>
       <c r="T20" s="89"/>
@@ -5723,16 +5617,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>x24F</v>
       </c>
       <c r="D21" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B21&amp;$C21&amp;QuoteSuffix</f>
         <v>CNH18x24F_Quote</v>
       </c>
       <c r="E21" s="48" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH18x24F_Quote#0001</v>
+        <v>CNH18x24F_Quote#0004</v>
       </c>
       <c r="F21" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -5741,37 +5635,37 @@
       <c r="G21" s="17"/>
       <c r="I21" s="50"/>
       <c r="J21" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="K21" s="117">
-        <f t="shared" si="6"/>
+        <f>B21</f>
         <v>18</v>
       </c>
       <c r="L21" s="117" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M21" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH18X24F</v>
       </c>
       <c r="N21" s="245" t="str">
         <v>CNH18X24F=TRHK</v>
       </c>
       <c r="O21" s="116" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P21" s="116" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="115" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R21" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="S21" s="98" t="e">
-        <f>_xll.qlMidSafe($O21,$P21)</f>
+        <v>184</v>
+      </c>
+      <c r="S21" s="114" t="e">
+        <f>_xll.qlMidSafe(O21,P21)</f>
         <v>#NUM!</v>
       </c>
       <c r="T21" s="89"/>
@@ -5800,12 +5694,12 @@
         <v>x13F</v>
       </c>
       <c r="D22" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B22&amp;$C22&amp;QuoteSuffix</f>
         <v>CNH1x13F_Quote</v>
       </c>
       <c r="E22" s="53" t="str">
         <f>_xll.qlSimpleQuote(D22,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1x13F_Quote#0001</v>
+        <v>CNH1x13F_Quote#0004</v>
       </c>
       <c r="F22" s="52" t="str">
         <f>_xll.ohRangeRetrieveError(E22)</f>
@@ -5818,33 +5712,33 @@
         <v>13</v>
       </c>
       <c r="K22" s="125">
-        <f t="shared" si="6"/>
+        <f>B22</f>
         <v>1</v>
       </c>
       <c r="L22" s="125" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M22" s="123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH1X13F</v>
       </c>
       <c r="N22" s="246" t="str">
         <v>CNH1X13F=TRHK</v>
       </c>
       <c r="O22" s="124" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P22" s="124" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="123" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R22" s="123" t="s">
-        <v>128</v>
-      </c>
-      <c r="S22" s="103" t="e">
-        <f>_xll.qlMidSafe($O22,$P22)</f>
+        <v>184</v>
+      </c>
+      <c r="S22" s="122" t="e">
+        <f>_xll.qlMidSafe(O22,P22)</f>
         <v>#NUM!</v>
       </c>
       <c r="T22" s="89"/>
@@ -5867,16 +5761,16 @@
         <v>2</v>
       </c>
       <c r="C23" s="221" t="str">
-        <f t="shared" ref="C23:C33" si="7">"x"&amp;B23+12&amp;"F"</f>
+        <f t="shared" ref="C23:C33" si="4">"x"&amp;B23+12&amp;"F"</f>
         <v>x14F</v>
       </c>
       <c r="D23" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B23&amp;$C23&amp;QuoteSuffix</f>
         <v>CNH2x14F_Quote</v>
       </c>
       <c r="E23" s="57" t="str">
         <f>_xll.qlSimpleQuote(D23,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2x14F_Quote#0001</v>
+        <v>CNH2x14F_Quote#0004</v>
       </c>
       <c r="F23" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E23)</f>
@@ -5885,37 +5779,37 @@
       <c r="G23" s="17"/>
       <c r="I23" s="50"/>
       <c r="J23" s="93">
-        <f t="shared" ref="J23:J33" si="8">K23+12</f>
+        <f t="shared" ref="J23:J33" si="5">K23+12</f>
         <v>14</v>
       </c>
       <c r="K23" s="121">
-        <f t="shared" si="6"/>
+        <f>B23</f>
         <v>2</v>
       </c>
       <c r="L23" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M23" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH2X14F</v>
       </c>
       <c r="N23" s="244" t="str">
         <v>CNH2X14F=TRHK</v>
       </c>
       <c r="O23" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R23" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S23" s="91" t="e">
-        <f>_xll.qlMidSafe($O23,$P23)</f>
+        <v>184</v>
+      </c>
+      <c r="S23" s="118" t="e">
+        <f>_xll.qlMidSafe(O23,P23)</f>
         <v>#NUM!</v>
       </c>
       <c r="T23" s="89"/>
@@ -5938,16 +5832,16 @@
         <v>3</v>
       </c>
       <c r="C24" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x15F</v>
       </c>
       <c r="D24" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B24&amp;$C24&amp;QuoteSuffix</f>
         <v>CNH3x15F_Quote</v>
       </c>
       <c r="E24" s="57" t="str">
         <f>_xll.qlSimpleQuote(D24,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3x15F_Quote#0001</v>
+        <v>CNH3x15F_Quote#0004</v>
       </c>
       <c r="F24" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E24)</f>
@@ -5956,37 +5850,37 @@
       <c r="G24" s="17"/>
       <c r="I24" s="50"/>
       <c r="J24" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K24" s="121">
-        <f t="shared" si="6"/>
+        <f>B24</f>
         <v>3</v>
       </c>
       <c r="L24" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M24" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH3X15F</v>
       </c>
       <c r="N24" s="244" t="str">
         <v>CNH3X15F=TRHK</v>
       </c>
       <c r="O24" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P24" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R24" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="91" t="e">
-        <f>_xll.qlMidSafe($O24,$P24)</f>
+        <v>184</v>
+      </c>
+      <c r="S24" s="118" t="e">
+        <f>_xll.qlMidSafe(O24,P24)</f>
         <v>#NUM!</v>
       </c>
       <c r="T24" s="89"/>
@@ -6009,16 +5903,16 @@
         <v>4</v>
       </c>
       <c r="C25" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x16F</v>
       </c>
       <c r="D25" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B25&amp;$C25&amp;QuoteSuffix</f>
         <v>CNH4x16F_Quote</v>
       </c>
       <c r="E25" s="57" t="str">
         <f>_xll.qlSimpleQuote(D25,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4x16F_Quote#0001</v>
+        <v>CNH4x16F_Quote#0004</v>
       </c>
       <c r="F25" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E25)</f>
@@ -6027,37 +5921,37 @@
       <c r="G25" s="17"/>
       <c r="I25" s="50"/>
       <c r="J25" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="K25" s="121">
-        <f t="shared" si="6"/>
+        <f>B25</f>
         <v>4</v>
       </c>
       <c r="L25" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M25" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH4X16F</v>
       </c>
       <c r="N25" s="244" t="str">
         <v>CNH4X16F=TRHK</v>
       </c>
       <c r="O25" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P25" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R25" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="91" t="e">
-        <f>_xll.qlMidSafe($O25,$P25)</f>
+        <v>184</v>
+      </c>
+      <c r="S25" s="118" t="e">
+        <f>_xll.qlMidSafe(O25,P25)</f>
         <v>#NUM!</v>
       </c>
       <c r="T25" s="89"/>
@@ -6080,16 +5974,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x17F</v>
       </c>
       <c r="D26" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B26&amp;$C26&amp;QuoteSuffix</f>
         <v>CNH5x17F_Quote</v>
       </c>
       <c r="E26" s="57" t="str">
         <f>_xll.qlSimpleQuote(D26,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5x17F_Quote#0001</v>
+        <v>CNH5x17F_Quote#0004</v>
       </c>
       <c r="F26" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E26)</f>
@@ -6098,37 +5992,37 @@
       <c r="G26" s="17"/>
       <c r="I26" s="50"/>
       <c r="J26" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="K26" s="121">
-        <f t="shared" si="6"/>
+        <f>B26</f>
         <v>5</v>
       </c>
       <c r="L26" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M26" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH5X17F</v>
       </c>
       <c r="N26" s="244" t="str">
         <v>CNH5X17F=TRHK</v>
       </c>
       <c r="O26" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P26" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R26" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="91" t="e">
-        <f>_xll.qlMidSafe($O26,$P26)</f>
+        <v>184</v>
+      </c>
+      <c r="S26" s="118" t="e">
+        <f>_xll.qlMidSafe(O26,P26)</f>
         <v>#NUM!</v>
       </c>
       <c r="T26" s="89"/>
@@ -6151,16 +6045,16 @@
         <v>6</v>
       </c>
       <c r="C27" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x18F</v>
       </c>
       <c r="D27" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B27&amp;$C27&amp;QuoteSuffix</f>
         <v>CNH6x18F_Quote</v>
       </c>
       <c r="E27" s="57" t="str">
         <f>_xll.qlSimpleQuote(D27,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6x18F_Quote#0001</v>
+        <v>CNH6x18F_Quote#0004</v>
       </c>
       <c r="F27" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E27)</f>
@@ -6169,37 +6063,37 @@
       <c r="G27" s="17"/>
       <c r="I27" s="50"/>
       <c r="J27" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K27" s="121">
-        <f t="shared" si="6"/>
+        <f>B27</f>
         <v>6</v>
       </c>
       <c r="L27" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M27" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH6X18F</v>
       </c>
       <c r="N27" s="244" t="str">
         <v>CNH6X18F=TRHK</v>
       </c>
       <c r="O27" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P27" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R27" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S27" s="91" t="e">
-        <f>_xll.qlMidSafe($O27,$P27)</f>
+        <v>184</v>
+      </c>
+      <c r="S27" s="118" t="e">
+        <f>_xll.qlMidSafe(O27,P27)</f>
         <v>#NUM!</v>
       </c>
       <c r="T27" s="89"/>
@@ -6222,16 +6116,16 @@
         <v>7</v>
       </c>
       <c r="C28" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x19F</v>
       </c>
       <c r="D28" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B28&amp;$C28&amp;QuoteSuffix</f>
         <v>CNH7x19F_Quote</v>
       </c>
       <c r="E28" s="57" t="str">
         <f>_xll.qlSimpleQuote(D28,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH7x19F_Quote#0001</v>
+        <v>CNH7x19F_Quote#0004</v>
       </c>
       <c r="F28" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E28)</f>
@@ -6240,37 +6134,37 @@
       <c r="G28" s="17"/>
       <c r="I28" s="50"/>
       <c r="J28" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="K28" s="121">
-        <f t="shared" si="6"/>
+        <f>B28</f>
         <v>7</v>
       </c>
       <c r="L28" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M28" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH7X19F</v>
       </c>
       <c r="N28" s="244" t="str">
         <v>CNH7X19F=TRHK</v>
       </c>
       <c r="O28" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P28" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R28" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S28" s="91" t="e">
-        <f>_xll.qlMidSafe($O28,$P28)</f>
+        <v>184</v>
+      </c>
+      <c r="S28" s="118" t="e">
+        <f>_xll.qlMidSafe(O28,P28)</f>
         <v>#NUM!</v>
       </c>
       <c r="T28" s="89"/>
@@ -6293,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x20F</v>
       </c>
       <c r="D29" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B29&amp;$C29&amp;QuoteSuffix</f>
         <v>CNH8x20F_Quote</v>
       </c>
       <c r="E29" s="57" t="str">
         <f>_xll.qlSimpleQuote(D29,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH8x20F_Quote#0001</v>
+        <v>CNH8x20F_Quote#0004</v>
       </c>
       <c r="F29" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E29)</f>
@@ -6311,37 +6205,37 @@
       <c r="G29" s="17"/>
       <c r="I29" s="50"/>
       <c r="J29" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K29" s="121">
-        <f t="shared" si="6"/>
+        <f>B29</f>
         <v>8</v>
       </c>
       <c r="L29" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M29" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH8X20F</v>
       </c>
       <c r="N29" s="244" t="str">
         <v>CNH8X20F=TRHK</v>
       </c>
       <c r="O29" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P29" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R29" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S29" s="91" t="e">
-        <f>_xll.qlMidSafe($O29,$P29)</f>
+        <v>184</v>
+      </c>
+      <c r="S29" s="118" t="e">
+        <f>_xll.qlMidSafe(O29,P29)</f>
         <v>#NUM!</v>
       </c>
       <c r="T29" s="89"/>
@@ -6364,16 +6258,16 @@
         <v>9</v>
       </c>
       <c r="C30" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x21F</v>
       </c>
       <c r="D30" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B30&amp;$C30&amp;QuoteSuffix</f>
         <v>CNH9x21F_Quote</v>
       </c>
       <c r="E30" s="57" t="str">
         <f>_xll.qlSimpleQuote(D30,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9x21F_Quote#0001</v>
+        <v>CNH9x21F_Quote#0004</v>
       </c>
       <c r="F30" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E30)</f>
@@ -6382,37 +6276,37 @@
       <c r="G30" s="17"/>
       <c r="I30" s="50"/>
       <c r="J30" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="K30" s="121">
-        <f t="shared" si="6"/>
+        <f>B30</f>
         <v>9</v>
       </c>
       <c r="L30" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M30" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH9X21F</v>
       </c>
       <c r="N30" s="244" t="str">
         <v>CNH9X21F=TRHK</v>
       </c>
       <c r="O30" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P30" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R30" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S30" s="91" t="e">
-        <f>_xll.qlMidSafe($O30,$P30)</f>
+        <v>184</v>
+      </c>
+      <c r="S30" s="118" t="e">
+        <f>_xll.qlMidSafe(O30,P30)</f>
         <v>#NUM!</v>
       </c>
       <c r="T30" s="89"/>
@@ -6435,16 +6329,16 @@
         <v>10</v>
       </c>
       <c r="C31" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x22F</v>
       </c>
       <c r="D31" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B31&amp;$C31&amp;QuoteSuffix</f>
         <v>CNH10x22F_Quote</v>
       </c>
       <c r="E31" s="57" t="str">
         <f>_xll.qlSimpleQuote(D31,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH10x22F_Quote#0001</v>
+        <v>CNH10x22F_Quote#0004</v>
       </c>
       <c r="F31" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E31)</f>
@@ -6453,37 +6347,37 @@
       <c r="G31" s="17"/>
       <c r="I31" s="50"/>
       <c r="J31" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="K31" s="121">
-        <f t="shared" si="6"/>
+        <f>B31</f>
         <v>10</v>
       </c>
       <c r="L31" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M31" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH10X22F</v>
       </c>
       <c r="N31" s="244" t="str">
         <v>CNH10X22F=TRHK</v>
       </c>
       <c r="O31" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P31" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R31" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S31" s="91" t="e">
-        <f>_xll.qlMidSafe($O31,$P31)</f>
+        <v>184</v>
+      </c>
+      <c r="S31" s="118" t="e">
+        <f>_xll.qlMidSafe(O31,P31)</f>
         <v>#NUM!</v>
       </c>
       <c r="T31" s="89"/>
@@ -6506,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x23F</v>
       </c>
       <c r="D32" s="58" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B32&amp;$C32&amp;QuoteSuffix</f>
         <v>CNH11x23F_Quote</v>
       </c>
       <c r="E32" s="57" t="str">
         <f>_xll.qlSimpleQuote(D32,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH11x23F_Quote#0001</v>
+        <v>CNH11x23F_Quote#0004</v>
       </c>
       <c r="F32" s="56" t="str">
         <f>_xll.ohRangeRetrieveError(E32)</f>
@@ -6524,37 +6418,37 @@
       <c r="G32" s="17"/>
       <c r="I32" s="50"/>
       <c r="J32" s="93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="K32" s="121">
-        <f t="shared" si="6"/>
+        <f>B32</f>
         <v>11</v>
       </c>
       <c r="L32" s="121" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M32" s="119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH11X23F</v>
       </c>
       <c r="N32" s="244" t="str">
         <v>CNH11X23F=TRHK</v>
       </c>
       <c r="O32" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P32" s="120" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="119" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R32" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="S32" s="91" t="e">
-        <f>_xll.qlMidSafe($O32,$P32)</f>
+        <v>184</v>
+      </c>
+      <c r="S32" s="118" t="e">
+        <f>_xll.qlMidSafe(O32,P32)</f>
         <v>#NUM!</v>
       </c>
       <c r="T32" s="89"/>
@@ -6577,16 +6471,16 @@
         <v>12</v>
       </c>
       <c r="C33" s="222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>x24F</v>
       </c>
       <c r="D33" s="49" t="str">
-        <f t="shared" si="0"/>
+        <f>Currency&amp;$B33&amp;$C33&amp;QuoteSuffix</f>
         <v>CNH12x24F_Quote</v>
       </c>
       <c r="E33" s="48" t="str">
         <f>_xll.qlSimpleQuote(D33,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH12x24F_Quote#0001</v>
+        <v>CNH12x24F_Quote#0004</v>
       </c>
       <c r="F33" s="47" t="str">
         <f>_xll.ohRangeRetrieveError(E33)</f>
@@ -6595,37 +6489,37 @@
       <c r="G33" s="17"/>
       <c r="I33" s="50"/>
       <c r="J33" s="99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K33" s="117">
-        <f t="shared" si="6"/>
+        <f>B33</f>
         <v>12</v>
       </c>
       <c r="L33" s="117" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M33" s="115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>CNH12X24F</v>
       </c>
       <c r="N33" s="245" t="str">
         <v>CNH12X24F=TRHK</v>
       </c>
       <c r="O33" s="116" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="P33" s="116" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="115" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R33" s="115" t="s">
-        <v>128</v>
-      </c>
-      <c r="S33" s="98" t="e">
-        <f>_xll.qlMidSafe($O33,$P33)</f>
+        <v>184</v>
+      </c>
+      <c r="S33" s="114" t="e">
+        <f>_xll.qlMidSafe(O33,P33)</f>
         <v>#NUM!</v>
       </c>
       <c r="T33" s="89"/>
@@ -6747,7 +6641,7 @@
       <c r="M2" s="65"/>
       <c r="N2" s="65"/>
       <c r="O2" s="66" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P2" s="65"/>
       <c r="Q2" s="65"/>
@@ -6787,7 +6681,7 @@
       <c r="X3" s="65"/>
       <c r="Y3" s="110">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="82"/>
     </row>
@@ -6816,33 +6710,33 @@
       <c r="N4" s="63"/>
       <c r="O4" s="136" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 17:16:59</v>
+        <v>Updated at 14:20:39</v>
       </c>
       <c r="P4" s="134" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="134" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R4" s="134" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S4" s="134" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="T4" s="135" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="U4" s="89"/>
       <c r="V4" s="108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="W4" s="89"/>
       <c r="X4" s="168" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="82"/>
     </row>
@@ -6850,7 +6744,7 @@
       <c r="A5" s="50"/>
       <c r="B5" s="69"/>
       <c r="C5" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" s="178" t="s">
         <v>22</v>
@@ -6874,7 +6768,7 @@
       </c>
       <c r="L5" s="125"/>
       <c r="M5" s="125" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N5" s="123" t="str">
         <f t="shared" ref="N5:N36" si="1">Currency&amp;$K5&amp;$L5&amp;$M5</f>
@@ -6885,16 +6779,16 @@
         <v>CNHSWOIS=TRHK</v>
       </c>
       <c r="P5" s="101" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="101" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R5" s="101" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S5" s="101" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T5" s="103" t="e">
         <f>_xll.qlMidEquivalent($P5,$Q5,$R5,$S5)</f>
@@ -6906,7 +6800,7 @@
       </c>
       <c r="W5" s="89"/>
       <c r="X5" s="132" t="e">
-        <f t="array" ref="X5:X58">QuoteLive</f>
+        <f t="array" ref="X5:X58">QuoteStatic</f>
         <v>#NUM!</v>
       </c>
       <c r="Y5" s="100" t="e">
@@ -6919,7 +6813,7 @@
       <c r="A6" s="50"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D6" s="178" t="s">
         <v>21</v>
@@ -6943,7 +6837,7 @@
       </c>
       <c r="L6" s="121"/>
       <c r="M6" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N6" s="119" t="str">
         <f t="shared" si="1"/>
@@ -6953,16 +6847,16 @@
         <v>CNH2WOIS=TRHK</v>
       </c>
       <c r="P6" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T6" s="91" t="e">
         <f>_xll.qlMidEquivalent($P6,$Q6,$R6,$S6)</f>
@@ -6986,7 +6880,7 @@
       <c r="A7" s="50"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="178" t="s">
         <v>20</v>
@@ -7010,7 +6904,7 @@
       </c>
       <c r="L7" s="121"/>
       <c r="M7" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N7" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7020,16 +6914,16 @@
         <v>CNH3WOIS=TRHK</v>
       </c>
       <c r="P7" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R7" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S7" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T7" s="91" t="e">
         <f>_xll.qlMidEquivalent($P7,$Q7,$R7,$S7)</f>
@@ -7053,7 +6947,7 @@
       <c r="A8" s="50"/>
       <c r="B8" s="69"/>
       <c r="C8" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D8" s="178" t="s">
         <v>19</v>
@@ -7077,7 +6971,7 @@
       </c>
       <c r="L8" s="121"/>
       <c r="M8" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N8" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7086,21 +6980,21 @@
       <c r="O8" s="119" t="str">
         <v>CNH1MOIS=TRHK</v>
       </c>
-      <c r="P8" s="88">
-        <v>0.35</v>
-      </c>
-      <c r="Q8" s="88">
-        <v>0.65</v>
-      </c>
-      <c r="R8" s="88">
-        <v>0</v>
-      </c>
-      <c r="S8" s="88">
-        <v>0</v>
-      </c>
-      <c r="T8" s="91">
+      <c r="P8" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T8" s="91" t="e">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>0.5</v>
+        <v>#NUM!</v>
       </c>
       <c r="U8" s="89"/>
       <c r="V8" s="90">
@@ -7120,7 +7014,7 @@
       <c r="A9" s="50"/>
       <c r="B9" s="69"/>
       <c r="C9" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D9" s="178" t="s">
         <v>18</v>
@@ -7144,7 +7038,7 @@
       </c>
       <c r="L9" s="121"/>
       <c r="M9" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N9" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7153,21 +7047,21 @@
       <c r="O9" s="119" t="str">
         <v>CNH2MOIS=TRHK</v>
       </c>
-      <c r="P9" s="88">
-        <v>0.35</v>
-      </c>
-      <c r="Q9" s="88">
-        <v>0.65</v>
-      </c>
-      <c r="R9" s="88">
-        <v>0</v>
-      </c>
-      <c r="S9" s="88">
-        <v>0</v>
-      </c>
-      <c r="T9" s="91">
+      <c r="P9" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="91" t="e">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>0.5</v>
+        <v>#NUM!</v>
       </c>
       <c r="U9" s="89"/>
       <c r="V9" s="90">
@@ -7187,7 +7081,7 @@
       <c r="A10" s="50"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="178" t="s">
         <v>17</v>
@@ -7211,7 +7105,7 @@
       </c>
       <c r="L10" s="121"/>
       <c r="M10" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N10" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7220,21 +7114,21 @@
       <c r="O10" s="119" t="str">
         <v>CNH3MOIS=TRHK</v>
       </c>
-      <c r="P10" s="88">
-        <v>0.33</v>
-      </c>
-      <c r="Q10" s="88">
-        <v>0.63</v>
-      </c>
-      <c r="R10" s="88">
-        <v>0</v>
-      </c>
-      <c r="S10" s="88">
-        <v>0</v>
-      </c>
-      <c r="T10" s="91">
+      <c r="P10" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R10" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="91" t="e">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>0.48</v>
+        <v>#NUM!</v>
       </c>
       <c r="U10" s="89"/>
       <c r="V10" s="90">
@@ -7254,7 +7148,7 @@
       <c r="A11" s="50"/>
       <c r="B11" s="69"/>
       <c r="C11" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D11" s="178" t="s">
         <v>16</v>
@@ -7278,7 +7172,7 @@
       </c>
       <c r="L11" s="121"/>
       <c r="M11" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N11" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7288,16 +7182,16 @@
         <v>CNH4MOIS=TRHK</v>
       </c>
       <c r="P11" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R11" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S11" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T11" s="91" t="e">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
@@ -7321,7 +7215,7 @@
       <c r="A12" s="50"/>
       <c r="B12" s="69"/>
       <c r="C12" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D12" s="178" t="s">
         <v>15</v>
@@ -7345,7 +7239,7 @@
       </c>
       <c r="L12" s="121"/>
       <c r="M12" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N12" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7355,16 +7249,16 @@
         <v>CNH5MOIS=TRHK</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S12" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T12" s="91" t="e">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
@@ -7388,7 +7282,7 @@
       <c r="A13" s="50"/>
       <c r="B13" s="69"/>
       <c r="C13" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D13" s="178" t="s">
         <v>14</v>
@@ -7412,7 +7306,7 @@
       </c>
       <c r="L13" s="121"/>
       <c r="M13" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N13" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7421,17 +7315,17 @@
       <c r="O13" s="119" t="str">
         <v>CNH6MOIS=TRHK</v>
       </c>
-      <c r="P13" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="88">
-        <v>0</v>
-      </c>
-      <c r="R13" s="88">
-        <v>0</v>
-      </c>
-      <c r="S13" s="88">
-        <v>0</v>
+      <c r="P13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="88" t="s">
+        <v>184</v>
       </c>
       <c r="T13" s="91" t="e">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
@@ -7455,7 +7349,7 @@
       <c r="A14" s="50"/>
       <c r="B14" s="69"/>
       <c r="C14" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D14" s="178" t="s">
         <v>13</v>
@@ -7479,7 +7373,7 @@
       </c>
       <c r="L14" s="121"/>
       <c r="M14" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N14" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7489,16 +7383,16 @@
         <v>CNH7MOIS=TRHK</v>
       </c>
       <c r="P14" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R14" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S14" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T14" s="91" t="e">
         <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
@@ -7522,7 +7416,7 @@
       <c r="A15" s="50"/>
       <c r="B15" s="69"/>
       <c r="C15" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D15" s="178" t="s">
         <v>12</v>
@@ -7546,7 +7440,7 @@
       </c>
       <c r="L15" s="121"/>
       <c r="M15" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N15" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7556,16 +7450,16 @@
         <v>CNH8MOIS=TRHK</v>
       </c>
       <c r="P15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T15" s="91" t="e">
         <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
@@ -7589,7 +7483,7 @@
       <c r="A16" s="50"/>
       <c r="B16" s="69"/>
       <c r="C16" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D16" s="178" t="s">
         <v>11</v>
@@ -7613,7 +7507,7 @@
       </c>
       <c r="L16" s="121"/>
       <c r="M16" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N16" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7622,17 +7516,17 @@
       <c r="O16" s="119" t="str">
         <v>CNH9MOIS=TRHK</v>
       </c>
-      <c r="P16" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="88">
-        <v>0</v>
-      </c>
-      <c r="R16" s="88">
-        <v>0</v>
-      </c>
-      <c r="S16" s="88">
-        <v>0</v>
+      <c r="P16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="88" t="s">
+        <v>184</v>
       </c>
       <c r="T16" s="91" t="e">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
@@ -7656,7 +7550,7 @@
       <c r="A17" s="50"/>
       <c r="B17" s="69"/>
       <c r="C17" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D17" s="178" t="s">
         <v>10</v>
@@ -7680,7 +7574,7 @@
       </c>
       <c r="L17" s="121"/>
       <c r="M17" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N17" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7690,16 +7584,16 @@
         <v>CNH10MOIS=TRHK</v>
       </c>
       <c r="P17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T17" s="91" t="e">
         <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
@@ -7724,7 +7618,7 @@
       <c r="A18" s="50"/>
       <c r="B18" s="69"/>
       <c r="C18" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" s="178" t="s">
         <v>9</v>
@@ -7748,7 +7642,7 @@
       </c>
       <c r="L18" s="121"/>
       <c r="M18" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N18" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7758,16 +7652,16 @@
         <v>CNH11MOIS=TRHK</v>
       </c>
       <c r="P18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T18" s="91" t="e">
         <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
@@ -7791,7 +7685,7 @@
       <c r="A19" s="50"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D19" s="178" t="s">
         <v>8</v>
@@ -7815,7 +7709,7 @@
       </c>
       <c r="L19" s="121"/>
       <c r="M19" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N19" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7824,17 +7718,17 @@
       <c r="O19" s="119" t="str">
         <v>CNH1YOIS=TRHK</v>
       </c>
-      <c r="P19" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="88">
-        <v>0</v>
-      </c>
-      <c r="R19" s="88">
-        <v>0</v>
-      </c>
-      <c r="S19" s="88">
-        <v>0</v>
+      <c r="P19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="88" t="s">
+        <v>184</v>
       </c>
       <c r="T19" s="91" t="e">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
@@ -7858,10 +7752,10 @@
       <c r="A20" s="50"/>
       <c r="B20" s="69"/>
       <c r="C20" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D20" s="178" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E20" s="83" t="str">
         <f t="shared" si="0"/>
@@ -7878,11 +7772,11 @@
       <c r="H20" s="17"/>
       <c r="J20" s="50"/>
       <c r="K20" s="93" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="L20" s="121"/>
       <c r="M20" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N20" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7892,16 +7786,16 @@
         <v>CNH13MOIS=TRHK</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T20" s="91" t="e">
         <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
@@ -7925,10 +7819,10 @@
       <c r="A21" s="50"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D21" s="178" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E21" s="83" t="str">
         <f t="shared" si="0"/>
@@ -7945,11 +7839,11 @@
       <c r="H21" s="17"/>
       <c r="J21" s="50"/>
       <c r="K21" s="93" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="L21" s="121"/>
       <c r="M21" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N21" s="119" t="str">
         <f t="shared" si="1"/>
@@ -7959,16 +7853,16 @@
         <v>CNH14MOIS=TRHK</v>
       </c>
       <c r="P21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T21" s="91" t="e">
         <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
@@ -7992,7 +7886,7 @@
       <c r="A22" s="50"/>
       <c r="B22" s="69"/>
       <c r="C22" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D22" s="178" t="s">
         <v>64</v>
@@ -8016,7 +7910,7 @@
       </c>
       <c r="L22" s="121"/>
       <c r="M22" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N22" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8026,16 +7920,16 @@
         <v>CNH15MOIS=TRHK</v>
       </c>
       <c r="P22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T22" s="91" t="e">
         <f>_xll.qlMidEquivalent($P22,$Q22,$R22,$S22)</f>
@@ -8059,10 +7953,10 @@
       <c r="A23" s="50"/>
       <c r="B23" s="69"/>
       <c r="C23" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23" s="178" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E23" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8079,11 +7973,11 @@
       <c r="H23" s="17"/>
       <c r="J23" s="50"/>
       <c r="K23" s="93" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="L23" s="121"/>
       <c r="M23" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N23" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8093,16 +7987,16 @@
         <v>CNH16MOIS=TRHK</v>
       </c>
       <c r="P23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T23" s="91" t="e">
         <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
@@ -8126,10 +8020,10 @@
       <c r="A24" s="50"/>
       <c r="B24" s="69"/>
       <c r="C24" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D24" s="178" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E24" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8146,11 +8040,11 @@
       <c r="H24" s="17"/>
       <c r="J24" s="50"/>
       <c r="K24" s="93" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L24" s="121"/>
       <c r="M24" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N24" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8160,16 +8054,16 @@
         <v>CNH17MOIS=TRHK</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T24" s="91" t="e">
         <f>_xll.qlMidEquivalent($P24,$Q24,$R24,$S24)</f>
@@ -8193,7 +8087,7 @@
       <c r="A25" s="50"/>
       <c r="B25" s="69"/>
       <c r="C25" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D25" s="178" t="s">
         <v>63</v>
@@ -8217,7 +8111,7 @@
       </c>
       <c r="L25" s="121"/>
       <c r="M25" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N25" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8227,16 +8121,16 @@
         <v>CNH18MOIS=TRHK</v>
       </c>
       <c r="P25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T25" s="91" t="e">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
@@ -8260,10 +8154,10 @@
       <c r="A26" s="50"/>
       <c r="B26" s="69"/>
       <c r="C26" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D26" s="178" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E26" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8280,11 +8174,11 @@
       <c r="H26" s="17"/>
       <c r="J26" s="50"/>
       <c r="K26" s="93" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="L26" s="121"/>
       <c r="M26" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N26" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8294,16 +8188,16 @@
         <v>CNH19MOIS=TRHK</v>
       </c>
       <c r="P26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T26" s="91" t="e">
         <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
@@ -8327,10 +8221,10 @@
       <c r="A27" s="50"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27" s="178" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E27" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8347,11 +8241,11 @@
       <c r="H27" s="17"/>
       <c r="J27" s="50"/>
       <c r="K27" s="93" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L27" s="121"/>
       <c r="M27" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N27" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8361,16 +8255,16 @@
         <v>CNH20MOIS=TRHK</v>
       </c>
       <c r="P27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T27" s="91" t="e">
         <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
@@ -8394,7 +8288,7 @@
       <c r="A28" s="50"/>
       <c r="B28" s="69"/>
       <c r="C28" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D28" s="178" t="s">
         <v>62</v>
@@ -8418,7 +8312,7 @@
       </c>
       <c r="L28" s="121"/>
       <c r="M28" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N28" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8428,16 +8322,16 @@
         <v>CNH21MOIS=TRHK</v>
       </c>
       <c r="P28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T28" s="91" t="e">
         <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
@@ -8461,10 +8355,10 @@
       <c r="A29" s="50"/>
       <c r="B29" s="69"/>
       <c r="C29" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D29" s="178" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E29" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8481,11 +8375,11 @@
       <c r="H29" s="17"/>
       <c r="J29" s="50"/>
       <c r="K29" s="93" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L29" s="121"/>
       <c r="M29" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N29" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8495,16 +8389,16 @@
         <v>CNH22MOIS=TRHK</v>
       </c>
       <c r="P29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T29" s="91" t="e">
         <f>_xll.qlMidEquivalent($P29,$Q29,$R29,$S29)</f>
@@ -8528,10 +8422,10 @@
       <c r="A30" s="50"/>
       <c r="B30" s="69"/>
       <c r="C30" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D30" s="178" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E30" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8548,11 +8442,11 @@
       <c r="H30" s="17"/>
       <c r="J30" s="50"/>
       <c r="K30" s="93" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="L30" s="121"/>
       <c r="M30" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N30" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8562,16 +8456,16 @@
         <v>CNH23MOIS=TRHK</v>
       </c>
       <c r="P30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T30" s="91" t="e">
         <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
@@ -8595,7 +8489,7 @@
       <c r="A31" s="50"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D31" s="178" t="s">
         <v>58</v>
@@ -8619,7 +8513,7 @@
       </c>
       <c r="L31" s="121"/>
       <c r="M31" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N31" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8629,16 +8523,16 @@
         <v>CNH2YOIS=TRHK</v>
       </c>
       <c r="P31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T31" s="91" t="e">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
@@ -8662,10 +8556,10 @@
       <c r="A32" s="50"/>
       <c r="B32" s="69"/>
       <c r="C32" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D32" s="178" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E32" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8682,11 +8576,11 @@
       <c r="H32" s="17"/>
       <c r="J32" s="50"/>
       <c r="K32" s="93" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L32" s="121"/>
       <c r="M32" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N32" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8696,16 +8590,16 @@
         <v>CNH27MOIS=TRHK</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T32" s="91" t="e">
         <f>_xll.qlMidEquivalent($P32,$Q32,$R32,$S32)</f>
@@ -8729,10 +8623,10 @@
       <c r="A33" s="50"/>
       <c r="B33" s="69"/>
       <c r="C33" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33" s="178" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8749,11 +8643,11 @@
       <c r="H33" s="17"/>
       <c r="J33" s="50"/>
       <c r="K33" s="93" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L33" s="121"/>
       <c r="M33" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N33" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8763,16 +8657,16 @@
         <v>CNH30MOIS=TRHK</v>
       </c>
       <c r="P33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T33" s="91" t="e">
         <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
@@ -8796,10 +8690,10 @@
       <c r="A34" s="50"/>
       <c r="B34" s="69"/>
       <c r="C34" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34" s="178" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E34" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8816,11 +8710,11 @@
       <c r="H34" s="17"/>
       <c r="J34" s="50"/>
       <c r="K34" s="93" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L34" s="121"/>
       <c r="M34" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N34" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8830,16 +8724,16 @@
         <v>CNH33MOIS=TRHK</v>
       </c>
       <c r="P34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T34" s="91" t="e">
         <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
@@ -8863,7 +8757,7 @@
       <c r="A35" s="50"/>
       <c r="B35" s="69"/>
       <c r="C35" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D35" s="178" t="s">
         <v>57</v>
@@ -8887,7 +8781,7 @@
       </c>
       <c r="L35" s="121"/>
       <c r="M35" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N35" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8897,16 +8791,16 @@
         <v>CNH3YOIS=TRHK</v>
       </c>
       <c r="P35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T35" s="91" t="e">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
@@ -8930,10 +8824,10 @@
       <c r="A36" s="50"/>
       <c r="B36" s="69"/>
       <c r="C36" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D36" s="178" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E36" s="83" t="str">
         <f t="shared" si="0"/>
@@ -8950,11 +8844,11 @@
       <c r="H36" s="17"/>
       <c r="J36" s="50"/>
       <c r="K36" s="93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L36" s="121"/>
       <c r="M36" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N36" s="119" t="str">
         <f t="shared" si="1"/>
@@ -8964,16 +8858,16 @@
         <v>CNH39MOIS=TRHK</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T36" s="91" t="e">
         <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
@@ -8997,10 +8891,10 @@
       <c r="A37" s="50"/>
       <c r="B37" s="69"/>
       <c r="C37" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="178" t="s">
         <v>100</v>
-      </c>
-      <c r="D37" s="178" t="s">
-        <v>105</v>
       </c>
       <c r="E37" s="83" t="str">
         <f t="shared" ref="E37:E58" si="2">Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix</f>
@@ -9017,11 +8911,11 @@
       <c r="H37" s="17"/>
       <c r="J37" s="50"/>
       <c r="K37" s="93" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L37" s="121"/>
       <c r="M37" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N37" s="119" t="str">
         <f t="shared" ref="N37:N58" si="3">Currency&amp;$K37&amp;$L37&amp;$M37</f>
@@ -9031,16 +8925,16 @@
         <v>CNH42MOIS=TRHK</v>
       </c>
       <c r="P37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T37" s="91" t="e">
         <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
@@ -9064,10 +8958,10 @@
       <c r="A38" s="50"/>
       <c r="B38" s="69"/>
       <c r="C38" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D38" s="178" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E38" s="83" t="str">
         <f t="shared" si="2"/>
@@ -9084,11 +8978,11 @@
       <c r="H38" s="17"/>
       <c r="J38" s="50"/>
       <c r="K38" s="93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L38" s="121"/>
       <c r="M38" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N38" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9098,16 +8992,16 @@
         <v>CNH45MOIS=TRHK</v>
       </c>
       <c r="P38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T38" s="91" t="e">
         <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
@@ -9131,7 +9025,7 @@
       <c r="A39" s="50"/>
       <c r="B39" s="69"/>
       <c r="C39" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D39" s="178" t="s">
         <v>56</v>
@@ -9155,7 +9049,7 @@
       </c>
       <c r="L39" s="121"/>
       <c r="M39" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N39" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9165,16 +9059,16 @@
         <v>CNH4YOIS=TRHK</v>
       </c>
       <c r="P39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T39" s="91" t="e">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
@@ -9198,10 +9092,10 @@
       <c r="A40" s="50"/>
       <c r="B40" s="69"/>
       <c r="C40" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D40" s="178" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E40" s="83" t="str">
         <f t="shared" si="2"/>
@@ -9218,11 +9112,11 @@
       <c r="H40" s="17"/>
       <c r="J40" s="50"/>
       <c r="K40" s="93" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L40" s="121"/>
       <c r="M40" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N40" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9232,16 +9126,16 @@
         <v>CNH51MOIS=TRHK</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T40" s="91" t="e">
         <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
@@ -9265,10 +9159,10 @@
       <c r="A41" s="50"/>
       <c r="B41" s="69"/>
       <c r="C41" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D41" s="178" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E41" s="83" t="str">
         <f t="shared" si="2"/>
@@ -9285,11 +9179,11 @@
       <c r="H41" s="17"/>
       <c r="J41" s="50"/>
       <c r="K41" s="93" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L41" s="121"/>
       <c r="M41" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N41" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9299,16 +9193,16 @@
         <v>CNH54MOIS=TRHK</v>
       </c>
       <c r="P41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T41" s="91" t="e">
         <f>_xll.qlMidEquivalent($P41,$Q41,$R41,$S41)</f>
@@ -9332,10 +9226,10 @@
       <c r="A42" s="50"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D42" s="178" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E42" s="83" t="str">
         <f t="shared" si="2"/>
@@ -9352,11 +9246,11 @@
       <c r="H42" s="17"/>
       <c r="J42" s="50"/>
       <c r="K42" s="93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L42" s="121"/>
       <c r="M42" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N42" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9366,16 +9260,16 @@
         <v>CNH57MOIS=TRHK</v>
       </c>
       <c r="P42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T42" s="91" t="e">
         <f>_xll.qlMidEquivalent($P42,$Q42,$R42,$S42)</f>
@@ -9399,7 +9293,7 @@
       <c r="A43" s="50"/>
       <c r="B43" s="69"/>
       <c r="C43" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D43" s="178" t="s">
         <v>55</v>
@@ -9423,7 +9317,7 @@
       </c>
       <c r="L43" s="121"/>
       <c r="M43" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N43" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9433,16 +9327,16 @@
         <v>CNH5YOIS=TRHK</v>
       </c>
       <c r="P43" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q43" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R43" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S43" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T43" s="91" t="e">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
@@ -9466,7 +9360,7 @@
       <c r="A44" s="50"/>
       <c r="B44" s="69"/>
       <c r="C44" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D44" s="178" t="s">
         <v>54</v>
@@ -9490,7 +9384,7 @@
       </c>
       <c r="L44" s="121"/>
       <c r="M44" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N44" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9500,16 +9394,16 @@
         <v>CNH6YOIS=TRHK</v>
       </c>
       <c r="P44" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q44" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R44" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S44" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T44" s="91" t="e">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
@@ -9533,7 +9427,7 @@
       <c r="A45" s="50"/>
       <c r="B45" s="69"/>
       <c r="C45" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D45" s="178" t="s">
         <v>53</v>
@@ -9557,7 +9451,7 @@
       </c>
       <c r="L45" s="121"/>
       <c r="M45" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N45" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9567,16 +9461,16 @@
         <v>CNH7YOIS=TRHK</v>
       </c>
       <c r="P45" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q45" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R45" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S45" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T45" s="91" t="e">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
@@ -9600,7 +9494,7 @@
       <c r="A46" s="50"/>
       <c r="B46" s="69"/>
       <c r="C46" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D46" s="178" t="s">
         <v>52</v>
@@ -9624,7 +9518,7 @@
       </c>
       <c r="L46" s="121"/>
       <c r="M46" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N46" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9634,16 +9528,16 @@
         <v>CNH8YOIS=TRHK</v>
       </c>
       <c r="P46" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q46" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R46" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S46" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T46" s="91" t="e">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
@@ -9667,7 +9561,7 @@
       <c r="A47" s="50"/>
       <c r="B47" s="69"/>
       <c r="C47" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D47" s="178" t="s">
         <v>51</v>
@@ -9691,7 +9585,7 @@
       </c>
       <c r="L47" s="121"/>
       <c r="M47" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N47" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9701,16 +9595,16 @@
         <v>CNH9YOIS=TRHK</v>
       </c>
       <c r="P47" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q47" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R47" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S47" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T47" s="91" t="e">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
@@ -9734,7 +9628,7 @@
       <c r="A48" s="50"/>
       <c r="B48" s="69"/>
       <c r="C48" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D48" s="178" t="s">
         <v>50</v>
@@ -9758,7 +9652,7 @@
       </c>
       <c r="L48" s="121"/>
       <c r="M48" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N48" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9768,16 +9662,16 @@
         <v>CNH10YOIS=TRHK</v>
       </c>
       <c r="P48" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q48" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R48" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S48" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T48" s="91" t="e">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
@@ -9801,7 +9695,7 @@
       <c r="A49" s="50"/>
       <c r="B49" s="69"/>
       <c r="C49" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D49" s="178" t="s">
         <v>48</v>
@@ -9825,7 +9719,7 @@
       </c>
       <c r="L49" s="121"/>
       <c r="M49" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N49" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9835,16 +9729,16 @@
         <v>CNH12YOIS=TRHK</v>
       </c>
       <c r="P49" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q49" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R49" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S49" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T49" s="91" t="e">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
@@ -9868,7 +9762,7 @@
       <c r="A50" s="50"/>
       <c r="B50" s="69"/>
       <c r="C50" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D50" s="178" t="s">
         <v>45</v>
@@ -9892,7 +9786,7 @@
       </c>
       <c r="L50" s="121"/>
       <c r="M50" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N50" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9902,16 +9796,16 @@
         <v>CNH15YOIS=TRHK</v>
       </c>
       <c r="P50" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q50" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R50" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S50" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T50" s="91" t="e">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
@@ -9935,7 +9829,7 @@
       <c r="A51" s="50"/>
       <c r="B51" s="69"/>
       <c r="C51" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D51" s="178" t="s">
         <v>40</v>
@@ -9959,7 +9853,7 @@
       </c>
       <c r="L51" s="121"/>
       <c r="M51" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N51" s="119" t="str">
         <f t="shared" si="3"/>
@@ -9969,16 +9863,16 @@
         <v>CNH20YOIS=TRHK</v>
       </c>
       <c r="P51" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q51" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R51" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S51" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T51" s="91" t="e">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
@@ -10002,7 +9896,7 @@
       <c r="A52" s="50"/>
       <c r="B52" s="69"/>
       <c r="C52" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D52" s="178" t="s">
         <v>35</v>
@@ -10026,7 +9920,7 @@
       </c>
       <c r="L52" s="121"/>
       <c r="M52" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N52" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10036,16 +9930,16 @@
         <v>CNH25YOIS=TRHK</v>
       </c>
       <c r="P52" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q52" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R52" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S52" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T52" s="91" t="e">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
@@ -10069,7 +9963,7 @@
       <c r="A53" s="50"/>
       <c r="B53" s="69"/>
       <c r="C53" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D53" s="178" t="s">
         <v>33</v>
@@ -10093,7 +9987,7 @@
       </c>
       <c r="L53" s="121"/>
       <c r="M53" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N53" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10103,16 +9997,16 @@
         <v>CNH27YOIS=TRHK</v>
       </c>
       <c r="P53" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q53" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R53" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S53" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T53" s="91" t="e">
         <f>_xll.qlMidEquivalent($P53,$Q53,$R53,$S53)</f>
@@ -10136,7 +10030,7 @@
       <c r="A54" s="50"/>
       <c r="B54" s="69"/>
       <c r="C54" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D54" s="178" t="s">
         <v>30</v>
@@ -10160,7 +10054,7 @@
       </c>
       <c r="L54" s="121"/>
       <c r="M54" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N54" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10170,16 +10064,16 @@
         <v>CNH30YOIS=TRHK</v>
       </c>
       <c r="P54" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q54" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R54" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S54" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T54" s="91" t="e">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
@@ -10203,7 +10097,7 @@
       <c r="A55" s="50"/>
       <c r="B55" s="69"/>
       <c r="C55" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D55" s="178" t="s">
         <v>29</v>
@@ -10227,7 +10121,7 @@
       </c>
       <c r="L55" s="121"/>
       <c r="M55" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N55" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10237,16 +10131,16 @@
         <v>CNH35YOIS=TRHK</v>
       </c>
       <c r="P55" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q55" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R55" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S55" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T55" s="91" t="e">
         <f>_xll.qlMidEquivalent($P55,$Q55,$R55,$S55)</f>
@@ -10270,7 +10164,7 @@
       <c r="A56" s="50"/>
       <c r="B56" s="69"/>
       <c r="C56" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D56" s="178" t="s">
         <v>28</v>
@@ -10294,7 +10188,7 @@
       </c>
       <c r="L56" s="121"/>
       <c r="M56" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N56" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10304,16 +10198,16 @@
         <v>CNH40YOIS=TRHK</v>
       </c>
       <c r="P56" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q56" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R56" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S56" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T56" s="91" t="e">
         <f>_xll.qlMidEquivalent($P56,$Q56,$R56,$S56)</f>
@@ -10337,7 +10231,7 @@
       <c r="A57" s="50"/>
       <c r="B57" s="69"/>
       <c r="C57" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D57" s="178" t="s">
         <v>27</v>
@@ -10361,7 +10255,7 @@
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N57" s="119" t="str">
         <f t="shared" si="3"/>
@@ -10371,16 +10265,16 @@
         <v>CNH45YOIS=TRHK</v>
       </c>
       <c r="P57" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q57" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R57" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S57" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T57" s="91" t="e">
         <f>_xll.qlMidEquivalent($P57,$Q57,$R57,$S57)</f>
@@ -10404,7 +10298,7 @@
       <c r="A58" s="50"/>
       <c r="B58" s="69"/>
       <c r="C58" s="69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D58" s="178" t="s">
         <v>26</v>
@@ -10428,7 +10322,7 @@
       </c>
       <c r="L58" s="117"/>
       <c r="M58" s="117" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N58" s="115" t="str">
         <f t="shared" si="3"/>
@@ -10438,16 +10332,16 @@
         <v>CNH50YOIS=TRHK</v>
       </c>
       <c r="P58" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q58" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R58" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S58" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T58" s="98" t="e">
         <f>_xll.qlMidEquivalent($P58,$Q58,$R58,$S58)</f>
@@ -10583,7 +10477,7 @@
       <c r="M2" s="89"/>
       <c r="N2" s="89"/>
       <c r="O2" s="66" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
@@ -10600,7 +10494,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3" s="77"/>
       <c r="C3" s="77"/>
@@ -10626,7 +10520,7 @@
       <c r="X3" s="65"/>
       <c r="Y3" s="110">
         <f>_xll.ohTrigger(Y5:Y43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z3" s="82"/>
       <c r="AA3" s="11"/>
@@ -10658,33 +10552,33 @@
       <c r="N4" s="72"/>
       <c r="O4" s="85" t="str">
         <f>_xll.RData(O5:O43,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 17:19:39</v>
+        <v>Updated at 14:20:39</v>
       </c>
       <c r="P4" s="127" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q4" s="127" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R4" s="127" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="S4" s="127" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="T4" s="106" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="U4" s="89"/>
       <c r="V4" s="108" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="W4" s="89"/>
       <c r="X4" s="168" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="Y4" s="31" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Z4" s="82"/>
       <c r="AA4" s="11"/>
@@ -10695,10 +10589,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E5" s="24" t="str">
         <f t="shared" ref="E5:E43" si="0">Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix</f>
@@ -10715,10 +10609,10 @@
         <v>14</v>
       </c>
       <c r="L5" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M5" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N5" s="119" t="str">
         <f t="shared" ref="N5:N43" si="1">Currency&amp;$L5&amp;$M5&amp;$K5</f>
@@ -10728,21 +10622,21 @@
         <f t="array" ref="O5:O43">Instruments&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
         <v>CNHQM3H6M=TRHK</v>
       </c>
-      <c r="P5" s="88">
-        <v>2.77</v>
-      </c>
-      <c r="Q5" s="88">
-        <v>2.87</v>
-      </c>
-      <c r="R5" s="88">
-        <v>0</v>
-      </c>
-      <c r="S5" s="88">
-        <v>0</v>
-      </c>
-      <c r="T5" s="91">
+      <c r="P5" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R5" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S5" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T5" s="91" t="e">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>2.8200000000000003</v>
+        <v>#NUM!</v>
       </c>
       <c r="U5" s="89"/>
       <c r="V5" s="90">
@@ -10750,7 +10644,7 @@
       </c>
       <c r="W5" s="89"/>
       <c r="X5" s="131">
-        <f t="array" ref="X5:X43">QuoteLive</f>
+        <f t="array" ref="X5:X43">QuoteStatic</f>
         <v>2.8200000000000003</v>
       </c>
       <c r="Y5" s="87" t="e">
@@ -10766,10 +10660,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -10786,10 +10680,10 @@
         <v>11</v>
       </c>
       <c r="L6" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M6" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N6" s="119" t="str">
         <f t="shared" si="1"/>
@@ -10798,21 +10692,21 @@
       <c r="O6" s="119" t="str">
         <v>CNHQM3H9M=TRHK</v>
       </c>
-      <c r="P6" s="88">
-        <v>2.65</v>
-      </c>
-      <c r="Q6" s="88">
-        <v>2.85</v>
-      </c>
-      <c r="R6" s="88">
-        <v>0</v>
-      </c>
-      <c r="S6" s="88">
-        <v>0</v>
-      </c>
-      <c r="T6" s="91">
+      <c r="P6" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q6" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R6" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" s="91" t="e">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>2.75</v>
+        <v>#NUM!</v>
       </c>
       <c r="U6" s="89"/>
       <c r="V6" s="90">
@@ -10835,10 +10729,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E7" s="24" t="str">
         <f t="shared" si="0"/>
@@ -10858,10 +10752,10 @@
         <v>8</v>
       </c>
       <c r="L7" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M7" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N7" s="119" t="str">
         <f t="shared" si="1"/>
@@ -10870,21 +10764,21 @@
       <c r="O7" s="119" t="str">
         <v>CNHQM3H1Y=TRHK</v>
       </c>
-      <c r="P7" s="88">
-        <v>2.7</v>
-      </c>
-      <c r="Q7" s="88">
-        <v>2.8</v>
-      </c>
-      <c r="R7" s="88">
-        <v>0</v>
-      </c>
-      <c r="S7" s="88">
-        <v>0</v>
-      </c>
-      <c r="T7" s="91">
+      <c r="P7" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S7" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T7" s="91" t="e">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>2.75</v>
+        <v>#NUM!</v>
       </c>
       <c r="U7" s="89"/>
       <c r="V7" s="90">
@@ -10907,10 +10801,10 @@
         <v>64</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E8" s="24" t="str">
         <f t="shared" si="0"/>
@@ -10930,10 +10824,10 @@
         <v>64</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N8" s="119" t="str">
         <f t="shared" si="1"/>
@@ -10943,16 +10837,16 @@
         <v>CNHQM3H15M=TRHK</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R8" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S8" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T8" s="91" t="e">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
@@ -10979,10 +10873,10 @@
         <v>63</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11002,10 +10896,10 @@
         <v>63</v>
       </c>
       <c r="L9" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M9" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N9" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11015,16 +10909,16 @@
         <v>CNHQM3H18M=TRHK</v>
       </c>
       <c r="P9" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R9" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S9" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T9" s="91" t="e">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
@@ -11051,10 +10945,10 @@
         <v>62</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E10" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11074,10 +10968,10 @@
         <v>62</v>
       </c>
       <c r="L10" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M10" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N10" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11087,16 +10981,16 @@
         <v>CNHQM3H21M=TRHK</v>
       </c>
       <c r="P10" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q10" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R10" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S10" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T10" s="91" t="e">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
@@ -11123,10 +11017,10 @@
         <v>58</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E11" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11146,10 +11040,10 @@
         <v>58</v>
       </c>
       <c r="L11" s="121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M11" s="121" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N11" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11158,21 +11052,21 @@
       <c r="O11" s="119" t="str">
         <v>CNHQM3H2Y=TRHK</v>
       </c>
-      <c r="P11" s="88">
-        <v>2.75</v>
-      </c>
-      <c r="Q11" s="88">
-        <v>2.95</v>
-      </c>
-      <c r="R11" s="88">
-        <v>0</v>
-      </c>
-      <c r="S11" s="88">
-        <v>0</v>
-      </c>
-      <c r="T11" s="91">
+      <c r="P11" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R11" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="91" t="e">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>2.85</v>
+        <v>#NUM!</v>
       </c>
       <c r="U11" s="89"/>
       <c r="V11" s="90">
@@ -11195,10 +11089,10 @@
         <v>57</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E12" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11218,10 +11112,10 @@
         <v>57</v>
       </c>
       <c r="L12" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N12" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11230,21 +11124,21 @@
       <c r="O12" s="119" t="str">
         <v>CNHQM3H3Y=TRHK</v>
       </c>
-      <c r="P12" s="88">
-        <v>2.7</v>
-      </c>
-      <c r="Q12" s="88">
-        <v>3</v>
-      </c>
-      <c r="R12" s="88">
-        <v>0</v>
-      </c>
-      <c r="S12" s="88">
-        <v>0</v>
-      </c>
-      <c r="T12" s="91">
+      <c r="P12" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R12" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="91" t="e">
         <f>_xll.qlMidSafe($P12,$Q12)</f>
-        <v>2.85</v>
+        <v>#NUM!</v>
       </c>
       <c r="U12" s="89"/>
       <c r="V12" s="90">
@@ -11267,10 +11161,10 @@
         <v>56</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E13" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11290,10 +11184,10 @@
         <v>56</v>
       </c>
       <c r="L13" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N13" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11302,21 +11196,21 @@
       <c r="O13" s="119" t="str">
         <v>CNHQM3H4Y=TRHK</v>
       </c>
-      <c r="P13" s="88">
-        <v>2.8</v>
-      </c>
-      <c r="Q13" s="88">
-        <v>2.95</v>
-      </c>
-      <c r="R13" s="88">
-        <v>0</v>
-      </c>
-      <c r="S13" s="88">
-        <v>0</v>
-      </c>
-      <c r="T13" s="91">
+      <c r="P13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="91" t="e">
         <f>_xll.qlMidSafe($P13,$Q13)</f>
-        <v>2.875</v>
+        <v>#NUM!</v>
       </c>
       <c r="U13" s="89"/>
       <c r="V13" s="90">
@@ -11339,10 +11233,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E14" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11362,10 +11256,10 @@
         <v>55</v>
       </c>
       <c r="L14" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N14" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11374,21 +11268,21 @@
       <c r="O14" s="119" t="str">
         <v>CNHQM3H5Y=TRHK</v>
       </c>
-      <c r="P14" s="88">
-        <v>2.85</v>
-      </c>
-      <c r="Q14" s="88">
-        <v>3.15</v>
-      </c>
-      <c r="R14" s="88">
-        <v>0</v>
-      </c>
-      <c r="S14" s="88">
-        <v>0</v>
-      </c>
-      <c r="T14" s="91">
+      <c r="P14" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R14" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="91" t="e">
         <f>_xll.qlMidSafe($P14,$Q14)</f>
-        <v>3</v>
+        <v>#NUM!</v>
       </c>
       <c r="U14" s="89"/>
       <c r="V14" s="90">
@@ -11411,10 +11305,10 @@
         <v>54</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E15" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11434,10 +11328,10 @@
         <v>54</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N15" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11447,16 +11341,16 @@
         <v>CNHQM3H6Y=TRHK</v>
       </c>
       <c r="P15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T15" s="91" t="e">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
@@ -11483,10 +11377,10 @@
         <v>53</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E16" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11506,10 +11400,10 @@
         <v>53</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N16" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11518,17 +11412,17 @@
       <c r="O16" s="119" t="str">
         <v>CNHQM3H7Y=TRHK</v>
       </c>
-      <c r="P16" s="88">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="88">
-        <v>0</v>
-      </c>
-      <c r="R16" s="88">
-        <v>0</v>
-      </c>
-      <c r="S16" s="88">
-        <v>0</v>
+      <c r="P16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R16" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="88" t="s">
+        <v>184</v>
       </c>
       <c r="T16" s="91" t="e">
         <f>_xll.qlMidSafe($P16,$Q16)</f>
@@ -11555,10 +11449,10 @@
         <v>52</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E17" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11578,10 +11472,10 @@
         <v>52</v>
       </c>
       <c r="L17" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N17" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11591,16 +11485,16 @@
         <v>CNHQM3H8Y=TRHK</v>
       </c>
       <c r="P17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S17" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T17" s="91" t="e">
         <f>_xll.qlMidSafe($P17,$Q17)</f>
@@ -11627,10 +11521,10 @@
         <v>51</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E18" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11650,10 +11544,10 @@
         <v>51</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N18" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11663,16 +11557,16 @@
         <v>CNHQM3H9Y=TRHK</v>
       </c>
       <c r="P18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T18" s="91" t="e">
         <f>_xll.qlMidSafe($P18,$Q18)</f>
@@ -11699,10 +11593,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E19" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11722,10 +11616,10 @@
         <v>50</v>
       </c>
       <c r="L19" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N19" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11734,17 +11628,17 @@
       <c r="O19" s="119" t="str">
         <v>CNHQM3H10Y=TRHK</v>
       </c>
-      <c r="P19" s="88">
-        <v>2.9</v>
-      </c>
-      <c r="Q19" s="88">
-        <v>0</v>
-      </c>
-      <c r="R19" s="88">
-        <v>0</v>
-      </c>
-      <c r="S19" s="88">
-        <v>0</v>
+      <c r="P19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="R19" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="88" t="s">
+        <v>184</v>
       </c>
       <c r="T19" s="91" t="e">
         <f>_xll.qlMidSafe($P19,$Q19)</f>
@@ -11771,10 +11665,10 @@
         <v>49</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E20" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11794,10 +11688,10 @@
         <v>49</v>
       </c>
       <c r="L20" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N20" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11807,16 +11701,16 @@
         <v>CNHQM3H11Y=TRHK</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S20" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T20" s="91" t="e">
         <f>_xll.qlMidSafe($P20,$Q20)</f>
@@ -11843,10 +11737,10 @@
         <v>48</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E21" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11866,10 +11760,10 @@
         <v>48</v>
       </c>
       <c r="L21" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N21" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11879,16 +11773,16 @@
         <v>CNHQM3H12Y=TRHK</v>
       </c>
       <c r="P21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T21" s="91" t="e">
         <f>_xll.qlMidSafe($P21,$Q21)</f>
@@ -11915,10 +11809,10 @@
         <v>47</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E22" s="24" t="str">
         <f t="shared" si="0"/>
@@ -11938,10 +11832,10 @@
         <v>47</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N22" s="119" t="str">
         <f t="shared" si="1"/>
@@ -11951,16 +11845,16 @@
         <v>CNHQM3H13Y=TRHK</v>
       </c>
       <c r="P22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S22" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T22" s="91" t="e">
         <f>_xll.qlMidSafe($P22,$Q22)</f>
@@ -11987,10 +11881,10 @@
         <v>46</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E23" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12010,10 +11904,10 @@
         <v>46</v>
       </c>
       <c r="L23" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N23" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12023,16 +11917,16 @@
         <v>CNHQM3H14Y=TRHK</v>
       </c>
       <c r="P23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T23" s="91" t="e">
         <f>_xll.qlMidSafe($P23,$Q23)</f>
@@ -12059,10 +11953,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E24" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12082,10 +11976,10 @@
         <v>45</v>
       </c>
       <c r="L24" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N24" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12095,16 +11989,16 @@
         <v>CNHQM3H15Y=TRHK</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S24" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T24" s="91" t="e">
         <f>_xll.qlMidSafe($P24,$Q24)</f>
@@ -12131,10 +12025,10 @@
         <v>44</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E25" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12154,10 +12048,10 @@
         <v>44</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N25" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12167,16 +12061,16 @@
         <v>CNHQM3H16Y=TRHK</v>
       </c>
       <c r="P25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S25" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T25" s="91" t="e">
         <f>_xll.qlMidSafe($P25,$Q25)</f>
@@ -12203,10 +12097,10 @@
         <v>43</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E26" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12226,10 +12120,10 @@
         <v>43</v>
       </c>
       <c r="L26" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M26" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N26" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12239,16 +12133,16 @@
         <v>CNHQM3H17Y=TRHK</v>
       </c>
       <c r="P26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S26" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T26" s="91" t="e">
         <f>_xll.qlMidSafe($P26,$Q26)</f>
@@ -12275,10 +12169,10 @@
         <v>42</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E27" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12298,10 +12192,10 @@
         <v>42</v>
       </c>
       <c r="L27" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N27" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12311,16 +12205,16 @@
         <v>CNHQM3H18Y=TRHK</v>
       </c>
       <c r="P27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S27" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T27" s="91" t="e">
         <f>_xll.qlMidSafe($P27,$Q27)</f>
@@ -12347,10 +12241,10 @@
         <v>41</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E28" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12370,10 +12264,10 @@
         <v>41</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N28" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12383,16 +12277,16 @@
         <v>CNHQM3H19Y=TRHK</v>
       </c>
       <c r="P28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S28" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T28" s="91" t="e">
         <f>_xll.qlMidSafe($P28,$Q28)</f>
@@ -12419,10 +12313,10 @@
         <v>40</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E29" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12442,10 +12336,10 @@
         <v>40</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N29" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12455,16 +12349,16 @@
         <v>CNHQM3H20Y=TRHK</v>
       </c>
       <c r="P29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S29" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T29" s="91" t="e">
         <f>_xll.qlMidSafe($P29,$Q29)</f>
@@ -12491,10 +12385,10 @@
         <v>39</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E30" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12514,10 +12408,10 @@
         <v>39</v>
       </c>
       <c r="L30" s="89" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M30" s="89" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N30" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12527,16 +12421,16 @@
         <v>CNHQM3H21Y=TRHK</v>
       </c>
       <c r="P30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S30" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T30" s="91" t="e">
         <f>_xll.qlMidSafe($P30,$Q30)</f>
@@ -12563,10 +12457,10 @@
         <v>38</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E31" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12586,10 +12480,10 @@
         <v>38</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N31" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12599,16 +12493,16 @@
         <v>CNHQM3H22Y=TRHK</v>
       </c>
       <c r="P31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S31" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T31" s="91" t="e">
         <f>_xll.qlMidSafe($P31,$Q31)</f>
@@ -12635,10 +12529,10 @@
         <v>37</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E32" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12658,10 +12552,10 @@
         <v>37</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N32" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12671,16 +12565,16 @@
         <v>CNHQM3H23Y=TRHK</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S32" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T32" s="91" t="e">
         <f>_xll.qlMidSafe($P32,$Q32)</f>
@@ -12707,10 +12601,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E33" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12730,10 +12624,10 @@
         <v>36</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M33" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N33" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12743,16 +12637,16 @@
         <v>CNHQM3H24Y=TRHK</v>
       </c>
       <c r="P33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S33" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T33" s="91" t="e">
         <f>_xll.qlMidSafe($P33,$Q33)</f>
@@ -12779,10 +12673,10 @@
         <v>35</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E34" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12802,10 +12696,10 @@
         <v>35</v>
       </c>
       <c r="L34" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N34" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12815,16 +12709,16 @@
         <v>CNHQM3H25Y=TRHK</v>
       </c>
       <c r="P34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S34" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T34" s="91" t="e">
         <f>_xll.qlMidSafe($P34,$Q34)</f>
@@ -12851,10 +12745,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E35" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12874,10 +12768,10 @@
         <v>34</v>
       </c>
       <c r="L35" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N35" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12887,16 +12781,16 @@
         <v>CNHQM3H26Y=TRHK</v>
       </c>
       <c r="P35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S35" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T35" s="91" t="e">
         <f>_xll.qlMidSafe($P35,$Q35)</f>
@@ -12923,10 +12817,10 @@
         <v>33</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E36" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12946,10 +12840,10 @@
         <v>33</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M36" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N36" s="119" t="str">
         <f t="shared" si="1"/>
@@ -12959,16 +12853,16 @@
         <v>CNHQM3H27Y=TRHK</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S36" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T36" s="91" t="e">
         <f>_xll.qlMidSafe($P36,$Q36)</f>
@@ -12995,10 +12889,10 @@
         <v>32</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E37" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13018,10 +12912,10 @@
         <v>32</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N37" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13031,16 +12925,16 @@
         <v>CNHQM3H28Y=TRHK</v>
       </c>
       <c r="P37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S37" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T37" s="91" t="e">
         <f>_xll.qlMidSafe($P37,$Q37)</f>
@@ -13067,10 +12961,10 @@
         <v>31</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E38" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13090,10 +12984,10 @@
         <v>31</v>
       </c>
       <c r="L38" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N38" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13103,16 +12997,16 @@
         <v>CNHQM3H29Y=TRHK</v>
       </c>
       <c r="P38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S38" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T38" s="91" t="e">
         <f>_xll.qlMidSafe($P38,$Q38)</f>
@@ -13139,10 +13033,10 @@
         <v>30</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E39" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13162,10 +13056,10 @@
         <v>30</v>
       </c>
       <c r="L39" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N39" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13175,16 +13069,16 @@
         <v>CNHQM3H30Y=TRHK</v>
       </c>
       <c r="P39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S39" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T39" s="91" t="e">
         <f>_xll.qlMidSafe($P39,$Q39)</f>
@@ -13211,10 +13105,10 @@
         <v>29</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E40" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13234,10 +13128,10 @@
         <v>29</v>
       </c>
       <c r="L40" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N40" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13247,16 +13141,16 @@
         <v>CNHQM3H35Y=TRHK</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S40" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T40" s="91" t="e">
         <f>_xll.qlMidSafe($P40,$Q40)</f>
@@ -13283,10 +13177,10 @@
         <v>28</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E41" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13306,10 +13200,10 @@
         <v>28</v>
       </c>
       <c r="L41" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N41" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13319,16 +13213,16 @@
         <v>CNHQM3H40Y=TRHK</v>
       </c>
       <c r="P41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S41" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T41" s="91" t="e">
         <f>_xll.qlMidSafe($P41,$Q41)</f>
@@ -13355,10 +13249,10 @@
         <v>26</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E42" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13378,10 +13272,10 @@
         <v>26</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N42" s="119" t="str">
         <f t="shared" si="1"/>
@@ -13391,16 +13285,16 @@
         <v>CNHQM3H50Y=TRHK</v>
       </c>
       <c r="P42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S42" s="88" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T42" s="91" t="e">
         <f>_xll.qlMidSafe($P42,$Q42)</f>
@@ -13427,10 +13321,10 @@
         <v>25</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E43" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13450,10 +13344,10 @@
         <v>25</v>
       </c>
       <c r="L43" s="94" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M43" s="94" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N43" s="115" t="str">
         <f t="shared" si="1"/>
@@ -13463,16 +13357,16 @@
         <v>CNHQM3H60Y=TRHK</v>
       </c>
       <c r="P43" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="Q43" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="R43" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="S43" s="96" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="T43" s="98" t="e">
         <f>_xll.qlMidSafe($P43,$Q43)</f>

--- a/QuantLibXL/Data2/XLS/CNH_Market.xlsx
+++ b/QuantLibXL/Data2/XLS/CNH_Market.xlsx
@@ -20,9 +20,9 @@
     <definedName name="Contributor" localSheetId="4">OIS!$O$2</definedName>
     <definedName name="Contributor">Swap3M!$O$2</definedName>
     <definedName name="ContributorFRA">FRAs!$N$4</definedName>
-    <definedName name="Contributors">'General Settings'!$C$12:$C$20</definedName>
+    <definedName name="Contributors">'General Settings'!$C$12:$C$21</definedName>
     <definedName name="ContributorTable" localSheetId="2">Deposits!#REF!</definedName>
-    <definedName name="ContributorTable">'General Settings'!$C$12:$D$20</definedName>
+    <definedName name="ContributorTable">'General Settings'!$C$12:$D$21</definedName>
     <definedName name="Conventions" localSheetId="5">Swap3M!#REF!</definedName>
     <definedName name="Counter">#REF!</definedName>
     <definedName name="Currency">'General Settings'!$D$4</definedName>
@@ -38,8 +38,8 @@
     <definedName name="Instruments" localSheetId="5">Swap3M!$N$5:$N$43</definedName>
     <definedName name="InterpolationType">'General Settings'!$D$9</definedName>
     <definedName name="LastFixingsTrigger">'General Settings'!$D$8</definedName>
-    <definedName name="LastUpdate">'General Settings'!$D$22</definedName>
-    <definedName name="LiveDataFeed">'General Settings'!$D$23</definedName>
+    <definedName name="LastUpdate">'General Settings'!$D$23</definedName>
+    <definedName name="LiveDataFeed">'General Settings'!$D$24</definedName>
     <definedName name="MoneyMarketDayCounter">'General Settings'!$I$20</definedName>
     <definedName name="ObjectOverwrite">'General Settings'!$I$5</definedName>
     <definedName name="OverNightIndexCalendar">'General Settings'!#REF!</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="186">
   <si>
     <t>Currency</t>
   </si>
@@ -629,7 +629,10 @@
     <t>3H</t>
   </si>
   <si>
-    <t>Stale</t>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>BRKR</t>
   </si>
 </sst>
 </file>
@@ -660,6 +663,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -723,6 +727,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1797,34 +1802,34 @@
   <volType type="realTimeData">
     <main first="pldatasource.rdatartdserver">
       <tp t="s">
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
         <stp/>
-        <stp>{63EA48A9-C453-4E6B-BED5-C52215DF6BF1}</stp>
+        <stp>{7D3E2A86-80F7-432C-8784-13689749A22D}</stp>
+        <tr r="O5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:07:16</v>
+        <stp/>
+        <stp>{2EC6599E-CD8D-4476-B476-BABC88DE0868}</stp>
+        <tr r="N6" s="16"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:07:16</v>
+        <stp/>
+        <stp>{A40635B3-DA21-40D0-BF73-910C11A39111}</stp>
+        <tr r="O4" s="25"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:07:16</v>
+        <stp/>
+        <stp>{348E817E-FA8C-4B2C-AADD-CD9C79BEA81C}</stp>
         <tr r="K3" s="15"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
         <stp/>
-        <stp>{DF8B1C8E-DEBD-4344-AFBF-BB4B03CCBED3}</stp>
+        <stp>{2EAA61EE-789D-4076-BB66-015A88F6E410}</stp>
         <tr r="O4" s="22"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:20:39</v>
-        <stp/>
-        <stp>{E8A75B92-D27B-4921-B725-8A9E5BD02336}</stp>
-        <tr r="O4" s="25"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:20:39</v>
-        <stp/>
-        <stp>{8EA3E7AD-568F-412A-9EF9-B44F19C29DE0}</stp>
-        <tr r="O5" s="6"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:20:39</v>
-        <stp/>
-        <stp>{10A281A3-E0D3-4063-8D11-BA98CC11D42B}</stp>
-        <tr r="N6" s="16"/>
       </tp>
     </main>
   </volType>
@@ -2119,7 +2124,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet53"/>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -2143,7 +2148,7 @@
       </c>
       <c r="B1" s="170" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Apr 29 2014 14:47:17</v>
+        <v>QuantLibXL 1.5.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jun 25 2014 10:33:09</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2193,7 +2198,9 @@
       <c r="C5" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="158"/>
+      <c r="D5" s="158">
+        <v>41886.75503472222</v>
+      </c>
       <c r="E5" s="145"/>
       <c r="G5" s="5"/>
       <c r="H5" s="9" t="s">
@@ -2229,7 +2236,7 @@
       </c>
       <c r="D7" s="155">
         <f>_xll.ohTrigger(Deposits!Q2,FRAs!X5,Swap3M!Y3,OIS!Y3)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="145"/>
       <c r="G7" s="5"/>
@@ -2246,7 +2253,7 @@
       </c>
       <c r="D8" s="155">
         <f>_xll.ohTrigger('CNH Hibor'!Q6:Q13)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="145"/>
       <c r="G8" s="5"/>
@@ -2285,7 +2292,7 @@
       </c>
       <c r="I10" s="219">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41810</v>
+        <v>41886</v>
       </c>
       <c r="J10" s="162"/>
     </row>
@@ -2440,11 +2447,11 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="144"/>
-      <c r="C20" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="146" t="s">
-        <v>140</v>
+      <c r="C20" s="149" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>185</v>
       </c>
       <c r="E20" s="145"/>
       <c r="G20" s="5"/>
@@ -2456,8 +2463,12 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="144"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
+      <c r="C21" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="146" t="s">
+        <v>140</v>
+      </c>
       <c r="E21" s="145"/>
       <c r="G21" s="5"/>
       <c r="H21" s="9" t="s">
@@ -2470,13 +2481,9 @@
     </row>
     <row r="22" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="144"/>
-      <c r="C22" s="142" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="173">
-        <v>41795.654097222221</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="145"/>
       <c r="G22" s="3"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -2485,34 +2492,44 @@
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="144"/>
       <c r="C23" s="142" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="173">
+        <v>41795.654097222221</v>
+      </c>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="144"/>
+      <c r="C24" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="D23" s="174" t="b">
+      <c r="D24" s="174" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="141"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
+      <c r="E24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="141"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C26" s="171"/>
       <c r="D26" s="171"/>
       <c r="E26" s="171"/>
     </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D23">
+  <conditionalFormatting sqref="D24">
     <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -2707,7 +2724,7 @@
       <c r="N5" s="217"/>
       <c r="O5" s="194" t="str">
         <f>_xll.RData(O6:O13,P5:Q5,"RTFEED:IDN",,,P6)</f>
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
       </c>
       <c r="P5" s="195" t="s">
         <v>157</v>
@@ -2780,28 +2797,28 @@
         <f t="shared" ref="O6:O13" si="2">"HI"&amp;Currency&amp;C6&amp;"DF"&amp;"="</f>
         <v>HICNHONDF=</v>
       </c>
-      <c r="P6" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="202" t="s">
-        <v>184</v>
+      <c r="P6" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q6" s="202">
+        <v>2.2949999999999999</v>
       </c>
       <c r="R6" s="202" t="b">
         <f t="shared" ref="R6:R13" si="3">IF(AND(ISNUMBER($Q6),$Q6&lt;&gt;0%),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S6" s="218" t="b">
         <f>IF(Q6,_xll.qlIndexAddFixings(I6,P6,Q6/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T6" s="226"/>
       <c r="U6" s="232" t="e">
         <f>_xll.qlIndexFixing($I6,$P6,TRUE,$R6)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V6" s="200" t="e">
+      <c r="V6" s="200">
         <f>IF($S6,_xll.qlIndexFixing($I6,$P6,FALSE,$R6),"-")</f>
-        <v>#VALUE!</v>
+        <v>2.2949999999999998E-2</v>
       </c>
       <c r="W6" s="200" t="e">
         <f t="shared" ref="W6" si="4">U6-V6</f>
@@ -2845,11 +2862,11 @@
       <c r="J7" s="198"/>
       <c r="K7" s="233" t="str">
         <f>_xll.qlIborIndex(I7,FamilyName,C7,D7,"CNY",E7,F7,G7,H7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1W#0005</v>
+        <v>CnhHibor1W#0004</v>
       </c>
       <c r="L7" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C7&amp;"LastFixing_Quote",K7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1WLastFixing_Quote#0005</v>
+        <v>CnhHibor1WLastFixing_Quote#0004</v>
       </c>
       <c r="M7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K7)</f>
@@ -2860,28 +2877,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1WDF=</v>
       </c>
-      <c r="P7" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="202" t="s">
-        <v>184</v>
+      <c r="P7" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q7" s="202">
+        <v>2.7033299999999998</v>
       </c>
       <c r="R7" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S7" s="218" t="b">
         <f>IF(Q7,_xll.qlIndexAddFixings(I7,P7,Q7/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T7" s="226"/>
       <c r="U7" s="232" t="e">
         <f>_xll.qlIndexFixing($I7,$P7,TRUE,$R7)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V7" s="200" t="e">
+      <c r="V7" s="200">
         <f>IF($S7,_xll.qlIndexFixing($I7,$P7,FALSE,$R7),"-")</f>
-        <v>#VALUE!</v>
+        <v>2.7033299999999996E-2</v>
       </c>
       <c r="W7" s="200" t="e">
         <f t="shared" ref="W7:W13" si="5">U7-V7</f>
@@ -2925,11 +2942,11 @@
       <c r="J8" s="198"/>
       <c r="K8" s="233" t="str">
         <f>_xll.qlIborIndex(I8,FamilyName,C8,D8,"CNY",E8,F8,G8,H8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2W#0005</v>
+        <v>CnhHibor2W#0004</v>
       </c>
       <c r="L8" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C8&amp;"LastFixing_Quote",K8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2WLastFixing_Quote#0005</v>
+        <v>CnhHibor2WLastFixing_Quote#0004</v>
       </c>
       <c r="M8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K8)</f>
@@ -2940,28 +2957,28 @@
         <f t="shared" si="2"/>
         <v>HICNH2WDF=</v>
       </c>
-      <c r="P8" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q8" s="202" t="s">
-        <v>184</v>
+      <c r="P8" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q8" s="202">
+        <v>2.8272200000000001</v>
       </c>
       <c r="R8" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S8" s="218" t="b">
         <f>IF(Q8,_xll.qlIndexAddFixings(I8,P8,Q8/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T8" s="226"/>
       <c r="U8" s="232" t="e">
         <f>_xll.qlIndexFixing($I8,$P8,TRUE,$R8)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V8" s="200" t="e">
+      <c r="V8" s="200">
         <f>IF($S8,_xll.qlIndexFixing($I8,$P8,FALSE,$R8),"-")</f>
-        <v>#VALUE!</v>
+        <v>2.8272200000000001E-2</v>
       </c>
       <c r="W8" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3005,11 +3022,11 @@
       <c r="J9" s="198"/>
       <c r="K9" s="233" t="str">
         <f>_xll.qlIborIndex(I9,FamilyName,C9,D9,"CNY",E9,F9,G9,H9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1M#0005</v>
+        <v>CnhHibor1M#0004</v>
       </c>
       <c r="L9" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C9&amp;"LastFixing_Quote",K9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1MLastFixing_Quote#0005</v>
+        <v>CnhHibor1MLastFixing_Quote#0004</v>
       </c>
       <c r="M9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K9)</f>
@@ -3020,28 +3037,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1MDF=</v>
       </c>
-      <c r="P9" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" s="202" t="s">
-        <v>184</v>
+      <c r="P9" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q9" s="202">
+        <v>3.0233300000000001</v>
       </c>
       <c r="R9" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S9" s="218" t="b">
         <f>IF(Q9,_xll.qlIndexAddFixings(I9,P9,Q9/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T9" s="226"/>
       <c r="U9" s="232" t="e">
         <f>_xll.qlIndexFixing($I9,$P9,TRUE,$R9)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V9" s="200" t="e">
+      <c r="V9" s="200">
         <f>IF($S9,_xll.qlIndexFixing($I9,$P9,FALSE,$R9),"-")</f>
-        <v>#VALUE!</v>
+        <v>3.0233300000000001E-2</v>
       </c>
       <c r="W9" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3085,11 +3102,11 @@
       <c r="J10" s="198"/>
       <c r="K10" s="233" t="str">
         <f>_xll.qlIborIndex(I10,FamilyName,C10,D10,"CNY",E10,F10,G10,H10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2M#0005</v>
+        <v>CnhHibor2M#0004</v>
       </c>
       <c r="L10" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C10&amp;"LastFixing_Quote",K10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor2MLastFixing_Quote#0005</v>
+        <v>CnhHibor2MLastFixing_Quote#0004</v>
       </c>
       <c r="M10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K10)</f>
@@ -3100,28 +3117,28 @@
         <f t="shared" si="2"/>
         <v>HICNH2MDF=</v>
       </c>
-      <c r="P10" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="202" t="s">
-        <v>184</v>
+      <c r="P10" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q10" s="202">
+        <v>3.0438900000000002</v>
       </c>
       <c r="R10" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S10" s="218" t="b">
         <f>IF(Q10,_xll.qlIndexAddFixings(I10,P10,Q10/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T10" s="226"/>
       <c r="U10" s="232" t="e">
         <f>_xll.qlIndexFixing($I10,$P10,TRUE,$R10)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V10" s="200" t="e">
+      <c r="V10" s="200">
         <f>IF($S10,_xll.qlIndexFixing($I10,$P10,FALSE,$R10),"-")</f>
-        <v>#VALUE!</v>
+        <v>3.0438900000000001E-2</v>
       </c>
       <c r="W10" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3164,15 +3181,15 @@
       </c>
       <c r="J11" s="198" t="str">
         <f>_xll.qlRelinkableHandleYieldTermStructure(Currency&amp;C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3M#0001</v>
+        <v>CNH3M#0004</v>
       </c>
       <c r="K11" s="233" t="str">
         <f>_xll.qlIborIndex(I11,FamilyName,C11,D11,"CNY",E11,F11,G11,H11,J11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3M#0018</v>
+        <v>CnhHibor3M#0004</v>
       </c>
       <c r="L11" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C11&amp;"LastFixing_Quote",K11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor3MLastFixing_Quote#0006</v>
+        <v>CnhHibor3MLastFixing_Quote#0004</v>
       </c>
       <c r="M11" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K11)</f>
@@ -3183,28 +3200,28 @@
         <f t="shared" si="2"/>
         <v>HICNH3MDF=</v>
       </c>
-      <c r="P11" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="202" t="s">
-        <v>184</v>
+      <c r="P11" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q11" s="202">
+        <v>3.0888900000000001</v>
       </c>
       <c r="R11" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S11" s="218" t="b">
         <f>IF(Q11,_xll.qlIndexAddFixings(I11,P11,Q11/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T11" s="226"/>
       <c r="U11" s="232" t="e">
         <f>_xll.qlIndexFixing($I11,$P11,TRUE,$R11)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V11" s="200" t="e">
+      <c r="V11" s="200">
         <f>IF($S11,_xll.qlIndexFixing($I11,$P11,FALSE,$R11),"-")</f>
-        <v>#VALUE!</v>
+        <v>3.08889E-2</v>
       </c>
       <c r="W11" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3248,11 +3265,11 @@
       <c r="J12" s="198"/>
       <c r="K12" s="233" t="str">
         <f>_xll.qlIborIndex(I12,FamilyName,C12,D12,"CNY",E12,F12,G12,H12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6M#0005</v>
+        <v>CnhHibor6M#0004</v>
       </c>
       <c r="L12" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C12&amp;"LastFixing_Quote",K12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor6MLastFixing_Quote#0005</v>
+        <v>CnhHibor6MLastFixing_Quote#0004</v>
       </c>
       <c r="M12" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K12)</f>
@@ -3263,28 +3280,28 @@
         <f t="shared" si="2"/>
         <v>HICNH6MDF=</v>
       </c>
-      <c r="P12" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="202" t="s">
-        <v>184</v>
+      <c r="P12" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q12" s="202">
+        <v>3.0666699999999998</v>
       </c>
       <c r="R12" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S12" s="218" t="b">
         <f>IF(Q12,_xll.qlIndexAddFixings(I12,P12,Q12/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T12" s="227"/>
       <c r="U12" s="232" t="e">
         <f>_xll.qlIndexFixing($I12,$P12,TRUE,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V12" s="200" t="e">
+      <c r="V12" s="200">
         <f>IF($S12,_xll.qlIndexFixing($I12,$P12,FALSE,$R12),"-")</f>
-        <v>#VALUE!</v>
+        <v>3.0666699999999998E-2</v>
       </c>
       <c r="W12" s="200" t="e">
         <f t="shared" ref="W12" si="7">U12-V12</f>
@@ -3328,11 +3345,11 @@
       <c r="J13" s="198"/>
       <c r="K13" s="233" t="str">
         <f>_xll.qlIborIndex(I13,FamilyName,C13,D13,"CNY",E13,F13,G13,H13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1Y#0005</v>
+        <v>CnhHibor1Y#0004</v>
       </c>
       <c r="L13" s="198" t="str">
         <f>_xll.qlLastFixingQuote(PROPER(Currency)&amp;FamilyName&amp;$C13&amp;"LastFixing_Quote",K13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CnhHibor1YLastFixing_Quote#0005</v>
+        <v>CnhHibor1YLastFixing_Quote#0004</v>
       </c>
       <c r="M13" s="198" t="str">
         <f>_xll.ohRangeRetrieveError($K13)</f>
@@ -3343,28 +3360,28 @@
         <f t="shared" si="2"/>
         <v>HICNH1YDF=</v>
       </c>
-      <c r="P13" s="201" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="202" t="s">
-        <v>184</v>
+      <c r="P13" s="201">
+        <v>41886</v>
+      </c>
+      <c r="Q13" s="202">
+        <v>3.18222</v>
       </c>
       <c r="R13" s="202" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="218" t="e">
+        <v>1</v>
+      </c>
+      <c r="S13" s="218" t="b">
         <f>IF(Q13,_xll.qlIndexAddFixings(I13,P13,Q13/100,TRUE),NA())</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="T13" s="226"/>
       <c r="U13" s="237" t="e">
         <f>_xll.qlIndexFixing($I12,$P12,TRUE,$R12)</f>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="200" t="e">
+      <c r="V13" s="200">
         <f>IF($S12,_xll.qlIndexFixing($I12,$P12,FALSE,$R12),"-")</f>
-        <v>#VALUE!</v>
+        <v>3.0666699999999998E-2</v>
       </c>
       <c r="W13" s="200" t="e">
         <f t="shared" si="5"/>
@@ -3491,7 +3508,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="239">
         <f>_xll.ohTrigger(Q4:Q21)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R2" s="240"/>
       <c r="S2" s="11"/>
@@ -3516,7 +3533,7 @@
       <c r="J3" s="107"/>
       <c r="K3" s="85" t="str">
         <f>_xll.RData(K4:K21,L3,"RTFEED:IDN",,,L4)</f>
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
       </c>
       <c r="L3" s="109" t="s">
         <v>128</v>
@@ -3546,7 +3563,7 @@
       </c>
       <c r="E4" s="37" t="str">
         <f>_xll.qlSimpleQuote(D4,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOND_Quote#0001</v>
+        <v>CNHOND_Quote#0004</v>
       </c>
       <c r="F4" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -3561,8 +3578,8 @@
         <f t="shared" ref="K4:K21" si="1">"HI"&amp;Currency&amp;J4&amp;"DF"&amp;"="</f>
         <v>HICNHONDF=</v>
       </c>
-      <c r="L4" s="103" t="s">
-        <v>184</v>
+      <c r="L4" s="103">
+        <v>2.2949999999999999</v>
       </c>
       <c r="M4" s="89"/>
       <c r="N4" s="241">
@@ -3591,7 +3608,7 @@
       </c>
       <c r="E5" s="37" t="str">
         <f>_xll.qlSimpleQuote(D5,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHTND_Quote#0001</v>
+        <v>CNHTND_Quote#0004</v>
       </c>
       <c r="F5" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -3607,7 +3624,7 @@
         <v>HICNHTNDF=</v>
       </c>
       <c r="L5" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M5" s="89"/>
       <c r="N5" s="242" t="s">
@@ -3635,7 +3652,7 @@
       </c>
       <c r="E6" s="37" t="str">
         <f>_xll.qlSimpleQuote(D6,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHSND_Quote#0001</v>
+        <v>CNHSND_Quote#0004</v>
       </c>
       <c r="F6" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E6)</f>
@@ -3651,7 +3668,7 @@
         <v>HICNHSNDF=</v>
       </c>
       <c r="L6" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M6" s="89"/>
       <c r="N6" s="242" t="s">
@@ -3679,7 +3696,7 @@
       </c>
       <c r="E7" s="37" t="str">
         <f>_xll.qlSimpleQuote(D7,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHSWD_Quote#0001</v>
+        <v>CNHSWD_Quote#0004</v>
       </c>
       <c r="F7" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E7)</f>
@@ -3694,8 +3711,8 @@
         <f t="shared" si="1"/>
         <v>HICNH1WDF=</v>
       </c>
-      <c r="L7" s="91" t="s">
-        <v>184</v>
+      <c r="L7" s="91">
+        <v>2.7033299999999998</v>
       </c>
       <c r="M7" s="89"/>
       <c r="N7" s="242">
@@ -3723,7 +3740,7 @@
       </c>
       <c r="E8" s="37" t="str">
         <f>_xll.qlSimpleQuote(D8,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2WD_Quote#0001</v>
+        <v>CNH2WD_Quote#0004</v>
       </c>
       <c r="F8" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -3738,8 +3755,8 @@
         <f t="shared" si="1"/>
         <v>HICNH2WDF=</v>
       </c>
-      <c r="L8" s="91" t="s">
-        <v>184</v>
+      <c r="L8" s="91">
+        <v>2.8272200000000001</v>
       </c>
       <c r="M8" s="89"/>
       <c r="N8" s="242">
@@ -3767,7 +3784,7 @@
       </c>
       <c r="E9" s="37" t="str">
         <f>_xll.qlSimpleQuote(D9,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3WD_Quote#0001</v>
+        <v>CNH3WD_Quote#0004</v>
       </c>
       <c r="F9" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -3783,7 +3800,7 @@
         <v>HICNH3WDF=</v>
       </c>
       <c r="L9" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M9" s="89"/>
       <c r="N9" s="242" t="s">
@@ -3811,7 +3828,7 @@
       </c>
       <c r="E10" s="37" t="str">
         <f>_xll.qlSimpleQuote(D10,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1MD_Quote#0001</v>
+        <v>CNH1MD_Quote#0004</v>
       </c>
       <c r="F10" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E10)</f>
@@ -3826,8 +3843,8 @@
         <f t="shared" si="1"/>
         <v>HICNH1MDF=</v>
       </c>
-      <c r="L10" s="91" t="s">
-        <v>184</v>
+      <c r="L10" s="91">
+        <v>3.0233300000000001</v>
       </c>
       <c r="M10" s="89"/>
       <c r="N10" s="242">
@@ -3855,7 +3872,7 @@
       </c>
       <c r="E11" s="37" t="str">
         <f>_xll.qlSimpleQuote(D11,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH2MD_Quote#0001</v>
+        <v>CNH2MD_Quote#0004</v>
       </c>
       <c r="F11" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E11)</f>
@@ -3870,8 +3887,8 @@
         <f t="shared" si="1"/>
         <v>HICNH2MDF=</v>
       </c>
-      <c r="L11" s="91" t="s">
-        <v>184</v>
+      <c r="L11" s="91">
+        <v>3.0438900000000002</v>
       </c>
       <c r="M11" s="89"/>
       <c r="N11" s="242">
@@ -3899,7 +3916,7 @@
       </c>
       <c r="E12" s="37" t="str">
         <f>_xll.qlSimpleQuote(D12,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH3MD_Quote#0001</v>
+        <v>CNH3MD_Quote#0004</v>
       </c>
       <c r="F12" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -3914,8 +3931,8 @@
         <f t="shared" si="1"/>
         <v>HICNH3MDF=</v>
       </c>
-      <c r="L12" s="91" t="s">
-        <v>184</v>
+      <c r="L12" s="91">
+        <v>3.0888900000000001</v>
       </c>
       <c r="M12" s="89"/>
       <c r="N12" s="242">
@@ -3943,7 +3960,7 @@
       </c>
       <c r="E13" s="37" t="str">
         <f>_xll.qlSimpleQuote(D13,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH4MD_Quote#0001</v>
+        <v>CNH4MD_Quote#0004</v>
       </c>
       <c r="F13" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E13)</f>
@@ -3959,7 +3976,7 @@
         <v>HICNH4MDF=</v>
       </c>
       <c r="L13" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M13" s="89"/>
       <c r="N13" s="242" t="s">
@@ -3987,7 +4004,7 @@
       </c>
       <c r="E14" s="37" t="str">
         <f>_xll.qlSimpleQuote(D14,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH5MD_Quote#0001</v>
+        <v>CNH5MD_Quote#0004</v>
       </c>
       <c r="F14" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E14)</f>
@@ -4003,7 +4020,7 @@
         <v>HICNH5MDF=</v>
       </c>
       <c r="L14" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M14" s="89"/>
       <c r="N14" s="242" t="s">
@@ -4031,7 +4048,7 @@
       </c>
       <c r="E15" s="37" t="str">
         <f>_xll.qlSimpleQuote(D15,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH6MD_Quote#0001</v>
+        <v>CNH6MD_Quote#0004</v>
       </c>
       <c r="F15" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E15)</f>
@@ -4046,8 +4063,8 @@
         <f t="shared" si="1"/>
         <v>HICNH6MDF=</v>
       </c>
-      <c r="L15" s="91" t="s">
-        <v>184</v>
+      <c r="L15" s="91">
+        <v>3.0666699999999998</v>
       </c>
       <c r="M15" s="89"/>
       <c r="N15" s="242">
@@ -4075,7 +4092,7 @@
       </c>
       <c r="E16" s="37" t="str">
         <f>_xll.qlSimpleQuote(D16,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH7MD_Quote#0001</v>
+        <v>CNH7MD_Quote#0004</v>
       </c>
       <c r="F16" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E16)</f>
@@ -4091,7 +4108,7 @@
         <v>HICNH7MDF=</v>
       </c>
       <c r="L16" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="242" t="s">
@@ -4119,7 +4136,7 @@
       </c>
       <c r="E17" s="37" t="str">
         <f>_xll.qlSimpleQuote(D17,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH8MD_Quote#0001</v>
+        <v>CNH8MD_Quote#0004</v>
       </c>
       <c r="F17" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E17)</f>
@@ -4135,7 +4152,7 @@
         <v>HICNH8MDF=</v>
       </c>
       <c r="L17" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="242" t="s">
@@ -4163,7 +4180,7 @@
       </c>
       <c r="E18" s="37" t="str">
         <f>_xll.qlSimpleQuote(D18,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH9MD_Quote#0001</v>
+        <v>CNH9MD_Quote#0004</v>
       </c>
       <c r="F18" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E18)</f>
@@ -4179,7 +4196,7 @@
         <v>HICNH9MDF=</v>
       </c>
       <c r="L18" s="91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M18" s="89"/>
       <c r="N18" s="242" t="s">
@@ -4207,7 +4224,7 @@
       </c>
       <c r="E19" s="37" t="str">
         <f>_xll.qlSimpleQuote(D19,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH10MD_Quote#0001</v>
+        <v>CNH10MD_Quote#0004</v>
       </c>
       <c r="F19" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E19)</f>
@@ -4223,7 +4240,7 @@
         <v>HICNH10MDF=</v>
       </c>
       <c r="L19" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M19" s="89"/>
       <c r="N19" s="242" t="s">
@@ -4251,7 +4268,7 @@
       </c>
       <c r="E20" s="37" t="str">
         <f>_xll.qlSimpleQuote(D20,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH11MD_Quote#0001</v>
+        <v>CNH11MD_Quote#0004</v>
       </c>
       <c r="F20" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E20)</f>
@@ -4267,7 +4284,7 @@
         <v>HICNH11MDF=</v>
       </c>
       <c r="L20" s="91" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="242" t="s">
@@ -4295,7 +4312,7 @@
       </c>
       <c r="E21" s="37" t="str">
         <f>_xll.qlSimpleQuote(D21,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNH1YD_Quote#0001</v>
+        <v>CNH1YD_Quote#0004</v>
       </c>
       <c r="F21" s="36" t="str">
         <f>_xll.ohRangeRetrieveError(E21)</f>
@@ -4310,8 +4327,8 @@
         <f t="shared" si="1"/>
         <v>HICNH1YDF=</v>
       </c>
-      <c r="L21" s="91" t="s">
-        <v>184</v>
+      <c r="L21" s="91">
+        <v>3.18222</v>
       </c>
       <c r="M21" s="89"/>
       <c r="N21" s="242">
@@ -4527,7 +4544,7 @@
       <c r="W5" s="65"/>
       <c r="X5" s="110">
         <f>_xll.ohTrigger(X7:X33)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Y5" s="82"/>
       <c r="Z5" s="11"/>
@@ -4557,7 +4574,7 @@
       <c r="M6" s="72"/>
       <c r="N6" s="85" t="str">
         <f>_xll.RData(N7:N33,O6:R6,"RTFEED:IDN",ReutersRtMode,,O7)</f>
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
       </c>
       <c r="O6" s="127" t="s">
         <v>116</v>
@@ -4599,7 +4616,7 @@
         <v>94</v>
       </c>
       <c r="D7" s="54" t="str">
-        <f>Currency&amp;$B7&amp;$C7&amp;QuoteSuffix</f>
+        <f t="shared" ref="D7:D33" si="0">Currency&amp;$B7&amp;$C7&amp;QuoteSuffix</f>
         <v>CNH1x4F_Quote</v>
       </c>
       <c r="E7" s="53" t="str">
@@ -4617,31 +4634,31 @@
         <v>4</v>
       </c>
       <c r="K7" s="121">
-        <f>B7</f>
+        <f t="shared" ref="K7:K33" si="1">B7</f>
         <v>1</v>
       </c>
       <c r="L7" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M7" s="119" t="str">
-        <f t="shared" ref="M7:M33" si="0">Currency&amp;$K7&amp;$L7&amp;$J7&amp;"F"</f>
+        <f t="shared" ref="M7:M33" si="2">Currency&amp;$K7&amp;$L7&amp;$J7&amp;"F"</f>
         <v>CNH1X4F</v>
       </c>
       <c r="N7" s="244" t="str">
         <f t="array" ref="N7:N33">Instruments&amp;"="&amp;VLOOKUP(ContributorFRA,ContributorTable,2,FALSE)</f>
         <v>CNH1X4F=TRHK</v>
       </c>
-      <c r="O7" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P7" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" s="119" t="s">
-        <v>184</v>
+      <c r="O7" s="120">
+        <v>0</v>
+      </c>
+      <c r="P7" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="119">
+        <v>0</v>
+      </c>
+      <c r="R7" s="119">
+        <v>0</v>
       </c>
       <c r="S7" s="122" t="e">
         <f>_xll.qlMidSafe(O7,P7)</f>
@@ -4673,7 +4690,7 @@
         <v>93</v>
       </c>
       <c r="D8" s="58" t="str">
-        <f>Currency&amp;$B8&amp;$C8&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH2x5F_Quote</v>
       </c>
       <c r="E8" s="57" t="str">
@@ -4687,34 +4704,34 @@
       <c r="G8" s="17"/>
       <c r="I8" s="50"/>
       <c r="J8" s="93">
-        <f t="shared" ref="J8:J12" si="1">K8+3</f>
+        <f t="shared" ref="J8:J12" si="3">K8+3</f>
         <v>5</v>
       </c>
       <c r="K8" s="121">
-        <f>B8</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L8" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M8" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH2X5F</v>
       </c>
       <c r="N8" s="244" t="str">
         <v>CNH2X5F=TRHK</v>
       </c>
-      <c r="O8" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P8" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q8" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="119" t="s">
-        <v>184</v>
+      <c r="O8" s="120">
+        <v>0</v>
+      </c>
+      <c r="P8" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="119">
+        <v>0</v>
+      </c>
+      <c r="R8" s="119">
+        <v>0</v>
       </c>
       <c r="S8" s="118" t="e">
         <f>_xll.qlMidSafe(O8,P8)</f>
@@ -4745,7 +4762,7 @@
         <v>92</v>
       </c>
       <c r="D9" s="58" t="str">
-        <f>Currency&amp;$B9&amp;$C9&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH3x6F_Quote</v>
       </c>
       <c r="E9" s="57" t="str">
@@ -4759,38 +4776,38 @@
       <c r="G9" s="17"/>
       <c r="I9" s="50"/>
       <c r="J9" s="93">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="K9" s="121">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K9" s="121">
-        <f>B9</f>
         <v>3</v>
       </c>
       <c r="L9" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M9" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH3X6F</v>
       </c>
       <c r="N9" s="244" t="str">
         <v>CNH3X6F=TRHK</v>
       </c>
-      <c r="O9" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P9" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="S9" s="118" t="e">
+      <c r="O9" s="120">
+        <v>2.97</v>
+      </c>
+      <c r="P9" s="120">
+        <v>3.07</v>
+      </c>
+      <c r="Q9" s="119">
+        <v>0</v>
+      </c>
+      <c r="R9" s="119">
+        <v>0</v>
+      </c>
+      <c r="S9" s="118">
         <f>_xll.qlMidSafe(O9,P9)</f>
-        <v>#NUM!</v>
+        <v>3.02</v>
       </c>
       <c r="T9" s="89"/>
       <c r="U9" s="118">
@@ -4818,7 +4835,7 @@
         <v>91</v>
       </c>
       <c r="D10" s="58" t="str">
-        <f>Currency&amp;$B10&amp;$C10&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH4x7F_Quote</v>
       </c>
       <c r="E10" s="57" t="str">
@@ -4832,34 +4849,34 @@
       <c r="G10" s="17"/>
       <c r="I10" s="50"/>
       <c r="J10" s="93">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K10" s="121">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="K10" s="121">
-        <f>B10</f>
         <v>4</v>
       </c>
       <c r="L10" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M10" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH4X7F</v>
       </c>
       <c r="N10" s="244" t="str">
         <v>CNH4X7F=TRHK</v>
       </c>
       <c r="O10" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P10" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R10" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S10" s="118" t="e">
         <f>_xll.qlMidSafe(O10,P10)</f>
@@ -4891,7 +4908,7 @@
         <v>90</v>
       </c>
       <c r="D11" s="58" t="str">
-        <f>Currency&amp;$B11&amp;$C11&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH5x8F_Quote</v>
       </c>
       <c r="E11" s="57" t="str">
@@ -4905,34 +4922,34 @@
       <c r="G11" s="17"/>
       <c r="I11" s="50"/>
       <c r="J11" s="93">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="121">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="K11" s="121">
-        <f>B11</f>
         <v>5</v>
       </c>
       <c r="L11" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M11" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH5X8F</v>
       </c>
       <c r="N11" s="244" t="str">
         <v>CNH5X8F=TRHK</v>
       </c>
       <c r="O11" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P11" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R11" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S11" s="118" t="e">
         <f>_xll.qlMidSafe(O11,P11)</f>
@@ -4963,7 +4980,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="49" t="str">
-        <f>Currency&amp;$B12&amp;$C12&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH6x9F_Quote</v>
       </c>
       <c r="E12" s="48" t="str">
@@ -4977,38 +4994,38 @@
       <c r="G12" s="17"/>
       <c r="I12" s="50"/>
       <c r="J12" s="99">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K12" s="117">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K12" s="117">
-        <f>B12</f>
         <v>6</v>
       </c>
       <c r="L12" s="117" t="s">
         <v>134</v>
       </c>
       <c r="M12" s="115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH6X9F</v>
       </c>
       <c r="N12" s="245" t="str">
         <v>CNH6X9F=TRHK</v>
       </c>
-      <c r="O12" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="P12" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="R12" s="115" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="114" t="e">
+      <c r="O12" s="116">
+        <v>3</v>
+      </c>
+      <c r="P12" s="116">
+        <v>3.1</v>
+      </c>
+      <c r="Q12" s="115">
+        <v>0</v>
+      </c>
+      <c r="R12" s="115">
+        <v>0</v>
+      </c>
+      <c r="S12" s="114">
         <f>_xll.qlMidSafe(O12,P12)</f>
-        <v>#NUM!</v>
+        <v>3.05</v>
       </c>
       <c r="T12" s="89"/>
       <c r="U12" s="114">
@@ -5033,11 +5050,11 @@
         <v>1</v>
       </c>
       <c r="C13" s="55" t="str">
-        <f t="shared" ref="C13:C21" si="2">"x"&amp;B13+6&amp;"F"</f>
+        <f t="shared" ref="C13:C21" si="4">"x"&amp;B13+6&amp;"F"</f>
         <v>x7F</v>
       </c>
       <c r="D13" s="54" t="str">
-        <f>Currency&amp;$B13&amp;$C13&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH1x7F_Quote</v>
       </c>
       <c r="E13" s="53" t="str">
@@ -5055,30 +5072,30 @@
         <v>7</v>
       </c>
       <c r="K13" s="125">
-        <f>B13</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L13" s="125" t="s">
         <v>134</v>
       </c>
       <c r="M13" s="123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH1X7F</v>
       </c>
       <c r="N13" s="246" t="str">
         <v>CNH1X7F=TRHK</v>
       </c>
-      <c r="O13" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="P13" s="124" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="123" t="s">
-        <v>184</v>
-      </c>
-      <c r="R13" s="123" t="s">
-        <v>184</v>
+      <c r="O13" s="124">
+        <v>0</v>
+      </c>
+      <c r="P13" s="124">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="123">
+        <v>0</v>
+      </c>
+      <c r="R13" s="123">
+        <v>0</v>
       </c>
       <c r="S13" s="122" t="e">
         <f>_xll.qlMidSafe(O13,P13)</f>
@@ -5106,11 +5123,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x8F</v>
       </c>
       <c r="D14" s="58" t="str">
-        <f>Currency&amp;$B14&amp;$C14&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH2x8F_Quote</v>
       </c>
       <c r="E14" s="57" t="str">
@@ -5124,34 +5141,34 @@
       <c r="G14" s="17"/>
       <c r="I14" s="50"/>
       <c r="J14" s="93">
-        <f t="shared" ref="J14:J21" si="3">K14+6</f>
+        <f t="shared" ref="J14:J21" si="5">K14+6</f>
         <v>8</v>
       </c>
       <c r="K14" s="121">
-        <f>B14</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L14" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M14" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH2X8F</v>
       </c>
       <c r="N14" s="244" t="str">
         <v>CNH2X8F=TRHK</v>
       </c>
-      <c r="O14" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P14" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R14" s="119" t="s">
-        <v>184</v>
+      <c r="O14" s="120">
+        <v>0</v>
+      </c>
+      <c r="P14" s="120">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="119">
+        <v>0</v>
+      </c>
+      <c r="R14" s="119">
+        <v>0</v>
       </c>
       <c r="S14" s="118" t="e">
         <f>_xll.qlMidSafe(O14,P14)</f>
@@ -5179,11 +5196,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x9F</v>
       </c>
       <c r="D15" s="58" t="str">
-        <f>Currency&amp;$B15&amp;$C15&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH3x9F_Quote</v>
       </c>
       <c r="E15" s="57" t="str">
@@ -5197,38 +5214,38 @@
       <c r="G15" s="17"/>
       <c r="I15" s="50"/>
       <c r="J15" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="K15" s="121">
-        <f>B15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L15" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M15" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH3X9F</v>
       </c>
       <c r="N15" s="244" t="str">
         <v>CNH3X9F=TRHK</v>
       </c>
-      <c r="O15" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P15" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R15" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="118" t="e">
+      <c r="O15" s="120">
+        <v>2.95</v>
+      </c>
+      <c r="P15" s="120">
+        <v>3.15</v>
+      </c>
+      <c r="Q15" s="119">
+        <v>0</v>
+      </c>
+      <c r="R15" s="119">
+        <v>0</v>
+      </c>
+      <c r="S15" s="118">
         <f>_xll.qlMidSafe(O15,P15)</f>
-        <v>#NUM!</v>
+        <v>3.05</v>
       </c>
       <c r="T15" s="89"/>
       <c r="U15" s="118">
@@ -5252,11 +5269,11 @@
         <v>4</v>
       </c>
       <c r="C16" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x10F</v>
       </c>
       <c r="D16" s="58" t="str">
-        <f>Currency&amp;$B16&amp;$C16&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH4x10F_Quote</v>
       </c>
       <c r="E16" s="57" t="str">
@@ -5270,34 +5287,34 @@
       <c r="G16" s="17"/>
       <c r="I16" s="50"/>
       <c r="J16" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K16" s="121">
-        <f>B16</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L16" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M16" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH4X10F</v>
       </c>
       <c r="N16" s="244" t="str">
         <v>CNH4X10F=TRHK</v>
       </c>
       <c r="O16" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P16" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R16" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S16" s="118" t="e">
         <f>_xll.qlMidSafe(O16,P16)</f>
@@ -5325,11 +5342,11 @@
         <v>5</v>
       </c>
       <c r="C17" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x11F</v>
       </c>
       <c r="D17" s="58" t="str">
-        <f>Currency&amp;$B17&amp;$C17&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH5x11F_Quote</v>
       </c>
       <c r="E17" s="57" t="str">
@@ -5343,34 +5360,34 @@
       <c r="G17" s="17"/>
       <c r="I17" s="50"/>
       <c r="J17" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="K17" s="121">
-        <f>B17</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L17" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M17" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH5X11F</v>
       </c>
       <c r="N17" s="244" t="str">
         <v>CNH5X11F=TRHK</v>
       </c>
       <c r="O17" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P17" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R17" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S17" s="118" t="e">
         <f>_xll.qlMidSafe(O17,P17)</f>
@@ -5398,11 +5415,11 @@
         <v>6</v>
       </c>
       <c r="C18" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x12F</v>
       </c>
       <c r="D18" s="58" t="str">
-        <f>Currency&amp;$B18&amp;$C18&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH6x12F_Quote</v>
       </c>
       <c r="E18" s="57" t="str">
@@ -5416,38 +5433,38 @@
       <c r="G18" s="17"/>
       <c r="I18" s="50"/>
       <c r="J18" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K18" s="121">
-        <f>B18</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L18" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M18" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH6X12F</v>
       </c>
       <c r="N18" s="244" t="str">
         <v>CNH6X12F=TRHK</v>
       </c>
-      <c r="O18" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="P18" s="120" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q18" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="R18" s="119" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="118" t="e">
+      <c r="O18" s="120">
+        <v>2.98</v>
+      </c>
+      <c r="P18" s="120">
+        <v>3.18</v>
+      </c>
+      <c r="Q18" s="119">
+        <v>0</v>
+      </c>
+      <c r="R18" s="119">
+        <v>0</v>
+      </c>
+      <c r="S18" s="118">
         <f>_xll.qlMidSafe(O18,P18)</f>
-        <v>#NUM!</v>
+        <v>3.08</v>
       </c>
       <c r="T18" s="89"/>
       <c r="U18" s="118">
@@ -5471,11 +5488,11 @@
         <v>9</v>
       </c>
       <c r="C19" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x15F</v>
       </c>
       <c r="D19" s="58" t="str">
-        <f>Currency&amp;$B19&amp;$C19&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH9x15F_Quote</v>
       </c>
       <c r="E19" s="57" t="str">
@@ -5489,34 +5506,34 @@
       <c r="G19" s="17"/>
       <c r="I19" s="50"/>
       <c r="J19" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K19" s="121">
-        <f>B19</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L19" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M19" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH9X15F</v>
       </c>
       <c r="N19" s="244" t="str">
         <v>CNH9X15F=TRHK</v>
       </c>
       <c r="O19" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P19" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R19" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S19" s="118" t="e">
         <f>_xll.qlMidSafe(O19,P19)</f>
@@ -5544,11 +5561,11 @@
         <v>12</v>
       </c>
       <c r="C20" s="59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x18F</v>
       </c>
       <c r="D20" s="58" t="str">
-        <f>Currency&amp;$B20&amp;$C20&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH12x18F_Quote</v>
       </c>
       <c r="E20" s="57" t="str">
@@ -5562,34 +5579,34 @@
       <c r="G20" s="17"/>
       <c r="I20" s="50"/>
       <c r="J20" s="93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="K20" s="121">
-        <f>B20</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L20" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M20" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH12X18F</v>
       </c>
       <c r="N20" s="244" t="str">
         <v>CNH12X18F=TRHK</v>
       </c>
       <c r="O20" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P20" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R20" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S20" s="118" t="e">
         <f>_xll.qlMidSafe(O20,P20)</f>
@@ -5617,11 +5634,11 @@
         <v>18</v>
       </c>
       <c r="C21" s="51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>x24F</v>
       </c>
       <c r="D21" s="49" t="str">
-        <f>Currency&amp;$B21&amp;$C21&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH18x24F_Quote</v>
       </c>
       <c r="E21" s="48" t="str">
@@ -5635,34 +5652,34 @@
       <c r="G21" s="17"/>
       <c r="I21" s="50"/>
       <c r="J21" s="99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="K21" s="117">
-        <f>B21</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L21" s="117" t="s">
         <v>134</v>
       </c>
       <c r="M21" s="115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH18X24F</v>
       </c>
       <c r="N21" s="245" t="str">
         <v>CNH18X24F=TRHK</v>
       </c>
       <c r="O21" s="116" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P21" s="116" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="115" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R21" s="115" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S21" s="114" t="e">
         <f>_xll.qlMidSafe(O21,P21)</f>
@@ -5694,7 +5711,7 @@
         <v>x13F</v>
       </c>
       <c r="D22" s="54" t="str">
-        <f>Currency&amp;$B22&amp;$C22&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH1x13F_Quote</v>
       </c>
       <c r="E22" s="53" t="str">
@@ -5712,30 +5729,30 @@
         <v>13</v>
       </c>
       <c r="K22" s="125">
-        <f>B22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L22" s="125" t="s">
         <v>134</v>
       </c>
       <c r="M22" s="123" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH1X13F</v>
       </c>
       <c r="N22" s="246" t="str">
         <v>CNH1X13F=TRHK</v>
       </c>
       <c r="O22" s="124" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P22" s="124" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="123" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R22" s="123" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S22" s="122" t="e">
         <f>_xll.qlMidSafe(O22,P22)</f>
@@ -5761,11 +5778,11 @@
         <v>2</v>
       </c>
       <c r="C23" s="221" t="str">
-        <f t="shared" ref="C23:C33" si="4">"x"&amp;B23+12&amp;"F"</f>
+        <f t="shared" ref="C23:C33" si="6">"x"&amp;B23+12&amp;"F"</f>
         <v>x14F</v>
       </c>
       <c r="D23" s="58" t="str">
-        <f>Currency&amp;$B23&amp;$C23&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH2x14F_Quote</v>
       </c>
       <c r="E23" s="57" t="str">
@@ -5779,34 +5796,34 @@
       <c r="G23" s="17"/>
       <c r="I23" s="50"/>
       <c r="J23" s="93">
-        <f t="shared" ref="J23:J33" si="5">K23+12</f>
+        <f t="shared" ref="J23:J33" si="7">K23+12</f>
         <v>14</v>
       </c>
       <c r="K23" s="121">
-        <f>B23</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="L23" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M23" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH2X14F</v>
       </c>
       <c r="N23" s="244" t="str">
         <v>CNH2X14F=TRHK</v>
       </c>
       <c r="O23" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P23" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R23" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S23" s="118" t="e">
         <f>_xll.qlMidSafe(O23,P23)</f>
@@ -5832,11 +5849,11 @@
         <v>3</v>
       </c>
       <c r="C24" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x15F</v>
       </c>
       <c r="D24" s="58" t="str">
-        <f>Currency&amp;$B24&amp;$C24&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH3x15F_Quote</v>
       </c>
       <c r="E24" s="57" t="str">
@@ -5850,34 +5867,34 @@
       <c r="G24" s="17"/>
       <c r="I24" s="50"/>
       <c r="J24" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="K24" s="121">
-        <f>B24</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L24" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M24" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH3X15F</v>
       </c>
       <c r="N24" s="244" t="str">
         <v>CNH3X15F=TRHK</v>
       </c>
       <c r="O24" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P24" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R24" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S24" s="118" t="e">
         <f>_xll.qlMidSafe(O24,P24)</f>
@@ -5903,11 +5920,11 @@
         <v>4</v>
       </c>
       <c r="C25" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x16F</v>
       </c>
       <c r="D25" s="58" t="str">
-        <f>Currency&amp;$B25&amp;$C25&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH4x16F_Quote</v>
       </c>
       <c r="E25" s="57" t="str">
@@ -5921,34 +5938,34 @@
       <c r="G25" s="17"/>
       <c r="I25" s="50"/>
       <c r="J25" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="K25" s="121">
-        <f>B25</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L25" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M25" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH4X16F</v>
       </c>
       <c r="N25" s="244" t="str">
         <v>CNH4X16F=TRHK</v>
       </c>
       <c r="O25" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P25" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R25" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S25" s="118" t="e">
         <f>_xll.qlMidSafe(O25,P25)</f>
@@ -5974,11 +5991,11 @@
         <v>5</v>
       </c>
       <c r="C26" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x17F</v>
       </c>
       <c r="D26" s="58" t="str">
-        <f>Currency&amp;$B26&amp;$C26&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH5x17F_Quote</v>
       </c>
       <c r="E26" s="57" t="str">
@@ -5992,34 +6009,34 @@
       <c r="G26" s="17"/>
       <c r="I26" s="50"/>
       <c r="J26" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="K26" s="121">
-        <f>B26</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L26" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M26" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH5X17F</v>
       </c>
       <c r="N26" s="244" t="str">
         <v>CNH5X17F=TRHK</v>
       </c>
       <c r="O26" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P26" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R26" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S26" s="118" t="e">
         <f>_xll.qlMidSafe(O26,P26)</f>
@@ -6045,11 +6062,11 @@
         <v>6</v>
       </c>
       <c r="C27" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x18F</v>
       </c>
       <c r="D27" s="58" t="str">
-        <f>Currency&amp;$B27&amp;$C27&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH6x18F_Quote</v>
       </c>
       <c r="E27" s="57" t="str">
@@ -6063,34 +6080,34 @@
       <c r="G27" s="17"/>
       <c r="I27" s="50"/>
       <c r="J27" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="K27" s="121">
-        <f>B27</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L27" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M27" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH6X18F</v>
       </c>
       <c r="N27" s="244" t="str">
         <v>CNH6X18F=TRHK</v>
       </c>
       <c r="O27" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P27" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R27" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S27" s="118" t="e">
         <f>_xll.qlMidSafe(O27,P27)</f>
@@ -6116,11 +6133,11 @@
         <v>7</v>
       </c>
       <c r="C28" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x19F</v>
       </c>
       <c r="D28" s="58" t="str">
-        <f>Currency&amp;$B28&amp;$C28&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH7x19F_Quote</v>
       </c>
       <c r="E28" s="57" t="str">
@@ -6134,34 +6151,34 @@
       <c r="G28" s="17"/>
       <c r="I28" s="50"/>
       <c r="J28" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="K28" s="121">
-        <f>B28</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L28" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M28" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH7X19F</v>
       </c>
       <c r="N28" s="244" t="str">
         <v>CNH7X19F=TRHK</v>
       </c>
       <c r="O28" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P28" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R28" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S28" s="118" t="e">
         <f>_xll.qlMidSafe(O28,P28)</f>
@@ -6187,11 +6204,11 @@
         <v>8</v>
       </c>
       <c r="C29" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x20F</v>
       </c>
       <c r="D29" s="58" t="str">
-        <f>Currency&amp;$B29&amp;$C29&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH8x20F_Quote</v>
       </c>
       <c r="E29" s="57" t="str">
@@ -6205,34 +6222,34 @@
       <c r="G29" s="17"/>
       <c r="I29" s="50"/>
       <c r="J29" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="K29" s="121">
-        <f>B29</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L29" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M29" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH8X20F</v>
       </c>
       <c r="N29" s="244" t="str">
         <v>CNH8X20F=TRHK</v>
       </c>
       <c r="O29" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P29" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R29" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S29" s="118" t="e">
         <f>_xll.qlMidSafe(O29,P29)</f>
@@ -6258,11 +6275,11 @@
         <v>9</v>
       </c>
       <c r="C30" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x21F</v>
       </c>
       <c r="D30" s="58" t="str">
-        <f>Currency&amp;$B30&amp;$C30&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH9x21F_Quote</v>
       </c>
       <c r="E30" s="57" t="str">
@@ -6276,34 +6293,34 @@
       <c r="G30" s="17"/>
       <c r="I30" s="50"/>
       <c r="J30" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="K30" s="121">
-        <f>B30</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="L30" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M30" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH9X21F</v>
       </c>
       <c r="N30" s="244" t="str">
         <v>CNH9X21F=TRHK</v>
       </c>
       <c r="O30" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P30" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R30" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S30" s="118" t="e">
         <f>_xll.qlMidSafe(O30,P30)</f>
@@ -6329,11 +6346,11 @@
         <v>10</v>
       </c>
       <c r="C31" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x22F</v>
       </c>
       <c r="D31" s="58" t="str">
-        <f>Currency&amp;$B31&amp;$C31&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH10x22F_Quote</v>
       </c>
       <c r="E31" s="57" t="str">
@@ -6347,34 +6364,34 @@
       <c r="G31" s="17"/>
       <c r="I31" s="50"/>
       <c r="J31" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="K31" s="121">
-        <f>B31</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L31" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M31" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH10X22F</v>
       </c>
       <c r="N31" s="244" t="str">
         <v>CNH10X22F=TRHK</v>
       </c>
       <c r="O31" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P31" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R31" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S31" s="118" t="e">
         <f>_xll.qlMidSafe(O31,P31)</f>
@@ -6400,11 +6417,11 @@
         <v>11</v>
       </c>
       <c r="C32" s="221" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x23F</v>
       </c>
       <c r="D32" s="58" t="str">
-        <f>Currency&amp;$B32&amp;$C32&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH11x23F_Quote</v>
       </c>
       <c r="E32" s="57" t="str">
@@ -6418,34 +6435,34 @@
       <c r="G32" s="17"/>
       <c r="I32" s="50"/>
       <c r="J32" s="93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="K32" s="121">
-        <f>B32</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L32" s="121" t="s">
         <v>134</v>
       </c>
       <c r="M32" s="119" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH11X23F</v>
       </c>
       <c r="N32" s="244" t="str">
         <v>CNH11X23F=TRHK</v>
       </c>
       <c r="O32" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P32" s="120" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R32" s="119" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S32" s="118" t="e">
         <f>_xll.qlMidSafe(O32,P32)</f>
@@ -6471,11 +6488,11 @@
         <v>12</v>
       </c>
       <c r="C33" s="222" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>x24F</v>
       </c>
       <c r="D33" s="49" t="str">
-        <f>Currency&amp;$B33&amp;$C33&amp;QuoteSuffix</f>
+        <f t="shared" si="0"/>
         <v>CNH12x24F_Quote</v>
       </c>
       <c r="E33" s="48" t="str">
@@ -6489,34 +6506,34 @@
       <c r="G33" s="17"/>
       <c r="I33" s="50"/>
       <c r="J33" s="99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="K33" s="117">
-        <f>B33</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L33" s="117" t="s">
         <v>134</v>
       </c>
       <c r="M33" s="115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>CNH12X24F</v>
       </c>
       <c r="N33" s="245" t="str">
         <v>CNH12X24F=TRHK</v>
       </c>
       <c r="O33" s="116" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="P33" s="116" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="115" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R33" s="115" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S33" s="114" t="e">
         <f>_xll.qlMidSafe(O33,P33)</f>
@@ -6681,7 +6698,7 @@
       <c r="X3" s="65"/>
       <c r="Y3" s="110">
         <f>_xll.ohTrigger(Y5:Y24)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="82"/>
     </row>
@@ -6710,7 +6727,7 @@
       <c r="N4" s="63"/>
       <c r="O4" s="136" t="str">
         <f>_xll.RData(O5:O58,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
       </c>
       <c r="P4" s="134" t="s">
         <v>116</v>
@@ -6755,7 +6772,7 @@
       </c>
       <c r="F5" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOISSW_Quote#0001</v>
+        <v>CNHOISSW_Quote#0004</v>
       </c>
       <c r="G5" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -6779,16 +6796,16 @@
         <v>CNHSWOIS=TRHK</v>
       </c>
       <c r="P5" s="101" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="101" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R5" s="101" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S5" s="101" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T5" s="103" t="e">
         <f>_xll.qlMidEquivalent($P5,$Q5,$R5,$S5)</f>
@@ -6824,7 +6841,7 @@
       </c>
       <c r="F6" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS2W_Quote#0001</v>
+        <v>CNHOIS2W_Quote#0004</v>
       </c>
       <c r="G6" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -6847,16 +6864,16 @@
         <v>CNH2WOIS=TRHK</v>
       </c>
       <c r="P6" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R6" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T6" s="91" t="e">
         <f>_xll.qlMidEquivalent($P6,$Q6,$R6,$S6)</f>
@@ -6891,7 +6908,7 @@
       </c>
       <c r="F7" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS3W_Quote#0001</v>
+        <v>CNHOIS3W_Quote#0004</v>
       </c>
       <c r="G7" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -6914,16 +6931,16 @@
         <v>CNH3WOIS=TRHK</v>
       </c>
       <c r="P7" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R7" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S7" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T7" s="91" t="e">
         <f>_xll.qlMidEquivalent($P7,$Q7,$R7,$S7)</f>
@@ -6958,7 +6975,7 @@
       </c>
       <c r="F8" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS1M_Quote#0001</v>
+        <v>CNHOIS1M_Quote#0004</v>
       </c>
       <c r="G8" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -6980,21 +6997,21 @@
       <c r="O8" s="119" t="str">
         <v>CNH1MOIS=TRHK</v>
       </c>
-      <c r="P8" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q8" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T8" s="91" t="e">
+      <c r="P8" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="Q8" s="88">
+        <v>0.65</v>
+      </c>
+      <c r="R8" s="88">
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <v>0</v>
+      </c>
+      <c r="T8" s="91">
         <f>_xll.qlMidEquivalent($P8,$Q8,$R8,$S8)</f>
-        <v>#NUM!</v>
+        <v>0.5</v>
       </c>
       <c r="U8" s="89"/>
       <c r="V8" s="90">
@@ -7025,7 +7042,7 @@
       </c>
       <c r="F9" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS2M_Quote#0001</v>
+        <v>CNHOIS2M_Quote#0004</v>
       </c>
       <c r="G9" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -7047,21 +7064,21 @@
       <c r="O9" s="119" t="str">
         <v>CNH2MOIS=TRHK</v>
       </c>
-      <c r="P9" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S9" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="91" t="e">
+      <c r="P9" s="88">
+        <v>0.35</v>
+      </c>
+      <c r="Q9" s="88">
+        <v>0.65</v>
+      </c>
+      <c r="R9" s="88">
+        <v>0</v>
+      </c>
+      <c r="S9" s="88">
+        <v>0</v>
+      </c>
+      <c r="T9" s="91">
         <f>_xll.qlMidEquivalent($P9,$Q9,$R9,$S9)</f>
-        <v>#NUM!</v>
+        <v>0.5</v>
       </c>
       <c r="U9" s="89"/>
       <c r="V9" s="90">
@@ -7092,7 +7109,7 @@
       </c>
       <c r="F10" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS3M_Quote#0001</v>
+        <v>CNHOIS3M_Quote#0004</v>
       </c>
       <c r="G10" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -7114,21 +7131,21 @@
       <c r="O10" s="119" t="str">
         <v>CNH3MOIS=TRHK</v>
       </c>
-      <c r="P10" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R10" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10" s="91" t="e">
+      <c r="P10" s="88">
+        <v>0.33</v>
+      </c>
+      <c r="Q10" s="88">
+        <v>0.63</v>
+      </c>
+      <c r="R10" s="88">
+        <v>0</v>
+      </c>
+      <c r="S10" s="88">
+        <v>0</v>
+      </c>
+      <c r="T10" s="91">
         <f>_xll.qlMidEquivalent($P10,$Q10,$R10,$S10)</f>
-        <v>#NUM!</v>
+        <v>0.48</v>
       </c>
       <c r="U10" s="89"/>
       <c r="V10" s="90">
@@ -7159,7 +7176,7 @@
       </c>
       <c r="F11" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS4M_Quote#0001</v>
+        <v>CNHOIS4M_Quote#0004</v>
       </c>
       <c r="G11" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -7182,16 +7199,16 @@
         <v>CNH4MOIS=TRHK</v>
       </c>
       <c r="P11" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R11" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S11" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T11" s="91" t="e">
         <f>_xll.qlMidEquivalent($P11,$Q11,$R11,$S11)</f>
@@ -7226,7 +7243,7 @@
       </c>
       <c r="F12" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS5M_Quote#0001</v>
+        <v>CNHOIS5M_Quote#0004</v>
       </c>
       <c r="G12" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -7249,16 +7266,16 @@
         <v>CNH5MOIS=TRHK</v>
       </c>
       <c r="P12" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R12" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S12" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T12" s="91" t="e">
         <f>_xll.qlMidEquivalent($P12,$Q12,$R12,$S12)</f>
@@ -7293,7 +7310,7 @@
       </c>
       <c r="F13" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS6M_Quote#0001</v>
+        <v>CNHOIS6M_Quote#0004</v>
       </c>
       <c r="G13" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -7315,17 +7332,17 @@
       <c r="O13" s="119" t="str">
         <v>CNH6MOIS=TRHK</v>
       </c>
-      <c r="P13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="88" t="s">
-        <v>184</v>
+      <c r="P13" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>0</v>
+      </c>
+      <c r="R13" s="88">
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <v>0</v>
       </c>
       <c r="T13" s="91" t="e">
         <f>_xll.qlMidEquivalent($P13,$Q13,$R13,$S13)</f>
@@ -7360,7 +7377,7 @@
       </c>
       <c r="F14" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS7M_Quote#0001</v>
+        <v>CNHOIS7M_Quote#0004</v>
       </c>
       <c r="G14" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -7383,16 +7400,16 @@
         <v>CNH7MOIS=TRHK</v>
       </c>
       <c r="P14" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R14" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S14" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T14" s="91" t="e">
         <f>_xll.qlMidEquivalent($P14,$Q14,$R14,$S14)</f>
@@ -7427,7 +7444,7 @@
       </c>
       <c r="F15" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS8M_Quote#0001</v>
+        <v>CNHOIS8M_Quote#0004</v>
       </c>
       <c r="G15" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -7450,16 +7467,16 @@
         <v>CNH8MOIS=TRHK</v>
       </c>
       <c r="P15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T15" s="91" t="e">
         <f>_xll.qlMidEquivalent($P15,$Q15,$R15,$S15)</f>
@@ -7494,7 +7511,7 @@
       </c>
       <c r="F16" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS9M_Quote#0001</v>
+        <v>CNHOIS9M_Quote#0004</v>
       </c>
       <c r="G16" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -7516,17 +7533,17 @@
       <c r="O16" s="119" t="str">
         <v>CNH9MOIS=TRHK</v>
       </c>
-      <c r="P16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="88" t="s">
-        <v>184</v>
+      <c r="P16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>0</v>
+      </c>
+      <c r="R16" s="88">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
       </c>
       <c r="T16" s="91" t="e">
         <f>_xll.qlMidEquivalent($P16,$Q16,$R16,$S16)</f>
@@ -7561,7 +7578,7 @@
       </c>
       <c r="F17" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS10M_Quote#0001</v>
+        <v>CNHOIS10M_Quote#0004</v>
       </c>
       <c r="G17" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -7584,16 +7601,16 @@
         <v>CNH10MOIS=TRHK</v>
       </c>
       <c r="P17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T17" s="91" t="e">
         <f>_xll.qlMidEquivalent($P17,$Q17,$R17,$S17)</f>
@@ -7629,7 +7646,7 @@
       </c>
       <c r="F18" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS11M_Quote#0001</v>
+        <v>CNHOIS11M_Quote#0004</v>
       </c>
       <c r="G18" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -7652,16 +7669,16 @@
         <v>CNH11MOIS=TRHK</v>
       </c>
       <c r="P18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T18" s="91" t="e">
         <f>_xll.qlMidEquivalent($P18,$Q18,$R18,$S18)</f>
@@ -7696,7 +7713,7 @@
       </c>
       <c r="F19" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS1Y_Quote#0001</v>
+        <v>CNHOIS1Y_Quote#0004</v>
       </c>
       <c r="G19" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -7718,17 +7735,17 @@
       <c r="O19" s="119" t="str">
         <v>CNH1YOIS=TRHK</v>
       </c>
-      <c r="P19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="88" t="s">
-        <v>184</v>
+      <c r="P19" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="88">
+        <v>0</v>
+      </c>
+      <c r="R19" s="88">
+        <v>0</v>
+      </c>
+      <c r="S19" s="88">
+        <v>0</v>
       </c>
       <c r="T19" s="91" t="e">
         <f>_xll.qlMidEquivalent($P19,$Q19,$R19,$S19)</f>
@@ -7763,7 +7780,7 @@
       </c>
       <c r="F20" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS13M_Quote#0001</v>
+        <v>CNHOIS13M_Quote#0004</v>
       </c>
       <c r="G20" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -7786,16 +7803,16 @@
         <v>CNH13MOIS=TRHK</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T20" s="91" t="e">
         <f>_xll.qlMidEquivalent($P20,$Q20,$R20,$S20)</f>
@@ -7830,7 +7847,7 @@
       </c>
       <c r="F21" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS14M_Quote#0001</v>
+        <v>CNHOIS14M_Quote#0004</v>
       </c>
       <c r="G21" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -7853,16 +7870,16 @@
         <v>CNH14MOIS=TRHK</v>
       </c>
       <c r="P21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T21" s="91" t="e">
         <f>_xll.qlMidEquivalent($P21,$Q21,$R21,$S21)</f>
@@ -7897,7 +7914,7 @@
       </c>
       <c r="F22" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS15M_Quote#0001</v>
+        <v>CNHOIS15M_Quote#0004</v>
       </c>
       <c r="G22" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -7920,16 +7937,16 @@
         <v>CNH15MOIS=TRHK</v>
       </c>
       <c r="P22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T22" s="91" t="e">
         <f>_xll.qlMidEquivalent($P22,$Q22,$R22,$S22)</f>
@@ -7964,7 +7981,7 @@
       </c>
       <c r="F23" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS16M_Quote#0001</v>
+        <v>CNHOIS16M_Quote#0004</v>
       </c>
       <c r="G23" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -7987,16 +8004,16 @@
         <v>CNH16MOIS=TRHK</v>
       </c>
       <c r="P23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T23" s="91" t="e">
         <f>_xll.qlMidEquivalent($P23,$Q23,$R23,$S23)</f>
@@ -8031,7 +8048,7 @@
       </c>
       <c r="F24" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS17M_Quote#0001</v>
+        <v>CNHOIS17M_Quote#0004</v>
       </c>
       <c r="G24" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -8054,16 +8071,16 @@
         <v>CNH17MOIS=TRHK</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T24" s="91" t="e">
         <f>_xll.qlMidEquivalent($P24,$Q24,$R24,$S24)</f>
@@ -8098,7 +8115,7 @@
       </c>
       <c r="F25" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS18M_Quote#0001</v>
+        <v>CNHOIS18M_Quote#0004</v>
       </c>
       <c r="G25" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -8121,16 +8138,16 @@
         <v>CNH18MOIS=TRHK</v>
       </c>
       <c r="P25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T25" s="91" t="e">
         <f>_xll.qlMidEquivalent($P25,$Q25,$R25,$S25)</f>
@@ -8165,7 +8182,7 @@
       </c>
       <c r="F26" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS19M_Quote#0001</v>
+        <v>CNHOIS19M_Quote#0004</v>
       </c>
       <c r="G26" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -8188,16 +8205,16 @@
         <v>CNH19MOIS=TRHK</v>
       </c>
       <c r="P26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T26" s="91" t="e">
         <f>_xll.qlMidEquivalent($P26,$Q26,$R26,$S26)</f>
@@ -8232,7 +8249,7 @@
       </c>
       <c r="F27" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS20M_Quote#0001</v>
+        <v>CNHOIS20M_Quote#0004</v>
       </c>
       <c r="G27" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -8255,16 +8272,16 @@
         <v>CNH20MOIS=TRHK</v>
       </c>
       <c r="P27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T27" s="91" t="e">
         <f>_xll.qlMidEquivalent($P27,$Q27,$R27,$S27)</f>
@@ -8299,7 +8316,7 @@
       </c>
       <c r="F28" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS21M_Quote#0001</v>
+        <v>CNHOIS21M_Quote#0004</v>
       </c>
       <c r="G28" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -8322,16 +8339,16 @@
         <v>CNH21MOIS=TRHK</v>
       </c>
       <c r="P28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T28" s="91" t="e">
         <f>_xll.qlMidEquivalent($P28,$Q28,$R28,$S28)</f>
@@ -8366,7 +8383,7 @@
       </c>
       <c r="F29" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS22M_Quote#0001</v>
+        <v>CNHOIS22M_Quote#0004</v>
       </c>
       <c r="G29" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -8389,16 +8406,16 @@
         <v>CNH22MOIS=TRHK</v>
       </c>
       <c r="P29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T29" s="91" t="e">
         <f>_xll.qlMidEquivalent($P29,$Q29,$R29,$S29)</f>
@@ -8433,7 +8450,7 @@
       </c>
       <c r="F30" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS23M_Quote#0001</v>
+        <v>CNHOIS23M_Quote#0004</v>
       </c>
       <c r="G30" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -8456,16 +8473,16 @@
         <v>CNH23MOIS=TRHK</v>
       </c>
       <c r="P30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T30" s="91" t="e">
         <f>_xll.qlMidEquivalent($P30,$Q30,$R30,$S30)</f>
@@ -8500,7 +8517,7 @@
       </c>
       <c r="F31" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS2Y_Quote#0001</v>
+        <v>CNHOIS2Y_Quote#0004</v>
       </c>
       <c r="G31" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -8523,16 +8540,16 @@
         <v>CNH2YOIS=TRHK</v>
       </c>
       <c r="P31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T31" s="91" t="e">
         <f>_xll.qlMidEquivalent($P31,$Q31,$R31,$S31)</f>
@@ -8567,7 +8584,7 @@
       </c>
       <c r="F32" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS27M_Quote#0001</v>
+        <v>CNHOIS27M_Quote#0004</v>
       </c>
       <c r="G32" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -8590,16 +8607,16 @@
         <v>CNH27MOIS=TRHK</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T32" s="91" t="e">
         <f>_xll.qlMidEquivalent($P32,$Q32,$R32,$S32)</f>
@@ -8634,7 +8651,7 @@
       </c>
       <c r="F33" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS30M_Quote#0001</v>
+        <v>CNHOIS30M_Quote#0004</v>
       </c>
       <c r="G33" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -8657,16 +8674,16 @@
         <v>CNH30MOIS=TRHK</v>
       </c>
       <c r="P33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T33" s="91" t="e">
         <f>_xll.qlMidEquivalent($P33,$Q33,$R33,$S33)</f>
@@ -8701,7 +8718,7 @@
       </c>
       <c r="F34" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS33M_Quote#0001</v>
+        <v>CNHOIS33M_Quote#0004</v>
       </c>
       <c r="G34" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -8724,16 +8741,16 @@
         <v>CNH33MOIS=TRHK</v>
       </c>
       <c r="P34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T34" s="91" t="e">
         <f>_xll.qlMidEquivalent($P34,$Q34,$R34,$S34)</f>
@@ -8768,7 +8785,7 @@
       </c>
       <c r="F35" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS3Y_Quote#0001</v>
+        <v>CNHOIS3Y_Quote#0004</v>
       </c>
       <c r="G35" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -8791,16 +8808,16 @@
         <v>CNH3YOIS=TRHK</v>
       </c>
       <c r="P35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T35" s="91" t="e">
         <f>_xll.qlMidEquivalent($P35,$Q35,$R35,$S35)</f>
@@ -8835,7 +8852,7 @@
       </c>
       <c r="F36" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS39M_Quote#0001</v>
+        <v>CNHOIS39M_Quote#0004</v>
       </c>
       <c r="G36" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -8858,16 +8875,16 @@
         <v>CNH39MOIS=TRHK</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T36" s="91" t="e">
         <f>_xll.qlMidEquivalent($P36,$Q36,$R36,$S36)</f>
@@ -8902,7 +8919,7 @@
       </c>
       <c r="F37" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS42M_Quote#0001</v>
+        <v>CNHOIS42M_Quote#0004</v>
       </c>
       <c r="G37" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -8925,16 +8942,16 @@
         <v>CNH42MOIS=TRHK</v>
       </c>
       <c r="P37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T37" s="91" t="e">
         <f>_xll.qlMidEquivalent($P37,$Q37,$R37,$S37)</f>
@@ -8969,7 +8986,7 @@
       </c>
       <c r="F38" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS45M_Quote#0001</v>
+        <v>CNHOIS45M_Quote#0004</v>
       </c>
       <c r="G38" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -8992,16 +9009,16 @@
         <v>CNH45MOIS=TRHK</v>
       </c>
       <c r="P38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T38" s="91" t="e">
         <f>_xll.qlMidEquivalent($P38,$Q38,$R38,$S38)</f>
@@ -9036,7 +9053,7 @@
       </c>
       <c r="F39" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS4Y_Quote#0001</v>
+        <v>CNHOIS4Y_Quote#0004</v>
       </c>
       <c r="G39" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -9059,16 +9076,16 @@
         <v>CNH4YOIS=TRHK</v>
       </c>
       <c r="P39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T39" s="91" t="e">
         <f>_xll.qlMidEquivalent($P39,$Q39,$R39,$S39)</f>
@@ -9103,7 +9120,7 @@
       </c>
       <c r="F40" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS51M_Quote#0001</v>
+        <v>CNHOIS51M_Quote#0004</v>
       </c>
       <c r="G40" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -9126,16 +9143,16 @@
         <v>CNH51MOIS=TRHK</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T40" s="91" t="e">
         <f>_xll.qlMidEquivalent($P40,$Q40,$R40,$S40)</f>
@@ -9170,7 +9187,7 @@
       </c>
       <c r="F41" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS54M_Quote#0001</v>
+        <v>CNHOIS54M_Quote#0004</v>
       </c>
       <c r="G41" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -9193,16 +9210,16 @@
         <v>CNH54MOIS=TRHK</v>
       </c>
       <c r="P41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T41" s="91" t="e">
         <f>_xll.qlMidEquivalent($P41,$Q41,$R41,$S41)</f>
@@ -9237,7 +9254,7 @@
       </c>
       <c r="F42" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS57M_Quote#0001</v>
+        <v>CNHOIS57M_Quote#0004</v>
       </c>
       <c r="G42" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -9260,16 +9277,16 @@
         <v>CNH57MOIS=TRHK</v>
       </c>
       <c r="P42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T42" s="91" t="e">
         <f>_xll.qlMidEquivalent($P42,$Q42,$R42,$S42)</f>
@@ -9304,7 +9321,7 @@
       </c>
       <c r="F43" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS5Y_Quote#0001</v>
+        <v>CNHOIS5Y_Quote#0004</v>
       </c>
       <c r="G43" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -9327,16 +9344,16 @@
         <v>CNH5YOIS=TRHK</v>
       </c>
       <c r="P43" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q43" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R43" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S43" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T43" s="91" t="e">
         <f>_xll.qlMidEquivalent($P43,$Q43,$R43,$S43)</f>
@@ -9371,7 +9388,7 @@
       </c>
       <c r="F44" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS6Y_Quote#0001</v>
+        <v>CNHOIS6Y_Quote#0004</v>
       </c>
       <c r="G44" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -9394,16 +9411,16 @@
         <v>CNH6YOIS=TRHK</v>
       </c>
       <c r="P44" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q44" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R44" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S44" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T44" s="91" t="e">
         <f>_xll.qlMidEquivalent($P44,$Q44,$R44,$S44)</f>
@@ -9438,7 +9455,7 @@
       </c>
       <c r="F45" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS7Y_Quote#0001</v>
+        <v>CNHOIS7Y_Quote#0004</v>
       </c>
       <c r="G45" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -9461,16 +9478,16 @@
         <v>CNH7YOIS=TRHK</v>
       </c>
       <c r="P45" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q45" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R45" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S45" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T45" s="91" t="e">
         <f>_xll.qlMidEquivalent($P45,$Q45,$R45,$S45)</f>
@@ -9505,7 +9522,7 @@
       </c>
       <c r="F46" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS8Y_Quote#0001</v>
+        <v>CNHOIS8Y_Quote#0004</v>
       </c>
       <c r="G46" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -9528,16 +9545,16 @@
         <v>CNH8YOIS=TRHK</v>
       </c>
       <c r="P46" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q46" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R46" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S46" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T46" s="91" t="e">
         <f>_xll.qlMidEquivalent($P46,$Q46,$R46,$S46)</f>
@@ -9572,7 +9589,7 @@
       </c>
       <c r="F47" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS9Y_Quote#0001</v>
+        <v>CNHOIS9Y_Quote#0004</v>
       </c>
       <c r="G47" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -9595,16 +9612,16 @@
         <v>CNH9YOIS=TRHK</v>
       </c>
       <c r="P47" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q47" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R47" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S47" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T47" s="91" t="e">
         <f>_xll.qlMidEquivalent($P47,$Q47,$R47,$S47)</f>
@@ -9639,7 +9656,7 @@
       </c>
       <c r="F48" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS10Y_Quote#0001</v>
+        <v>CNHOIS10Y_Quote#0004</v>
       </c>
       <c r="G48" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -9662,16 +9679,16 @@
         <v>CNH10YOIS=TRHK</v>
       </c>
       <c r="P48" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q48" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R48" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S48" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T48" s="91" t="e">
         <f>_xll.qlMidEquivalent($P48,$Q48,$R48,$S48)</f>
@@ -9706,7 +9723,7 @@
       </c>
       <c r="F49" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS12Y_Quote#0001</v>
+        <v>CNHOIS12Y_Quote#0004</v>
       </c>
       <c r="G49" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -9729,16 +9746,16 @@
         <v>CNH12YOIS=TRHK</v>
       </c>
       <c r="P49" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q49" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R49" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S49" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T49" s="91" t="e">
         <f>_xll.qlMidEquivalent($P49,$Q49,$R49,$S49)</f>
@@ -9773,7 +9790,7 @@
       </c>
       <c r="F50" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS15Y_Quote#0001</v>
+        <v>CNHOIS15Y_Quote#0004</v>
       </c>
       <c r="G50" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -9796,16 +9813,16 @@
         <v>CNH15YOIS=TRHK</v>
       </c>
       <c r="P50" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q50" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R50" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S50" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T50" s="91" t="e">
         <f>_xll.qlMidEquivalent($P50,$Q50,$R50,$S50)</f>
@@ -9840,7 +9857,7 @@
       </c>
       <c r="F51" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS20Y_Quote#0001</v>
+        <v>CNHOIS20Y_Quote#0004</v>
       </c>
       <c r="G51" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -9863,16 +9880,16 @@
         <v>CNH20YOIS=TRHK</v>
       </c>
       <c r="P51" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q51" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R51" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S51" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T51" s="91" t="e">
         <f>_xll.qlMidEquivalent($P51,$Q51,$R51,$S51)</f>
@@ -9907,7 +9924,7 @@
       </c>
       <c r="F52" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS25Y_Quote#0001</v>
+        <v>CNHOIS25Y_Quote#0004</v>
       </c>
       <c r="G52" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -9930,16 +9947,16 @@
         <v>CNH25YOIS=TRHK</v>
       </c>
       <c r="P52" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q52" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R52" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S52" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T52" s="91" t="e">
         <f>_xll.qlMidEquivalent($P52,$Q52,$R52,$S52)</f>
@@ -9974,7 +9991,7 @@
       </c>
       <c r="F53" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS27Y_Quote#0001</v>
+        <v>CNHOIS27Y_Quote#0004</v>
       </c>
       <c r="G53" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -9997,16 +10014,16 @@
         <v>CNH27YOIS=TRHK</v>
       </c>
       <c r="P53" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q53" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R53" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S53" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T53" s="91" t="e">
         <f>_xll.qlMidEquivalent($P53,$Q53,$R53,$S53)</f>
@@ -10041,7 +10058,7 @@
       </c>
       <c r="F54" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS30Y_Quote#0001</v>
+        <v>CNHOIS30Y_Quote#0004</v>
       </c>
       <c r="G54" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -10064,16 +10081,16 @@
         <v>CNH30YOIS=TRHK</v>
       </c>
       <c r="P54" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q54" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R54" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S54" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T54" s="91" t="e">
         <f>_xll.qlMidEquivalent($P54,$Q54,$R54,$S54)</f>
@@ -10108,7 +10125,7 @@
       </c>
       <c r="F55" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS35Y_Quote#0001</v>
+        <v>CNHOIS35Y_Quote#0004</v>
       </c>
       <c r="G55" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -10131,16 +10148,16 @@
         <v>CNH35YOIS=TRHK</v>
       </c>
       <c r="P55" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q55" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R55" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S55" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T55" s="91" t="e">
         <f>_xll.qlMidEquivalent($P55,$Q55,$R55,$S55)</f>
@@ -10175,7 +10192,7 @@
       </c>
       <c r="F56" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS40Y_Quote#0001</v>
+        <v>CNHOIS40Y_Quote#0004</v>
       </c>
       <c r="G56" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -10198,16 +10215,16 @@
         <v>CNH40YOIS=TRHK</v>
       </c>
       <c r="P56" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q56" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R56" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S56" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T56" s="91" t="e">
         <f>_xll.qlMidEquivalent($P56,$Q56,$R56,$S56)</f>
@@ -10242,7 +10259,7 @@
       </c>
       <c r="F57" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B57&amp;$C57&amp;$D57&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS45Y_Quote#0001</v>
+        <v>CNHOIS45Y_Quote#0004</v>
       </c>
       <c r="G57" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F57)</f>
@@ -10265,16 +10282,16 @@
         <v>CNH45YOIS=TRHK</v>
       </c>
       <c r="P57" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q57" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R57" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S57" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T57" s="91" t="e">
         <f>_xll.qlMidEquivalent($P57,$Q57,$R57,$S57)</f>
@@ -10309,7 +10326,7 @@
       </c>
       <c r="F58" s="83" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHOIS50Y_Quote#0001</v>
+        <v>CNHOIS50Y_Quote#0004</v>
       </c>
       <c r="G58" s="18" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -10332,16 +10349,16 @@
         <v>CNH50YOIS=TRHK</v>
       </c>
       <c r="P58" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q58" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R58" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S58" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T58" s="98" t="e">
         <f>_xll.qlMidEquivalent($P58,$Q58,$R58,$S58)</f>
@@ -10520,7 +10537,7 @@
       <c r="X3" s="65"/>
       <c r="Y3" s="110">
         <f>_xll.ohTrigger(Y5:Y43)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Z3" s="82"/>
       <c r="AA3" s="11"/>
@@ -10552,7 +10569,7 @@
       <c r="N4" s="72"/>
       <c r="O4" s="85" t="str">
         <f>_xll.RData(O5:O43,P4:S4,"RTFEED:IDN",ReutersRtMode,,P5)</f>
-        <v>Updated at 14:20:39</v>
+        <v>Updated at 18:07:16</v>
       </c>
       <c r="P4" s="127" t="s">
         <v>116</v>
@@ -10600,7 +10617,7 @@
       </c>
       <c r="F5" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H6M_Quote#0001</v>
+        <v>CNHQM3H6M_Quote#0004</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="17"/>
@@ -10622,21 +10639,21 @@
         <f t="array" ref="O5:O43">Instruments&amp;"="&amp;VLOOKUP(Contributor,ContributorTable,2,FALSE)</f>
         <v>CNHQM3H6M=TRHK</v>
       </c>
-      <c r="P5" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R5" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S5" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T5" s="91" t="e">
+      <c r="P5" s="88">
+        <v>2.9</v>
+      </c>
+      <c r="Q5" s="88">
+        <v>3.1</v>
+      </c>
+      <c r="R5" s="88">
+        <v>0</v>
+      </c>
+      <c r="S5" s="88">
+        <v>0</v>
+      </c>
+      <c r="T5" s="91">
         <f>_xll.qlMidSafe($P5,$Q5)</f>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="U5" s="89"/>
       <c r="V5" s="90">
@@ -10671,7 +10688,7 @@
       </c>
       <c r="F6" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H9M_Quote#0001</v>
+        <v>CNHQM3H9M_Quote#0004</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="17"/>
@@ -10692,21 +10709,21 @@
       <c r="O6" s="119" t="str">
         <v>CNHQM3H9M=TRHK</v>
       </c>
-      <c r="P6" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q6" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S6" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T6" s="91" t="e">
+      <c r="P6" s="88">
+        <v>2.9</v>
+      </c>
+      <c r="Q6" s="88">
+        <v>3.1</v>
+      </c>
+      <c r="R6" s="88">
+        <v>0</v>
+      </c>
+      <c r="S6" s="88">
+        <v>0</v>
+      </c>
+      <c r="T6" s="91">
         <f>_xll.qlMidSafe($P6,$Q6)</f>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="U6" s="89"/>
       <c r="V6" s="90">
@@ -10740,7 +10757,7 @@
       </c>
       <c r="F7" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H1Y_Quote#0001</v>
+        <v>CNHQM3H1Y_Quote#0004</v>
       </c>
       <c r="G7" s="13" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -10764,21 +10781,21 @@
       <c r="O7" s="119" t="str">
         <v>CNHQM3H1Y=TRHK</v>
       </c>
-      <c r="P7" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R7" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S7" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7" s="91" t="e">
+      <c r="P7" s="88">
+        <v>3.05</v>
+      </c>
+      <c r="Q7" s="88">
+        <v>3.15</v>
+      </c>
+      <c r="R7" s="88">
+        <v>0</v>
+      </c>
+      <c r="S7" s="88">
+        <v>0</v>
+      </c>
+      <c r="T7" s="91">
         <f>_xll.qlMidSafe($P7,$Q7)</f>
-        <v>#NUM!</v>
+        <v>3.0999999999999996</v>
       </c>
       <c r="U7" s="89"/>
       <c r="V7" s="90">
@@ -10812,7 +10829,7 @@
       </c>
       <c r="F8" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H15M_Quote#0001</v>
+        <v>CNHQM3H15M_Quote#0004</v>
       </c>
       <c r="G8" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -10837,16 +10854,16 @@
         <v>CNHQM3H15M=TRHK</v>
       </c>
       <c r="P8" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R8" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S8" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T8" s="91" t="e">
         <f>_xll.qlMidSafe($P8,$Q8)</f>
@@ -10884,7 +10901,7 @@
       </c>
       <c r="F9" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H18M_Quote#0001</v>
+        <v>CNHQM3H18M_Quote#0004</v>
       </c>
       <c r="G9" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -10909,16 +10926,16 @@
         <v>CNHQM3H18M=TRHK</v>
       </c>
       <c r="P9" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q9" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R9" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S9" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T9" s="91" t="e">
         <f>_xll.qlMidSafe($P9,$Q9)</f>
@@ -10956,7 +10973,7 @@
       </c>
       <c r="F10" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H21M_Quote#0001</v>
+        <v>CNHQM3H21M_Quote#0004</v>
       </c>
       <c r="G10" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -10981,16 +10998,16 @@
         <v>CNHQM3H21M=TRHK</v>
       </c>
       <c r="P10" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R10" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S10" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T10" s="91" t="e">
         <f>_xll.qlMidSafe($P10,$Q10)</f>
@@ -11028,7 +11045,7 @@
       </c>
       <c r="F11" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H2Y_Quote#0001</v>
+        <v>CNHQM3H2Y_Quote#0004</v>
       </c>
       <c r="G11" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -11052,21 +11069,21 @@
       <c r="O11" s="119" t="str">
         <v>CNHQM3H2Y=TRHK</v>
       </c>
-      <c r="P11" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q11" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="91" t="e">
+      <c r="P11" s="88">
+        <v>3.1</v>
+      </c>
+      <c r="Q11" s="88">
+        <v>3.18</v>
+      </c>
+      <c r="R11" s="88">
+        <v>0</v>
+      </c>
+      <c r="S11" s="88">
+        <v>0</v>
+      </c>
+      <c r="T11" s="91">
         <f>_xll.qlMidSafe($P11,$Q11)</f>
-        <v>#NUM!</v>
+        <v>3.14</v>
       </c>
       <c r="U11" s="89"/>
       <c r="V11" s="90">
@@ -11100,7 +11117,7 @@
       </c>
       <c r="F12" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H3Y_Quote#0001</v>
+        <v>CNHQM3H3Y_Quote#0004</v>
       </c>
       <c r="G12" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -11124,21 +11141,21 @@
       <c r="O12" s="119" t="str">
         <v>CNHQM3H3Y=TRHK</v>
       </c>
-      <c r="P12" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R12" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="91" t="e">
+      <c r="P12" s="88">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="88">
+        <v>3.2</v>
+      </c>
+      <c r="R12" s="88">
+        <v>0</v>
+      </c>
+      <c r="S12" s="88">
+        <v>0</v>
+      </c>
+      <c r="T12" s="91">
         <f>_xll.qlMidSafe($P12,$Q12)</f>
-        <v>#NUM!</v>
+        <v>3.1</v>
       </c>
       <c r="U12" s="89"/>
       <c r="V12" s="90">
@@ -11172,7 +11189,7 @@
       </c>
       <c r="F13" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H4Y_Quote#0001</v>
+        <v>CNHQM3H4Y_Quote#0004</v>
       </c>
       <c r="G13" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -11196,21 +11213,21 @@
       <c r="O13" s="119" t="str">
         <v>CNHQM3H4Y=TRHK</v>
       </c>
-      <c r="P13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="91" t="e">
+      <c r="P13" s="88">
+        <v>3.1</v>
+      </c>
+      <c r="Q13" s="88">
+        <v>3.5</v>
+      </c>
+      <c r="R13" s="88">
+        <v>0</v>
+      </c>
+      <c r="S13" s="88">
+        <v>0</v>
+      </c>
+      <c r="T13" s="91">
         <f>_xll.qlMidSafe($P13,$Q13)</f>
-        <v>#NUM!</v>
+        <v>3.3</v>
       </c>
       <c r="U13" s="89"/>
       <c r="V13" s="90">
@@ -11244,7 +11261,7 @@
       </c>
       <c r="F14" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H5Y_Quote#0001</v>
+        <v>CNHQM3H5Y_Quote#0004</v>
       </c>
       <c r="G14" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -11268,21 +11285,21 @@
       <c r="O14" s="119" t="str">
         <v>CNHQM3H5Y=TRHK</v>
       </c>
-      <c r="P14" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R14" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="91" t="e">
+      <c r="P14" s="88">
+        <v>3.2</v>
+      </c>
+      <c r="Q14" s="88">
+        <v>3.7</v>
+      </c>
+      <c r="R14" s="88">
+        <v>0</v>
+      </c>
+      <c r="S14" s="88">
+        <v>0</v>
+      </c>
+      <c r="T14" s="91">
         <f>_xll.qlMidSafe($P14,$Q14)</f>
-        <v>#NUM!</v>
+        <v>3.45</v>
       </c>
       <c r="U14" s="89"/>
       <c r="V14" s="90">
@@ -11316,7 +11333,7 @@
       </c>
       <c r="F15" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H6Y_Quote#0001</v>
+        <v>CNHQM3H6Y_Quote#0004</v>
       </c>
       <c r="G15" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -11341,16 +11358,16 @@
         <v>CNHQM3H6Y=TRHK</v>
       </c>
       <c r="P15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S15" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T15" s="91" t="e">
         <f>_xll.qlMidSafe($P15,$Q15)</f>
@@ -11388,7 +11405,7 @@
       </c>
       <c r="F16" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H7Y_Quote#0001</v>
+        <v>CNHQM3H7Y_Quote#0004</v>
       </c>
       <c r="G16" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -11412,17 +11429,17 @@
       <c r="O16" s="119" t="str">
         <v>CNHQM3H7Y=TRHK</v>
       </c>
-      <c r="P16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R16" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="88" t="s">
-        <v>184</v>
+      <c r="P16" s="88">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="88">
+        <v>0</v>
+      </c>
+      <c r="R16" s="88">
+        <v>0</v>
+      </c>
+      <c r="S16" s="88">
+        <v>0</v>
       </c>
       <c r="T16" s="91" t="e">
         <f>_xll.qlMidSafe($P16,$Q16)</f>
@@ -11460,7 +11477,7 @@
       </c>
       <c r="F17" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H8Y_Quote#0001</v>
+        <v>CNHQM3H8Y_Quote#0004</v>
       </c>
       <c r="G17" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -11485,16 +11502,16 @@
         <v>CNHQM3H8Y=TRHK</v>
       </c>
       <c r="P17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S17" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T17" s="91" t="e">
         <f>_xll.qlMidSafe($P17,$Q17)</f>
@@ -11532,7 +11549,7 @@
       </c>
       <c r="F18" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H9Y_Quote#0001</v>
+        <v>CNHQM3H9Y_Quote#0004</v>
       </c>
       <c r="G18" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -11557,16 +11574,16 @@
         <v>CNHQM3H9Y=TRHK</v>
       </c>
       <c r="P18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S18" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T18" s="91" t="e">
         <f>_xll.qlMidSafe($P18,$Q18)</f>
@@ -11604,7 +11621,7 @@
       </c>
       <c r="F19" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H10Y_Quote#0001</v>
+        <v>CNHQM3H10Y_Quote#0004</v>
       </c>
       <c r="G19" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -11628,17 +11645,17 @@
       <c r="O19" s="119" t="str">
         <v>CNHQM3H10Y=TRHK</v>
       </c>
-      <c r="P19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="R19" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="88" t="s">
-        <v>184</v>
+      <c r="P19" s="88">
+        <v>2.9</v>
+      </c>
+      <c r="Q19" s="88">
+        <v>0</v>
+      </c>
+      <c r="R19" s="88">
+        <v>0</v>
+      </c>
+      <c r="S19" s="88">
+        <v>0</v>
       </c>
       <c r="T19" s="91" t="e">
         <f>_xll.qlMidSafe($P19,$Q19)</f>
@@ -11676,7 +11693,7 @@
       </c>
       <c r="F20" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H11Y_Quote#0001</v>
+        <v>CNHQM3H11Y_Quote#0004</v>
       </c>
       <c r="G20" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -11701,16 +11718,16 @@
         <v>CNHQM3H11Y=TRHK</v>
       </c>
       <c r="P20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S20" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T20" s="91" t="e">
         <f>_xll.qlMidSafe($P20,$Q20)</f>
@@ -11748,7 +11765,7 @@
       </c>
       <c r="F21" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H12Y_Quote#0001</v>
+        <v>CNHQM3H12Y_Quote#0004</v>
       </c>
       <c r="G21" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -11773,16 +11790,16 @@
         <v>CNHQM3H12Y=TRHK</v>
       </c>
       <c r="P21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S21" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T21" s="91" t="e">
         <f>_xll.qlMidSafe($P21,$Q21)</f>
@@ -11820,7 +11837,7 @@
       </c>
       <c r="F22" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H13Y_Quote#0001</v>
+        <v>CNHQM3H13Y_Quote#0004</v>
       </c>
       <c r="G22" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -11845,16 +11862,16 @@
         <v>CNHQM3H13Y=TRHK</v>
       </c>
       <c r="P22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S22" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T22" s="91" t="e">
         <f>_xll.qlMidSafe($P22,$Q22)</f>
@@ -11892,7 +11909,7 @@
       </c>
       <c r="F23" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H14Y_Quote#0001</v>
+        <v>CNHQM3H14Y_Quote#0004</v>
       </c>
       <c r="G23" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -11917,16 +11934,16 @@
         <v>CNHQM3H14Y=TRHK</v>
       </c>
       <c r="P23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S23" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T23" s="91" t="e">
         <f>_xll.qlMidSafe($P23,$Q23)</f>
@@ -11964,7 +11981,7 @@
       </c>
       <c r="F24" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H15Y_Quote#0001</v>
+        <v>CNHQM3H15Y_Quote#0004</v>
       </c>
       <c r="G24" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -11989,16 +12006,16 @@
         <v>CNHQM3H15Y=TRHK</v>
       </c>
       <c r="P24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S24" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T24" s="91" t="e">
         <f>_xll.qlMidSafe($P24,$Q24)</f>
@@ -12036,7 +12053,7 @@
       </c>
       <c r="F25" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H16Y_Quote#0001</v>
+        <v>CNHQM3H16Y_Quote#0004</v>
       </c>
       <c r="G25" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -12061,16 +12078,16 @@
         <v>CNHQM3H16Y=TRHK</v>
       </c>
       <c r="P25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S25" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T25" s="91" t="e">
         <f>_xll.qlMidSafe($P25,$Q25)</f>
@@ -12108,7 +12125,7 @@
       </c>
       <c r="F26" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H17Y_Quote#0001</v>
+        <v>CNHQM3H17Y_Quote#0004</v>
       </c>
       <c r="G26" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -12133,16 +12150,16 @@
         <v>CNHQM3H17Y=TRHK</v>
       </c>
       <c r="P26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S26" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T26" s="91" t="e">
         <f>_xll.qlMidSafe($P26,$Q26)</f>
@@ -12180,7 +12197,7 @@
       </c>
       <c r="F27" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H18Y_Quote#0001</v>
+        <v>CNHQM3H18Y_Quote#0004</v>
       </c>
       <c r="G27" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -12205,16 +12222,16 @@
         <v>CNHQM3H18Y=TRHK</v>
       </c>
       <c r="P27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S27" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T27" s="91" t="e">
         <f>_xll.qlMidSafe($P27,$Q27)</f>
@@ -12252,7 +12269,7 @@
       </c>
       <c r="F28" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H19Y_Quote#0001</v>
+        <v>CNHQM3H19Y_Quote#0004</v>
       </c>
       <c r="G28" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -12277,16 +12294,16 @@
         <v>CNHQM3H19Y=TRHK</v>
       </c>
       <c r="P28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S28" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T28" s="91" t="e">
         <f>_xll.qlMidSafe($P28,$Q28)</f>
@@ -12324,7 +12341,7 @@
       </c>
       <c r="F29" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H20Y_Quote#0001</v>
+        <v>CNHQM3H20Y_Quote#0004</v>
       </c>
       <c r="G29" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -12349,16 +12366,16 @@
         <v>CNHQM3H20Y=TRHK</v>
       </c>
       <c r="P29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S29" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T29" s="91" t="e">
         <f>_xll.qlMidSafe($P29,$Q29)</f>
@@ -12396,7 +12413,7 @@
       </c>
       <c r="F30" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H21Y_Quote#0001</v>
+        <v>CNHQM3H21Y_Quote#0004</v>
       </c>
       <c r="G30" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -12421,16 +12438,16 @@
         <v>CNHQM3H21Y=TRHK</v>
       </c>
       <c r="P30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S30" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T30" s="91" t="e">
         <f>_xll.qlMidSafe($P30,$Q30)</f>
@@ -12468,7 +12485,7 @@
       </c>
       <c r="F31" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H22Y_Quote#0001</v>
+        <v>CNHQM3H22Y_Quote#0004</v>
       </c>
       <c r="G31" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -12493,16 +12510,16 @@
         <v>CNHQM3H22Y=TRHK</v>
       </c>
       <c r="P31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S31" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T31" s="91" t="e">
         <f>_xll.qlMidSafe($P31,$Q31)</f>
@@ -12540,7 +12557,7 @@
       </c>
       <c r="F32" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H23Y_Quote#0001</v>
+        <v>CNHQM3H23Y_Quote#0004</v>
       </c>
       <c r="G32" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -12565,16 +12582,16 @@
         <v>CNHQM3H23Y=TRHK</v>
       </c>
       <c r="P32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S32" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T32" s="91" t="e">
         <f>_xll.qlMidSafe($P32,$Q32)</f>
@@ -12612,7 +12629,7 @@
       </c>
       <c r="F33" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H24Y_Quote#0001</v>
+        <v>CNHQM3H24Y_Quote#0004</v>
       </c>
       <c r="G33" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -12637,16 +12654,16 @@
         <v>CNHQM3H24Y=TRHK</v>
       </c>
       <c r="P33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S33" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T33" s="91" t="e">
         <f>_xll.qlMidSafe($P33,$Q33)</f>
@@ -12684,7 +12701,7 @@
       </c>
       <c r="F34" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H25Y_Quote#0001</v>
+        <v>CNHQM3H25Y_Quote#0004</v>
       </c>
       <c r="G34" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -12709,16 +12726,16 @@
         <v>CNHQM3H25Y=TRHK</v>
       </c>
       <c r="P34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S34" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T34" s="91" t="e">
         <f>_xll.qlMidSafe($P34,$Q34)</f>
@@ -12756,7 +12773,7 @@
       </c>
       <c r="F35" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H26Y_Quote#0001</v>
+        <v>CNHQM3H26Y_Quote#0004</v>
       </c>
       <c r="G35" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -12781,16 +12798,16 @@
         <v>CNHQM3H26Y=TRHK</v>
       </c>
       <c r="P35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S35" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T35" s="91" t="e">
         <f>_xll.qlMidSafe($P35,$Q35)</f>
@@ -12828,7 +12845,7 @@
       </c>
       <c r="F36" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H27Y_Quote#0001</v>
+        <v>CNHQM3H27Y_Quote#0004</v>
       </c>
       <c r="G36" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -12853,16 +12870,16 @@
         <v>CNHQM3H27Y=TRHK</v>
       </c>
       <c r="P36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S36" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T36" s="91" t="e">
         <f>_xll.qlMidSafe($P36,$Q36)</f>
@@ -12900,7 +12917,7 @@
       </c>
       <c r="F37" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H28Y_Quote#0001</v>
+        <v>CNHQM3H28Y_Quote#0004</v>
       </c>
       <c r="G37" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -12925,16 +12942,16 @@
         <v>CNHQM3H28Y=TRHK</v>
       </c>
       <c r="P37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S37" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T37" s="91" t="e">
         <f>_xll.qlMidSafe($P37,$Q37)</f>
@@ -12972,7 +12989,7 @@
       </c>
       <c r="F38" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H29Y_Quote#0001</v>
+        <v>CNHQM3H29Y_Quote#0004</v>
       </c>
       <c r="G38" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -12997,16 +13014,16 @@
         <v>CNHQM3H29Y=TRHK</v>
       </c>
       <c r="P38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S38" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T38" s="91" t="e">
         <f>_xll.qlMidSafe($P38,$Q38)</f>
@@ -13044,7 +13061,7 @@
       </c>
       <c r="F39" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H30Y_Quote#0001</v>
+        <v>CNHQM3H30Y_Quote#0004</v>
       </c>
       <c r="G39" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -13069,16 +13086,16 @@
         <v>CNHQM3H30Y=TRHK</v>
       </c>
       <c r="P39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S39" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T39" s="91" t="e">
         <f>_xll.qlMidSafe($P39,$Q39)</f>
@@ -13116,7 +13133,7 @@
       </c>
       <c r="F40" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H35Y_Quote#0001</v>
+        <v>CNHQM3H35Y_Quote#0004</v>
       </c>
       <c r="G40" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -13141,16 +13158,16 @@
         <v>CNHQM3H35Y=TRHK</v>
       </c>
       <c r="P40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S40" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T40" s="91" t="e">
         <f>_xll.qlMidSafe($P40,$Q40)</f>
@@ -13188,7 +13205,7 @@
       </c>
       <c r="F41" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C41&amp;$D41&amp;$B41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H40Y_Quote#0001</v>
+        <v>CNHQM3H40Y_Quote#0004</v>
       </c>
       <c r="G41" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -13213,16 +13230,16 @@
         <v>CNHQM3H40Y=TRHK</v>
       </c>
       <c r="P41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S41" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T41" s="91" t="e">
         <f>_xll.qlMidSafe($P41,$Q41)</f>
@@ -13260,7 +13277,7 @@
       </c>
       <c r="F42" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C42&amp;$D42&amp;$B42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H50Y_Quote#0001</v>
+        <v>CNHQM3H50Y_Quote#0004</v>
       </c>
       <c r="G42" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -13285,16 +13302,16 @@
         <v>CNHQM3H50Y=TRHK</v>
       </c>
       <c r="P42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S42" s="88" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T42" s="91" t="e">
         <f>_xll.qlMidSafe($P42,$Q42)</f>
@@ -13332,7 +13349,7 @@
       </c>
       <c r="F43" s="24" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C43&amp;$D43&amp;$B43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>CNHQM3H60Y_Quote#0001</v>
+        <v>CNHQM3H60Y_Quote#0004</v>
       </c>
       <c r="G43" s="68" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -13357,16 +13374,16 @@
         <v>CNHQM3H60Y=TRHK</v>
       </c>
       <c r="P43" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="Q43" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="R43" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="S43" s="96" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="T43" s="98" t="e">
         <f>_xll.qlMidSafe($P43,$Q43)</f>
